--- a/ODiYstatus.xlsx
+++ b/ODiYstatus.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr showPivotChartFilter="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EZEN\DOCUME~1\카카오~1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EZEN\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22575" windowHeight="8595"/>
   </bookViews>
   <sheets>
-    <sheet name="WBS" sheetId="9" r:id="rId1"/>
+    <sheet name="WBS" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -64,297 +64,210 @@
     <definedName name="파트" localSheetId="0">OFFSET(#REF!,0,0,1,COUNTA(#REF!))</definedName>
     <definedName name="파트">OFFSET(#REF!,0,0,1,COUNTA(#REF!))</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
   <si>
-    <t>Enter Project Range</t>
+    <t>담당자</t>
+  </si>
+  <si>
+    <t>시작일</t>
+  </si>
+  <si>
+    <t>상태</t>
+  </si>
+  <si>
+    <t>기간</t>
+  </si>
+  <si>
+    <t>인덱스</t>
+  </si>
+  <si>
+    <t>관리자</t>
+  </si>
+  <si>
+    <t>내주변</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>페이지</t>
+  </si>
+  <si>
+    <t>우진</t>
+  </si>
+  <si>
+    <t>하단</t>
+  </si>
+  <si>
+    <t>메인</t>
+  </si>
+  <si>
+    <t>통영</t>
+  </si>
+  <si>
+    <t>종료일</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>재웅</t>
+  </si>
+  <si>
+    <t>헤더</t>
+  </si>
+  <si>
+    <t>원일</t>
+  </si>
+  <si>
+    <t>기능</t>
+  </si>
+  <si>
+    <t>진척율
+(%)</t>
+  </si>
+  <si>
+    <t>1depth</t>
+  </si>
+  <si>
+    <t>2depth</t>
+  </si>
+  <si>
+    <t>3depth</t>
+  </si>
+  <si>
+    <t>ODiY</t>
+  </si>
+  <si>
+    <t>마이페이지</t>
+  </si>
+  <si>
+    <t>상세검색도구</t>
+  </si>
+  <si>
+    <t>회원가입완료</t>
+  </si>
+  <si>
+    <t>검색결과목록</t>
+  </si>
+  <si>
+    <t>네비게이터</t>
+  </si>
+  <si>
+    <t>즐겨찾기 영역</t>
+  </si>
+  <si>
+    <t>배우고나서</t>
+  </si>
+  <si>
+    <t>추후작성</t>
+  </si>
+  <si>
+    <t>회원목록보기</t>
+  </si>
+  <si>
+    <t>내정보 영역</t>
+  </si>
+  <si>
+    <t>여행플랜</t>
+  </si>
+  <si>
+    <t>회원가입 폼</t>
+  </si>
+  <si>
+    <t>메인 슬라이드</t>
+  </si>
+  <si>
+    <t>로그인화면</t>
+  </si>
+  <si>
+    <t>상세정보</t>
+  </si>
+  <si>
+    <t>회원가입</t>
+  </si>
+  <si>
+    <t>태그, 썸네일</t>
+  </si>
+  <si>
+    <t>상세 업무</t>
   </si>
   <si>
     <t>Start Date</t>
   </si>
   <si>
+    <t>html, css</t>
+  </si>
+  <si>
     <t>End Date</t>
   </si>
   <si>
-    <t>Zoom (enter 1 for Daily, 7 for Weekly)---&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>여행플랜목록 영역</t>
   </si>
   <si>
-    <t>상세 업무</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>전국지도 hover</t>
   </si>
   <si>
-    <t>담당자</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>상세정보 페이지 기본</t>
   </si>
   <si>
-    <t>시작일</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>Zoom (enter 1 for Daily, 7 for Weekly)---&gt;</t>
   </si>
   <si>
-    <t>종료일</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>지역 주변 추천, 지역 축제 이미지, 추천 코스 영역</t>
   </si>
   <si>
-    <t>기간</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>여행지 목록, 지도, 메모 영역</t>
   </si>
   <si>
-    <t>진척율
-(%)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>Enter Project Range</t>
   </si>
   <si>
-    <t>상태</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>상세검색도구 클릭시 팝업구역</t>
   </si>
   <si>
-    <t>1depth</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>추천 관광지, 행사정보</t>
   </si>
   <si>
-    <t>2depth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>여행플랜 기본정보 영역</t>
   </si>
   <si>
-    <t>3depth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ODiY</t>
-  </si>
-  <si>
-    <t>헤더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>html, css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>프로필사진 클릭시 팝업구역</t>
   </si>
   <si>
     <t>로고, 검색창 레이아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과목록, 즐겨찾기버튼구역</t>
+  </si>
+  <si>
+    <t>하단 영역 기본 레이아웃</t>
   </si>
   <si>
     <t>스크롤 내렸을 때 네비게이터, 검색창 변화 구성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상세검색도구 클릭시 팝업구역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>현재위치 보여주기 버튼, 중분류, 소분류 드롭다운</t>
   </si>
   <si>
-    <t>상세검색도구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로필사진 클릭시 팝업구역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>편의기능 아이콘 영역, 지도정보 영역</t>
   </si>
   <si>
     <t>가이드, 회원가입, 로그인 버튼 모양</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네비게이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 슬라이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천 관광지, 행사정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전국지도 hover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>태그, 썸네일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하단 영역 기본 레이아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색결과목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과목록, 즐겨찾기버튼구역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내주변</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재위치 보여주기 버튼, 중분류, 소분류 드롭다운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세정보 페이지 기본</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>편의기능 아이콘 영역, 지도정보 영역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역 주변 추천, 지역 축제 이미지, 추천 코스 영역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내정보 영역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즐겨찾기 영역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행플랜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행플랜목록 영역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행플랜 기본정보 영역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지 목록, 지도, 메모 영역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인덱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 폼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원목록보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배우고나서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추후작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재웅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="13">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="&quot;₩&quot;#,##0.00;[Red]&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="&quot;₩&quot;#,##0;[Red]&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;#,##0"/>
-    <numFmt numFmtId="181" formatCode="_-&quot;₩&quot;* #,##0_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="_-* #,##0.00_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="183" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="184" formatCode="yy/mm/dd"/>
     <numFmt numFmtId="185" formatCode="ddd"/>
@@ -362,95 +275,46 @@
     <numFmt numFmtId="187" formatCode="#,##0_ "/>
     <numFmt numFmtId="188" formatCode="0\ \%"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="바탕체"/>
-      <family val="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Helv"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Helv"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Helv"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Helv"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color rgb="FF568ED4"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -459,16 +323,12 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3" tint="0.39997558519241921"/>
-      <name val="맑은 고딕"/>
+      <sz val="8"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -480,42 +340,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="41"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor rgb="FF800000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="16"/>
+        <fgColor rgb="FFCCFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor rgb="FFDDD9C3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -524,22 +384,68 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,124 +453,17 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="55"/>
+        <color rgb="FF969696"/>
       </right>
       <top/>
       <bottom/>
@@ -672,10 +471,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="55"/>
+        <color rgb="FF969696"/>
       </left>
       <right style="thin">
-        <color indexed="55"/>
+        <color rgb="FF969696"/>
       </right>
       <top/>
       <bottom/>
@@ -683,40 +482,40 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="double">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="double">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="double">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,561 +524,752 @@
       <right/>
       <top/>
       <bottom style="double">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="55"/>
+        <color rgb="FF969696"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="double">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="55"/>
+        <color rgb="FF969696"/>
       </left>
       <right style="thin">
-        <color indexed="55"/>
+        <color rgb="FF969696"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="double">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="55"/>
+        <color rgb="FF969696"/>
       </top>
       <bottom style="thin">
-        <color indexed="55"/>
+        <color rgb="FF969696"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="double">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="55"/>
+        <color rgb="FF969696"/>
       </top>
       <bottom style="thin">
-        <color indexed="55"/>
+        <color rgb="FF969696"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="55"/>
+        <color rgb="FF969696"/>
       </right>
       <top style="thin">
-        <color indexed="55"/>
+        <color rgb="FF969696"/>
       </top>
       <bottom style="thin">
-        <color indexed="55"/>
+        <color rgb="FF969696"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="55"/>
+        <color rgb="FF969696"/>
       </left>
       <right style="thin">
-        <color indexed="55"/>
+        <color rgb="FF969696"/>
       </right>
       <top style="thin">
-        <color indexed="55"/>
+        <color rgb="FF969696"/>
       </top>
       <bottom style="thin">
-        <color indexed="55"/>
+        <color rgb="FF969696"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="55"/>
+        <color rgb="FF969696"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1"/>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" applyBorder="0">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="3" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="3" borderId="8" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="9" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="12" fillId="3" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="12" fillId="3" borderId="0" xfId="21" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="2" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="11" fillId="4" borderId="11" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="11" fillId="4" borderId="5" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="3" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="12" fillId="3" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="0" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="3" borderId="10" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="13" fillId="5" borderId="13" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="4" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="185" fontId="13" fillId="5" borderId="14" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="4" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="15" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="3" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="3" fillId="5" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="17" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="3" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="18" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="3" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="12" fillId="2" borderId="19" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="0" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="184" fontId="12" fillId="2" borderId="20" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="0" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="4" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="187" fontId="11" fillId="6" borderId="21" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="3" fillId="6" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="11" fillId="3" borderId="22" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="188" fontId="3" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="187" fontId="11" fillId="6" borderId="23" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="3" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="24" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="25" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="25" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="11" fillId="6" borderId="4" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="3" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="11" fillId="3" borderId="26" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="188" fontId="3" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="3" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="11" fillId="4" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="3" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="11" fillId="4" borderId="12" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="3" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
-    <cellStyle name="category" xfId="4"/>
-    <cellStyle name="comma zerodec" xfId="5"/>
-    <cellStyle name="Currency1" xfId="6"/>
-    <cellStyle name="Dollar (zero dec)" xfId="7"/>
-    <cellStyle name="Grey" xfId="8"/>
-    <cellStyle name="HEADER" xfId="9"/>
-    <cellStyle name="Header1" xfId="10"/>
-    <cellStyle name="Header2" xfId="11"/>
-    <cellStyle name="Input [yellow]" xfId="12"/>
-    <cellStyle name="Model" xfId="13"/>
-    <cellStyle name="Normal - Style1" xfId="14"/>
-    <cellStyle name="Normal_ChartUs" xfId="18"/>
-    <cellStyle name="Percent [2]" xfId="15"/>
-    <cellStyle name="subhead" xfId="16"/>
-    <cellStyle name="기본 2" xfId="17"/>
-    <cellStyle name="쉼표_Book1" xfId="21"/>
-    <cellStyle name="스타일 1" xfId="19"/>
-    <cellStyle name="콤마 [0]_95" xfId="2"/>
-    <cellStyle name="콤마_95" xfId="3"/>
+  <cellStyles count="5">
+    <cellStyle name="Normal_ChartUs" xfId="2"/>
+    <cellStyle name="기본 2" xfId="1"/>
+    <cellStyle name="쉼표_Book1" xfId="4"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
-    <cellStyle name="표준_Book1" xfId="20"/>
+    <cellStyle name="표준_Book1" xfId="3"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="28">
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="9"/>
-        </left>
-        <right style="thin">
-          <color indexed="9"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor indexed="31"/>
-          <bgColor indexed="65"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF333333"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
         <top style="thin">
-          <color indexed="23"/>
+          <color rgb="FF969696"/>
         </top>
         <bottom style="thin">
-          <color indexed="23"/>
+          <color rgb="FF969696"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="63"/>
+        <patternFill patternType="darkUp">
+          <fgColor rgb="FFCCCCFF"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
         <top style="thin">
-          <color indexed="55"/>
+          <color rgb="FF808080"/>
         </top>
         <bottom style="thin">
-          <color indexed="55"/>
+          <color rgb="FF808080"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor indexed="22"/>
+          <bgColor rgb="FFC0C0C0"/>
         </patternFill>
       </fill>
       <border>
         <left style="thin">
-          <color indexed="9"/>
+          <color rgb="FFFFFFFF"/>
         </left>
         <right style="thin">
-          <color indexed="9"/>
+          <color rgb="FFFFFFFF"/>
         </right>
       </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="darkUp">
-          <fgColor indexed="31"/>
-          <bgColor indexed="65"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FF333333"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
         <top style="thin">
-          <color indexed="23"/>
+          <color rgb="FF969696"/>
         </top>
         <bottom style="thin">
-          <color indexed="23"/>
+          <color rgb="FF969696"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="63"/>
+        <patternFill patternType="darkUp">
+          <fgColor rgb="FFCCCCFF"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
         <top style="thin">
-          <color indexed="55"/>
+          <color rgb="FF808080"/>
         </top>
         <bottom style="thin">
-          <color indexed="55"/>
+          <color rgb="FF808080"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor indexed="22"/>
+          <bgColor rgb="FFC0C0C0"/>
         </patternFill>
       </fill>
       <border>
         <left style="thin">
-          <color indexed="28"/>
+          <color rgb="FFFFFFFF"/>
         </left>
         <right style="thin">
-          <color indexed="28"/>
+          <color rgb="FFFFFFFF"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF660066"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF660066"/>
         </right>
       </border>
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor indexed="22"/>
+          <bgColor rgb="FFC0C0C0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <border>
         <left style="medium">
-          <color auto="1"/>
+          <color indexed="64"/>
         </left>
         <right style="medium">
-          <color auto="1"/>
+          <color indexed="64"/>
         </right>
         <top style="medium">
-          <color auto="1"/>
+          <color indexed="64"/>
         </top>
         <bottom style="medium">
-          <color auto="1"/>
+          <color indexed="64"/>
         </bottom>
         <vertical style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </vertical>
         <horizontal style="hair">
-          <color auto="1"/>
+          <color indexed="64"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
       <border>
         <left style="medium">
-          <color auto="1"/>
+          <color indexed="64"/>
         </left>
         <right style="medium">
-          <color auto="1"/>
+          <color indexed="64"/>
         </right>
         <top style="medium">
-          <color auto="1"/>
+          <color indexed="64"/>
         </top>
         <bottom style="medium">
-          <color auto="1"/>
+          <color indexed="64"/>
         </bottom>
         <vertical style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </vertical>
         <horizontal style="hair">
-          <color auto="1"/>
+          <color indexed="64"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <border>
         <bottom style="hair">
-          <color auto="1"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <border>
         <bottom style="hair">
-          <color auto="1"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <border>
         <bottom style="medium">
-          <color auto="1"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <border>
         <bottom style="hair">
-          <color auto="1"/>
+          <color indexed="64"/>
         </bottom>
         <horizontal style="hair">
-          <color auto="1"/>
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF94A5DF"/>
+          <bgColor rgb="FF94A5DF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color rgb="FF6182D6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF6182D6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border>
+        <top style="thin">
+          <color rgb="FF6182D6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF6182D6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color rgb="FF6182D6"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF6182D6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFAEBFEA"/>
+          <bgColor rgb="FFAEBFEA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFAEBFEA"/>
+          <bgColor rgb="FFAEBFEA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thick">
+          <color rgb="FFFFFFFF"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thick">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD7DFF4"/>
+          <bgColor rgb="FFD7DFF4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFFFF"/>
         </horizontal>
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="3" defaultTableStyle="표 스타일 1" defaultPivotStyle="PivotStyleLight16">
+  <tableStyles count="5" defaultTableStyle="표 스타일 1" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9">
+      <tableStyleElement type="wholeTable" dxfId="27"/>
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="totalRow" dxfId="25"/>
+      <tableStyleElement type="firstColumn" dxfId="24"/>
+      <tableStyleElement type="lastColumn" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="21"/>
+    </tableStyle>
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8">
+      <tableStyleElement type="wholeTable" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="totalRow" dxfId="18"/>
+      <tableStyleElement type="firstColumn" dxfId="17"/>
+      <tableStyleElement type="lastColumn" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="14"/>
+    </tableStyle>
     <tableStyle name="표 스타일 1" pivot="0" count="4">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
@@ -1293,12 +1283,6 @@
       <tableStyleElement type="wholeTable" dxfId="8"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <mruColors>
-      <color rgb="FFFFFFFF"/>
-      <color rgb="FFFFFFCC"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1345,18 +1329,7 @@
       <sheetName val="Roles and Resp"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="9">
-          <cell r="D9" t="str">
-            <v>200701-PJT</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10" t="str">
-            <v>나빌래라 프로젝트</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -1677,16 +1650,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:GA281"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="K9" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="16.5" style="36" customWidth="1"/>
     <col min="4" max="4" width="62.875" style="36" customWidth="1"/>
@@ -1700,16 +1674,16 @@
     <col min="184" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:183">
+    <row r="1" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
       <c r="D1" s="39"/>
       <c r="E1" s="40"/>
       <c r="F1" s="43" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G1" s="44"/>
       <c r="H1" s="1"/>
@@ -1889,17 +1863,17 @@
       <c r="FZ1" s="2"/>
       <c r="GA1" s="2"/>
     </row>
-    <row r="2" spans="1:183">
+    <row r="2" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
       <c r="E2" s="40"/>
       <c r="F2" s="4" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -2078,7 +2052,7 @@
       <c r="FZ2" s="2"/>
       <c r="GA2" s="2"/>
     </row>
-    <row r="3" spans="1:183">
+    <row r="3" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -2267,744 +2241,744 @@
       <c r="FZ3" s="12"/>
       <c r="GA3" s="12"/>
     </row>
-    <row r="4" spans="1:183" s="17" customFormat="1" ht="29.25" ph="1">
+    <row r="4" spans="1:183" s="17" customFormat="1" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s" ph="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="45" ph="1"/>
-      <c r="C4" s="45" ph="1"/>
+        <v>48</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="45"/>
       <c r="E4" s="45"/>
       <c r="F4" s="46"/>
-      <c r="G4" s="13" ph="1">
+      <c r="G4" s="13">
         <v>1</v>
       </c>
-      <c r="H4" s="14" ph="1"/>
-      <c r="I4" s="14" ph="1"/>
-      <c r="J4" s="14" ph="1"/>
-      <c r="K4" s="15" ph="1">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15">
         <f t="shared" ref="K4:BV4" si="0">IF((K5&lt;&gt;""),WEEKDAY(K5,1),"")</f>
         <v>4</v>
       </c>
-      <c r="L4" s="16" ph="1">
+      <c r="L4" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M4" s="16" ph="1">
+      <c r="M4" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="N4" s="16" ph="1">
+      <c r="N4" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="O4" s="16" ph="1">
+      <c r="O4" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P4" s="16" ph="1">
+      <c r="P4" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q4" s="16" ph="1">
+      <c r="Q4" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R4" s="16" ph="1">
+      <c r="R4" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="S4" s="16" ph="1">
+      <c r="S4" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T4" s="16" ph="1">
+      <c r="T4" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="U4" s="16" ph="1">
+      <c r="U4" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="V4" s="16" ph="1">
+      <c r="V4" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W4" s="16" ph="1">
+      <c r="W4" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="X4" s="16" ph="1">
+      <c r="X4" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="Y4" s="16" ph="1">
+      <c r="Y4" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="Z4" s="16" ph="1">
+      <c r="Z4" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AA4" s="16" ph="1">
+      <c r="AA4" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AB4" s="16" ph="1">
+      <c r="AB4" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AC4" s="16" ph="1">
+      <c r="AC4" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AD4" s="16" ph="1">
+      <c r="AD4" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AE4" s="16" ph="1">
+      <c r="AE4" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AF4" s="16" ph="1">
+      <c r="AF4" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AG4" s="16" ph="1">
+      <c r="AG4" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AH4" s="16" ph="1">
+      <c r="AH4" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AI4" s="16" ph="1">
+      <c r="AI4" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AJ4" s="16" ph="1">
+      <c r="AJ4" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AK4" s="16" ph="1">
+      <c r="AK4" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AL4" s="16" ph="1">
+      <c r="AL4" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AM4" s="16" ph="1">
+      <c r="AM4" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AN4" s="16" ph="1">
+      <c r="AN4" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AO4" s="16" ph="1">
+      <c r="AO4" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AP4" s="16" ph="1">
+      <c r="AP4" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AQ4" s="16" ph="1">
+      <c r="AQ4" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AR4" s="16" ph="1">
+      <c r="AR4" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AS4" s="16" ph="1">
+      <c r="AS4" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AT4" s="16" ph="1">
+      <c r="AT4" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AU4" s="16" ph="1">
+      <c r="AU4" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AV4" s="16" ph="1">
+      <c r="AV4" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AW4" s="16" ph="1">
+      <c r="AW4" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AX4" s="16" ph="1">
+      <c r="AX4" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AY4" s="16" ph="1">
+      <c r="AY4" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AZ4" s="16" ph="1">
+      <c r="AZ4" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="BA4" s="16" ph="1">
+      <c r="BA4" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="BB4" s="16" ph="1">
+      <c r="BB4" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="BC4" s="16" ph="1">
+      <c r="BC4" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="BD4" s="16" ph="1">
+      <c r="BD4" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="BE4" s="16" ph="1">
+      <c r="BE4" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BF4" s="16" ph="1">
+      <c r="BF4" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="BG4" s="16" ph="1">
+      <c r="BG4" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="BH4" s="16" ph="1">
+      <c r="BH4" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="BI4" s="16" ph="1">
+      <c r="BI4" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="BJ4" s="16" ph="1">
+      <c r="BJ4" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="BK4" s="16" ph="1">
+      <c r="BK4" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="BL4" s="16" ph="1">
+      <c r="BL4" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BM4" s="16" ph="1">
+      <c r="BM4" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="BN4" s="16" ph="1">
+      <c r="BN4" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="BO4" s="16" ph="1">
+      <c r="BO4" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="BP4" s="16" ph="1">
+      <c r="BP4" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="BQ4" s="16" ph="1">
+      <c r="BQ4" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="BR4" s="16" ph="1">
+      <c r="BR4" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="BS4" s="16" ph="1">
+      <c r="BS4" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BT4" s="16" ph="1">
+      <c r="BT4" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="BU4" s="16" ph="1">
+      <c r="BU4" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="BV4" s="16" ph="1">
+      <c r="BV4" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="BW4" s="16" t="str" ph="1">
+      <c r="BW4" s="16" t="str">
         <f t="shared" ref="BW4:EH4" si="1">IF((BW5&lt;&gt;""),WEEKDAY(BW5,1),"")</f>
         <v/>
       </c>
-      <c r="BX4" s="16" t="str" ph="1">
+      <c r="BX4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BY4" s="16" t="str" ph="1">
+      <c r="BY4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BZ4" s="16" t="str" ph="1">
+      <c r="BZ4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CA4" s="16" t="str" ph="1">
+      <c r="CA4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CB4" s="16" t="str" ph="1">
+      <c r="CB4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CC4" s="16" t="str" ph="1">
+      <c r="CC4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CD4" s="16" t="str" ph="1">
+      <c r="CD4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CE4" s="16" t="str" ph="1">
+      <c r="CE4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CF4" s="16" t="str" ph="1">
+      <c r="CF4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CG4" s="16" t="str" ph="1">
+      <c r="CG4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CH4" s="16" t="str" ph="1">
+      <c r="CH4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CI4" s="16" t="str" ph="1">
+      <c r="CI4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CJ4" s="16" t="str" ph="1">
+      <c r="CJ4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CK4" s="16" t="str" ph="1">
+      <c r="CK4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CL4" s="16" t="str" ph="1">
+      <c r="CL4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CM4" s="16" t="str" ph="1">
+      <c r="CM4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CN4" s="16" t="str" ph="1">
+      <c r="CN4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CO4" s="16" t="str" ph="1">
+      <c r="CO4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CP4" s="16" t="str" ph="1">
+      <c r="CP4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CQ4" s="16" t="str" ph="1">
+      <c r="CQ4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CR4" s="16" t="str" ph="1">
+      <c r="CR4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CS4" s="16" t="str" ph="1">
+      <c r="CS4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CT4" s="16" t="str" ph="1">
+      <c r="CT4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CU4" s="16" t="str" ph="1">
+      <c r="CU4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CV4" s="16" t="str" ph="1">
+      <c r="CV4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CW4" s="16" t="str" ph="1">
+      <c r="CW4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CX4" s="16" t="str" ph="1">
+      <c r="CX4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CY4" s="16" t="str" ph="1">
+      <c r="CY4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CZ4" s="16" t="str" ph="1">
+      <c r="CZ4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DA4" s="16" t="str" ph="1">
+      <c r="DA4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DB4" s="16" t="str" ph="1">
+      <c r="DB4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DC4" s="16" t="str" ph="1">
+      <c r="DC4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DD4" s="16" t="str" ph="1">
+      <c r="DD4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DE4" s="16" t="str" ph="1">
+      <c r="DE4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DF4" s="16" t="str" ph="1">
+      <c r="DF4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DG4" s="16" t="str" ph="1">
+      <c r="DG4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DH4" s="16" t="str" ph="1">
+      <c r="DH4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DI4" s="16" t="str" ph="1">
+      <c r="DI4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DJ4" s="16" t="str" ph="1">
+      <c r="DJ4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DK4" s="16" t="str" ph="1">
+      <c r="DK4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DL4" s="16" t="str" ph="1">
+      <c r="DL4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DM4" s="16" t="str" ph="1">
+      <c r="DM4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DN4" s="16" t="str" ph="1">
+      <c r="DN4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DO4" s="16" t="str" ph="1">
+      <c r="DO4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DP4" s="16" t="str" ph="1">
+      <c r="DP4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DQ4" s="16" t="str" ph="1">
+      <c r="DQ4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DR4" s="16" t="str" ph="1">
+      <c r="DR4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DS4" s="16" t="str" ph="1">
+      <c r="DS4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DT4" s="16" t="str" ph="1">
+      <c r="DT4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DU4" s="16" t="str" ph="1">
+      <c r="DU4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DV4" s="16" t="str" ph="1">
+      <c r="DV4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DW4" s="16" t="str" ph="1">
+      <c r="DW4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DX4" s="16" t="str" ph="1">
+      <c r="DX4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DY4" s="16" t="str" ph="1">
+      <c r="DY4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="DZ4" s="16" t="str" ph="1">
+      <c r="DZ4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="EA4" s="16" t="str" ph="1">
+      <c r="EA4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="EB4" s="16" t="str" ph="1">
+      <c r="EB4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="EC4" s="16" t="str" ph="1">
+      <c r="EC4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="ED4" s="16" t="str" ph="1">
+      <c r="ED4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="EE4" s="16" t="str" ph="1">
+      <c r="EE4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="EF4" s="16" t="str" ph="1">
+      <c r="EF4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="EG4" s="16" t="str" ph="1">
+      <c r="EG4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="EH4" s="16" t="str" ph="1">
+      <c r="EH4" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="EI4" s="16" t="str" ph="1">
+      <c r="EI4" s="16" t="str">
         <f t="shared" ref="EI4:GA4" si="2">IF((EI5&lt;&gt;""),WEEKDAY(EI5,1),"")</f>
         <v/>
       </c>
-      <c r="EJ4" s="16" t="str" ph="1">
+      <c r="EJ4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="EK4" s="16" t="str" ph="1">
+      <c r="EK4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="EL4" s="16" t="str" ph="1">
+      <c r="EL4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="EM4" s="16" t="str" ph="1">
+      <c r="EM4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="EN4" s="16" t="str" ph="1">
+      <c r="EN4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="EO4" s="16" t="str" ph="1">
+      <c r="EO4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="EP4" s="16" t="str" ph="1">
+      <c r="EP4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="EQ4" s="16" t="str" ph="1">
+      <c r="EQ4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="ER4" s="16" t="str" ph="1">
+      <c r="ER4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="ES4" s="16" t="str" ph="1">
+      <c r="ES4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="ET4" s="16" t="str" ph="1">
+      <c r="ET4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="EU4" s="16" t="str" ph="1">
+      <c r="EU4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="EV4" s="16" t="str" ph="1">
+      <c r="EV4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="EW4" s="16" t="str" ph="1">
+      <c r="EW4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="EX4" s="16" t="str" ph="1">
+      <c r="EX4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="EY4" s="16" t="str" ph="1">
+      <c r="EY4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="EZ4" s="16" t="str" ph="1">
+      <c r="EZ4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FA4" s="16" t="str" ph="1">
+      <c r="FA4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FB4" s="16" t="str" ph="1">
+      <c r="FB4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FC4" s="16" t="str" ph="1">
+      <c r="FC4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FD4" s="16" t="str" ph="1">
+      <c r="FD4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FE4" s="16" t="str" ph="1">
+      <c r="FE4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FF4" s="16" t="str" ph="1">
+      <c r="FF4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FG4" s="16" t="str" ph="1">
+      <c r="FG4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FH4" s="16" t="str" ph="1">
+      <c r="FH4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FI4" s="16" t="str" ph="1">
+      <c r="FI4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FJ4" s="16" t="str" ph="1">
+      <c r="FJ4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FK4" s="16" t="str" ph="1">
+      <c r="FK4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FL4" s="16" t="str" ph="1">
+      <c r="FL4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FM4" s="16" t="str" ph="1">
+      <c r="FM4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FN4" s="16" t="str" ph="1">
+      <c r="FN4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FO4" s="16" t="str" ph="1">
+      <c r="FO4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FP4" s="16" t="str" ph="1">
+      <c r="FP4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FQ4" s="16" t="str" ph="1">
+      <c r="FQ4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FR4" s="16" t="str" ph="1">
+      <c r="FR4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FS4" s="16" t="str" ph="1">
+      <c r="FS4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FT4" s="16" t="str" ph="1">
+      <c r="FT4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FU4" s="16" t="str" ph="1">
+      <c r="FU4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FV4" s="16" t="str" ph="1">
+      <c r="FV4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FW4" s="16" t="str" ph="1">
+      <c r="FW4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FX4" s="16" t="str" ph="1">
+      <c r="FX4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FY4" s="16" t="str" ph="1">
+      <c r="FY4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="FZ4" s="16" t="str" ph="1">
+      <c r="FZ4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="GA4" s="16" t="str" ph="1">
+      <c r="GA4" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:183" ht="49.5" thickBot="1">
+    <row r="5" spans="1:183" ht="48.75" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>7</v>
-      </c>
       <c r="H5" s="19" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K5" s="22">
         <f>IF(F3="",MIN(F13:F961,F3),F3)</f>
@@ -3699,21 +3673,21 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:183" ht="17.25" thickTop="1">
+    <row r="6" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F6" s="27">
         <v>44027</v>
@@ -3906,17 +3880,17 @@
       <c r="FZ6" s="32"/>
       <c r="GA6" s="32"/>
     </row>
-    <row r="7" spans="1:183">
+    <row r="7" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F7" s="27">
         <v>44028</v>
@@ -3925,7 +3899,7 @@
         <v>44032</v>
       </c>
       <c r="H7" s="34">
-        <f t="shared" ref="H7:H71" si="6">NETWORKDAYS(F7,G7)</f>
+        <f t="shared" ref="H7:H280" si="6">NETWORKDAYS(F7,G7)</f>
         <v>3</v>
       </c>
       <c r="I7" s="29">
@@ -4109,17 +4083,17 @@
       <c r="FZ7" s="32"/>
       <c r="GA7" s="32"/>
     </row>
-    <row r="8" spans="1:183">
+    <row r="8" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F8" s="27">
         <v>44029</v>
@@ -4128,14 +4102,14 @@
         <v>44033</v>
       </c>
       <c r="H8" s="34">
-        <f t="shared" ref="H8:H11" si="8">NETWORKDAYS(F8,G8)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I8" s="29">
         <v>0</v>
       </c>
       <c r="J8" s="30" t="str">
-        <f t="shared" ref="J8:J11" si="9">IF(I8=100,"완료",IF(I8=0,"대기","진행중"))</f>
+        <f t="shared" ref="J8:J11" si="8">IF(I8=100,"완료",IF(I8=0,"대기","진행중"))</f>
         <v>대기</v>
       </c>
       <c r="K8" s="31"/>
@@ -4312,17 +4286,17 @@
       <c r="FZ8" s="32"/>
       <c r="GA8" s="32"/>
     </row>
-    <row r="9" spans="1:183">
+    <row r="9" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F9" s="27">
         <v>44032</v>
@@ -4338,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>대기</v>
       </c>
       <c r="K9" s="31"/>
@@ -4515,17 +4489,17 @@
       <c r="FZ9" s="32"/>
       <c r="GA9" s="32"/>
     </row>
-    <row r="10" spans="1:183">
+    <row r="10" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F10" s="27">
         <v>44033</v>
@@ -4534,14 +4508,14 @@
         <v>44035</v>
       </c>
       <c r="H10" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I10" s="29">
         <v>0</v>
       </c>
       <c r="J10" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>대기</v>
       </c>
       <c r="K10" s="31"/>
@@ -4718,17 +4692,17 @@
       <c r="FZ10" s="32"/>
       <c r="GA10" s="32"/>
     </row>
-    <row r="11" spans="1:183">
+    <row r="11" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F11" s="27">
         <v>44034</v>
@@ -4737,14 +4711,14 @@
         <v>44036</v>
       </c>
       <c r="H11" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I11" s="29">
         <v>0</v>
       </c>
       <c r="J11" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>대기</v>
       </c>
       <c r="K11" s="31"/>
@@ -4921,17 +4895,17 @@
       <c r="FZ11" s="32"/>
       <c r="GA11" s="32"/>
     </row>
-    <row r="12" spans="1:183">
+    <row r="12" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F12" s="27">
         <v>44034</v>
@@ -5124,31 +5098,31 @@
       <c r="FZ12" s="32"/>
       <c r="GA12" s="32"/>
     </row>
-    <row r="13" spans="1:183">
+    <row r="13" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F13" s="27">
+        <v>44027</v>
+      </c>
+      <c r="G13" s="27">
         <v>44033</v>
-      </c>
-      <c r="G13" s="27">
-        <v>44035</v>
       </c>
       <c r="H13" s="34">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" s="29">
         <v>0</v>
@@ -5331,17 +5305,17 @@
       <c r="FZ13" s="32"/>
       <c r="GA13" s="32"/>
     </row>
-    <row r="14" spans="1:183">
+    <row r="14" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F14" s="27">
         <v>44034</v>
@@ -5534,23 +5508,23 @@
       <c r="FZ14" s="32"/>
       <c r="GA14" s="32"/>
     </row>
-    <row r="15" spans="1:183">
+    <row r="15" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F15" s="27">
-        <v>44035</v>
+        <v>44037</v>
       </c>
       <c r="G15" s="27">
-        <v>44037</v>
+        <v>44040</v>
       </c>
       <c r="H15" s="34">
         <f t="shared" si="6"/>
@@ -5737,27 +5711,27 @@
       <c r="FZ15" s="32"/>
       <c r="GA15" s="32"/>
     </row>
-    <row r="16" spans="1:183">
+    <row r="16" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F16" s="27">
-        <v>44036</v>
+        <v>44041</v>
       </c>
       <c r="G16" s="27">
-        <v>44038</v>
+        <v>44044</v>
       </c>
       <c r="H16" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" s="29">
         <v>0</v>
@@ -5940,21 +5914,21 @@
       <c r="FZ16" s="32"/>
       <c r="GA16" s="32"/>
     </row>
-    <row r="17" spans="1:183">
+    <row r="17" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="F17" s="27">
         <v>44028</v>
@@ -6147,21 +6121,21 @@
       <c r="FZ17" s="32"/>
       <c r="GA17" s="32"/>
     </row>
-    <row r="18" spans="1:183">
+    <row r="18" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F18" s="27">
         <v>44027</v>
@@ -6354,21 +6328,21 @@
       <c r="FZ18" s="32"/>
       <c r="GA18" s="32"/>
     </row>
-    <row r="19" spans="1:183">
+    <row r="19" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="F19" s="27">
         <v>44030</v>
@@ -6561,21 +6535,21 @@
       <c r="FZ19" s="32"/>
       <c r="GA19" s="32"/>
     </row>
-    <row r="20" spans="1:183">
+    <row r="20" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C20" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>17</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>63</v>
       </c>
       <c r="F20" s="27">
         <v>44027</v>
@@ -6768,17 +6742,17 @@
       <c r="FZ20" s="32"/>
       <c r="GA20" s="32"/>
     </row>
-    <row r="21" spans="1:183">
+    <row r="21" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="26" t="s">
         <v>17</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>63</v>
       </c>
       <c r="F21" s="27">
         <v>44028</v>
@@ -6971,17 +6945,17 @@
       <c r="FZ21" s="32"/>
       <c r="GA21" s="32"/>
     </row>
-    <row r="22" spans="1:183">
+    <row r="22" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
       <c r="C22" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="26" t="s">
         <v>17</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>63</v>
       </c>
       <c r="F22" s="27">
         <v>44030</v>
@@ -7174,31 +7148,31 @@
       <c r="FZ22" s="32"/>
       <c r="GA22" s="32"/>
     </row>
-    <row r="23" spans="1:183">
+    <row r="23" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F23" s="27">
-        <v>44043</v>
+        <v>44045</v>
       </c>
       <c r="G23" s="27">
-        <v>44045</v>
+        <v>44050</v>
       </c>
       <c r="H23" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I23" s="29">
         <v>0</v>
@@ -7381,27 +7355,27 @@
       <c r="FZ23" s="32"/>
       <c r="GA23" s="32"/>
     </row>
-    <row r="24" spans="1:183">
+    <row r="24" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F24" s="27">
-        <v>44044</v>
+        <v>44051</v>
       </c>
       <c r="G24" s="27">
-        <v>44046</v>
+        <v>44055</v>
       </c>
       <c r="H24" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24" s="29">
         <v>0</v>
@@ -7584,27 +7558,27 @@
       <c r="FZ24" s="32"/>
       <c r="GA24" s="32"/>
     </row>
-    <row r="25" spans="1:183">
+    <row r="25" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F25" s="27">
-        <v>44045</v>
+        <v>44056</v>
       </c>
       <c r="G25" s="27">
-        <v>44047</v>
+        <v>44060</v>
       </c>
       <c r="H25" s="34">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25" s="29">
         <v>0</v>
@@ -7787,27 +7761,27 @@
       <c r="FZ25" s="32"/>
       <c r="GA25" s="32"/>
     </row>
-    <row r="26" spans="1:183">
+    <row r="26" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F26" s="27">
-        <v>44046</v>
+        <v>44032</v>
       </c>
       <c r="G26" s="27">
-        <v>44048</v>
+        <v>44034</v>
       </c>
       <c r="H26" s="34">
         <f t="shared" si="6"/>
@@ -7994,23 +7968,23 @@
       <c r="FZ26" s="32"/>
       <c r="GA26" s="32"/>
     </row>
-    <row r="27" spans="1:183">
+    <row r="27" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F27" s="27">
-        <v>44047</v>
+        <v>44033</v>
       </c>
       <c r="G27" s="27">
-        <v>44049</v>
+        <v>44035</v>
       </c>
       <c r="H27" s="34">
         <f t="shared" si="6"/>
@@ -8197,21 +8171,21 @@
       <c r="FZ27" s="32"/>
       <c r="GA27" s="32"/>
     </row>
-    <row r="28" spans="1:183">
+    <row r="28" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C28" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="26" t="s">
         <v>17</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>64</v>
       </c>
       <c r="F28" s="27">
         <v>44033</v>
@@ -8404,21 +8378,21 @@
       <c r="FZ28" s="32"/>
       <c r="GA28" s="32"/>
     </row>
-    <row r="29" spans="1:183">
+    <row r="29" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C29" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="26" t="s">
         <v>17</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>64</v>
       </c>
       <c r="F29" s="27">
         <v>44034</v>
@@ -8611,21 +8585,21 @@
       <c r="FZ29" s="32"/>
       <c r="GA29" s="32"/>
     </row>
-    <row r="30" spans="1:183">
+    <row r="30" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C30" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="26" t="s">
         <v>17</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>64</v>
       </c>
       <c r="F30" s="27">
         <v>44036</v>
@@ -8818,21 +8792,21 @@
       <c r="FZ30" s="32"/>
       <c r="GA30" s="32"/>
     </row>
-    <row r="31" spans="1:183">
+    <row r="31" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F31" s="27">
         <v>44036</v>
@@ -9025,7 +8999,7 @@
       <c r="FZ31" s="32"/>
       <c r="GA31" s="32"/>
     </row>
-    <row r="32" spans="1:183">
+    <row r="32" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -9222,18 +9196,18 @@
       <c r="FZ32" s="32"/>
       <c r="GA32" s="32"/>
     </row>
-    <row r="33" spans="1:183">
+    <row r="33" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="27">
@@ -9427,7 +9401,7 @@
       <c r="FZ33" s="32"/>
       <c r="GA33" s="32"/>
     </row>
-    <row r="34" spans="1:183">
+    <row r="34" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -9624,7 +9598,7 @@
       <c r="FZ34" s="32"/>
       <c r="GA34" s="32"/>
     </row>
-    <row r="35" spans="1:183">
+    <row r="35" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -9821,7 +9795,7 @@
       <c r="FZ35" s="32"/>
       <c r="GA35" s="32"/>
     </row>
-    <row r="36" spans="1:183">
+    <row r="36" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -10018,7 +9992,7 @@
       <c r="FZ36" s="32"/>
       <c r="GA36" s="32"/>
     </row>
-    <row r="37" spans="1:183">
+    <row r="37" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -10215,7 +10189,7 @@
       <c r="FZ37" s="32"/>
       <c r="GA37" s="32"/>
     </row>
-    <row r="38" spans="1:183">
+    <row r="38" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -10412,7 +10386,7 @@
       <c r="FZ38" s="32"/>
       <c r="GA38" s="32"/>
     </row>
-    <row r="39" spans="1:183">
+    <row r="39" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
@@ -10609,7 +10583,7 @@
       <c r="FZ39" s="32"/>
       <c r="GA39" s="32"/>
     </row>
-    <row r="40" spans="1:183">
+    <row r="40" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -10806,7 +10780,7 @@
       <c r="FZ40" s="32"/>
       <c r="GA40" s="32"/>
     </row>
-    <row r="41" spans="1:183">
+    <row r="41" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -10999,7 +10973,7 @@
       <c r="FZ41" s="32"/>
       <c r="GA41" s="32"/>
     </row>
-    <row r="42" spans="1:183">
+    <row r="42" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
@@ -11192,7 +11166,7 @@
       <c r="FZ42" s="32"/>
       <c r="GA42" s="32"/>
     </row>
-    <row r="43" spans="1:183">
+    <row r="43" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
@@ -11385,7 +11359,7 @@
       <c r="FZ43" s="32"/>
       <c r="GA43" s="32"/>
     </row>
-    <row r="44" spans="1:183">
+    <row r="44" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -11578,7 +11552,7 @@
       <c r="FZ44" s="32"/>
       <c r="GA44" s="32"/>
     </row>
-    <row r="45" spans="1:183">
+    <row r="45" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="24"/>
       <c r="C45" s="24"/>
@@ -11771,7 +11745,7 @@
       <c r="FZ45" s="32"/>
       <c r="GA45" s="32"/>
     </row>
-    <row r="46" spans="1:183">
+    <row r="46" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
@@ -11964,7 +11938,7 @@
       <c r="FZ46" s="32"/>
       <c r="GA46" s="32"/>
     </row>
-    <row r="47" spans="1:183">
+    <row r="47" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
@@ -12157,7 +12131,7 @@
       <c r="FZ47" s="32"/>
       <c r="GA47" s="32"/>
     </row>
-    <row r="48" spans="1:183">
+    <row r="48" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
@@ -12350,7 +12324,7 @@
       <c r="FZ48" s="32"/>
       <c r="GA48" s="32"/>
     </row>
-    <row r="49" spans="1:183">
+    <row r="49" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -12543,7 +12517,7 @@
       <c r="FZ49" s="32"/>
       <c r="GA49" s="32"/>
     </row>
-    <row r="50" spans="1:183">
+    <row r="50" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A50" s="24"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -12736,7 +12710,7 @@
       <c r="FZ50" s="32"/>
       <c r="GA50" s="32"/>
     </row>
-    <row r="51" spans="1:183">
+    <row r="51" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -12929,7 +12903,7 @@
       <c r="FZ51" s="32"/>
       <c r="GA51" s="32"/>
     </row>
-    <row r="52" spans="1:183">
+    <row r="52" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A52" s="24"/>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
@@ -13122,7 +13096,7 @@
       <c r="FZ52" s="32"/>
       <c r="GA52" s="32"/>
     </row>
-    <row r="53" spans="1:183">
+    <row r="53" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
@@ -13315,7 +13289,7 @@
       <c r="FZ53" s="32"/>
       <c r="GA53" s="32"/>
     </row>
-    <row r="54" spans="1:183">
+    <row r="54" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
       <c r="B54" s="24"/>
       <c r="C54" s="24"/>
@@ -13508,7 +13482,7 @@
       <c r="FZ54" s="32"/>
       <c r="GA54" s="32"/>
     </row>
-    <row r="55" spans="1:183">
+    <row r="55" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A55" s="24"/>
       <c r="B55" s="24"/>
       <c r="C55" s="24"/>
@@ -13701,7 +13675,7 @@
       <c r="FZ55" s="32"/>
       <c r="GA55" s="32"/>
     </row>
-    <row r="56" spans="1:183">
+    <row r="56" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A56" s="24"/>
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
@@ -13894,7 +13868,7 @@
       <c r="FZ56" s="32"/>
       <c r="GA56" s="32"/>
     </row>
-    <row r="57" spans="1:183">
+    <row r="57" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
@@ -14087,7 +14061,7 @@
       <c r="FZ57" s="32"/>
       <c r="GA57" s="32"/>
     </row>
-    <row r="58" spans="1:183">
+    <row r="58" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
       <c r="B58" s="24"/>
       <c r="C58" s="24"/>
@@ -14280,7 +14254,7 @@
       <c r="FZ58" s="32"/>
       <c r="GA58" s="32"/>
     </row>
-    <row r="59" spans="1:183">
+    <row r="59" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A59" s="24"/>
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
@@ -14473,7 +14447,7 @@
       <c r="FZ59" s="32"/>
       <c r="GA59" s="32"/>
     </row>
-    <row r="60" spans="1:183">
+    <row r="60" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A60" s="24"/>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
@@ -14666,7 +14640,7 @@
       <c r="FZ60" s="32"/>
       <c r="GA60" s="32"/>
     </row>
-    <row r="61" spans="1:183">
+    <row r="61" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A61" s="24"/>
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
@@ -14859,7 +14833,7 @@
       <c r="FZ61" s="32"/>
       <c r="GA61" s="32"/>
     </row>
-    <row r="62" spans="1:183">
+    <row r="62" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A62" s="24"/>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
@@ -15052,7 +15026,7 @@
       <c r="FZ62" s="32"/>
       <c r="GA62" s="32"/>
     </row>
-    <row r="63" spans="1:183">
+    <row r="63" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A63" s="24"/>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
@@ -15245,7 +15219,7 @@
       <c r="FZ63" s="32"/>
       <c r="GA63" s="32"/>
     </row>
-    <row r="64" spans="1:183">
+    <row r="64" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A64" s="24"/>
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
@@ -15438,7 +15412,7 @@
       <c r="FZ64" s="32"/>
       <c r="GA64" s="32"/>
     </row>
-    <row r="65" spans="1:183">
+    <row r="65" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A65" s="24"/>
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
@@ -15631,7 +15605,7 @@
       <c r="FZ65" s="32"/>
       <c r="GA65" s="32"/>
     </row>
-    <row r="66" spans="1:183">
+    <row r="66" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A66" s="24"/>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
@@ -15824,7 +15798,7 @@
       <c r="FZ66" s="32"/>
       <c r="GA66" s="32"/>
     </row>
-    <row r="67" spans="1:183">
+    <row r="67" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A67" s="24"/>
       <c r="B67" s="24"/>
       <c r="C67" s="24"/>
@@ -16017,7 +15991,7 @@
       <c r="FZ67" s="32"/>
       <c r="GA67" s="32"/>
     </row>
-    <row r="68" spans="1:183">
+    <row r="68" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A68" s="24"/>
       <c r="B68" s="24"/>
       <c r="C68" s="24"/>
@@ -16210,7 +16184,7 @@
       <c r="FZ68" s="32"/>
       <c r="GA68" s="32"/>
     </row>
-    <row r="69" spans="1:183">
+    <row r="69" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A69" s="24"/>
       <c r="B69" s="24"/>
       <c r="C69" s="24"/>
@@ -16403,7 +16377,7 @@
       <c r="FZ69" s="32"/>
       <c r="GA69" s="32"/>
     </row>
-    <row r="70" spans="1:183">
+    <row r="70" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A70" s="24"/>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
@@ -16596,7 +16570,7 @@
       <c r="FZ70" s="32"/>
       <c r="GA70" s="32"/>
     </row>
-    <row r="71" spans="1:183">
+    <row r="71" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A71" s="24"/>
       <c r="B71" s="24"/>
       <c r="C71" s="24"/>
@@ -16789,7 +16763,7 @@
       <c r="FZ71" s="32"/>
       <c r="GA71" s="32"/>
     </row>
-    <row r="72" spans="1:183">
+    <row r="72" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A72" s="24"/>
       <c r="B72" s="24"/>
       <c r="C72" s="24"/>
@@ -16798,14 +16772,14 @@
       <c r="F72" s="27"/>
       <c r="G72" s="27"/>
       <c r="H72" s="34">
-        <f t="shared" ref="H72:H135" si="10">NETWORKDAYS(F72,G72)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I72" s="35">
         <v>0</v>
       </c>
       <c r="J72" s="30" t="str">
-        <f t="shared" ref="J72:J135" si="11">IF(I72=100,"완료",IF(I72=0,"대기","진행중"))</f>
+        <f t="shared" ref="J72:J135" si="9">IF(I72=100,"완료",IF(I72=0,"대기","진행중"))</f>
         <v>대기</v>
       </c>
       <c r="K72" s="31"/>
@@ -16982,7 +16956,7 @@
       <c r="FZ72" s="32"/>
       <c r="GA72" s="32"/>
     </row>
-    <row r="73" spans="1:183">
+    <row r="73" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A73" s="24"/>
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
@@ -16991,14 +16965,14 @@
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
       <c r="H73" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I73" s="35">
         <v>0</v>
       </c>
       <c r="J73" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K73" s="31"/>
@@ -17175,7 +17149,7 @@
       <c r="FZ73" s="32"/>
       <c r="GA73" s="32"/>
     </row>
-    <row r="74" spans="1:183">
+    <row r="74" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A74" s="24"/>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
@@ -17184,14 +17158,14 @@
       <c r="F74" s="27"/>
       <c r="G74" s="27"/>
       <c r="H74" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I74" s="35">
         <v>0</v>
       </c>
       <c r="J74" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K74" s="31"/>
@@ -17368,7 +17342,7 @@
       <c r="FZ74" s="32"/>
       <c r="GA74" s="32"/>
     </row>
-    <row r="75" spans="1:183">
+    <row r="75" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A75" s="24"/>
       <c r="B75" s="24"/>
       <c r="C75" s="24"/>
@@ -17377,14 +17351,14 @@
       <c r="F75" s="27"/>
       <c r="G75" s="27"/>
       <c r="H75" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I75" s="35">
         <v>0</v>
       </c>
       <c r="J75" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K75" s="31"/>
@@ -17561,7 +17535,7 @@
       <c r="FZ75" s="32"/>
       <c r="GA75" s="32"/>
     </row>
-    <row r="76" spans="1:183">
+    <row r="76" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A76" s="24"/>
       <c r="B76" s="24"/>
       <c r="C76" s="24"/>
@@ -17570,14 +17544,14 @@
       <c r="F76" s="27"/>
       <c r="G76" s="27"/>
       <c r="H76" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I76" s="35">
         <v>0</v>
       </c>
       <c r="J76" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K76" s="31"/>
@@ -17754,7 +17728,7 @@
       <c r="FZ76" s="32"/>
       <c r="GA76" s="32"/>
     </row>
-    <row r="77" spans="1:183">
+    <row r="77" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A77" s="24"/>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
@@ -17763,14 +17737,14 @@
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
       <c r="H77" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I77" s="35">
         <v>0</v>
       </c>
       <c r="J77" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K77" s="31"/>
@@ -17947,7 +17921,7 @@
       <c r="FZ77" s="32"/>
       <c r="GA77" s="32"/>
     </row>
-    <row r="78" spans="1:183">
+    <row r="78" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A78" s="24"/>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
@@ -17956,14 +17930,14 @@
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
       <c r="H78" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I78" s="35">
         <v>0</v>
       </c>
       <c r="J78" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K78" s="31"/>
@@ -18140,7 +18114,7 @@
       <c r="FZ78" s="32"/>
       <c r="GA78" s="32"/>
     </row>
-    <row r="79" spans="1:183">
+    <row r="79" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A79" s="24"/>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
@@ -18149,14 +18123,14 @@
       <c r="F79" s="27"/>
       <c r="G79" s="27"/>
       <c r="H79" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I79" s="35">
         <v>0</v>
       </c>
       <c r="J79" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K79" s="31"/>
@@ -18333,7 +18307,7 @@
       <c r="FZ79" s="32"/>
       <c r="GA79" s="32"/>
     </row>
-    <row r="80" spans="1:183">
+    <row r="80" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A80" s="24"/>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
@@ -18342,14 +18316,14 @@
       <c r="F80" s="27"/>
       <c r="G80" s="27"/>
       <c r="H80" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I80" s="35">
         <v>0</v>
       </c>
       <c r="J80" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K80" s="31"/>
@@ -18526,7 +18500,7 @@
       <c r="FZ80" s="32"/>
       <c r="GA80" s="32"/>
     </row>
-    <row r="81" spans="1:183">
+    <row r="81" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A81" s="24"/>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
@@ -18535,14 +18509,14 @@
       <c r="F81" s="27"/>
       <c r="G81" s="27"/>
       <c r="H81" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I81" s="35">
         <v>0</v>
       </c>
       <c r="J81" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K81" s="31"/>
@@ -18719,7 +18693,7 @@
       <c r="FZ81" s="32"/>
       <c r="GA81" s="32"/>
     </row>
-    <row r="82" spans="1:183">
+    <row r="82" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A82" s="24"/>
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
@@ -18728,14 +18702,14 @@
       <c r="F82" s="27"/>
       <c r="G82" s="27"/>
       <c r="H82" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I82" s="35">
         <v>0</v>
       </c>
       <c r="J82" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K82" s="31"/>
@@ -18912,7 +18886,7 @@
       <c r="FZ82" s="32"/>
       <c r="GA82" s="32"/>
     </row>
-    <row r="83" spans="1:183">
+    <row r="83" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A83" s="24"/>
       <c r="B83" s="24"/>
       <c r="C83" s="24"/>
@@ -18921,14 +18895,14 @@
       <c r="F83" s="27"/>
       <c r="G83" s="27"/>
       <c r="H83" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I83" s="35">
         <v>0</v>
       </c>
       <c r="J83" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K83" s="31"/>
@@ -19105,7 +19079,7 @@
       <c r="FZ83" s="32"/>
       <c r="GA83" s="32"/>
     </row>
-    <row r="84" spans="1:183">
+    <row r="84" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A84" s="24"/>
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
@@ -19114,14 +19088,14 @@
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
       <c r="H84" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I84" s="35">
         <v>0</v>
       </c>
       <c r="J84" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K84" s="31"/>
@@ -19298,7 +19272,7 @@
       <c r="FZ84" s="32"/>
       <c r="GA84" s="32"/>
     </row>
-    <row r="85" spans="1:183">
+    <row r="85" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A85" s="24"/>
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
@@ -19307,14 +19281,14 @@
       <c r="F85" s="27"/>
       <c r="G85" s="27"/>
       <c r="H85" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I85" s="35">
         <v>0</v>
       </c>
       <c r="J85" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K85" s="31"/>
@@ -19491,7 +19465,7 @@
       <c r="FZ85" s="32"/>
       <c r="GA85" s="32"/>
     </row>
-    <row r="86" spans="1:183">
+    <row r="86" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A86" s="24"/>
       <c r="B86" s="24"/>
       <c r="C86" s="24"/>
@@ -19500,14 +19474,14 @@
       <c r="F86" s="27"/>
       <c r="G86" s="27"/>
       <c r="H86" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I86" s="35">
         <v>0</v>
       </c>
       <c r="J86" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K86" s="31"/>
@@ -19684,7 +19658,7 @@
       <c r="FZ86" s="32"/>
       <c r="GA86" s="32"/>
     </row>
-    <row r="87" spans="1:183">
+    <row r="87" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A87" s="24"/>
       <c r="B87" s="24"/>
       <c r="C87" s="24"/>
@@ -19693,14 +19667,14 @@
       <c r="F87" s="27"/>
       <c r="G87" s="27"/>
       <c r="H87" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I87" s="35">
         <v>0</v>
       </c>
       <c r="J87" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K87" s="31"/>
@@ -19877,7 +19851,7 @@
       <c r="FZ87" s="32"/>
       <c r="GA87" s="32"/>
     </row>
-    <row r="88" spans="1:183">
+    <row r="88" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A88" s="24"/>
       <c r="B88" s="24"/>
       <c r="C88" s="24"/>
@@ -19886,14 +19860,14 @@
       <c r="F88" s="27"/>
       <c r="G88" s="27"/>
       <c r="H88" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I88" s="35">
         <v>0</v>
       </c>
       <c r="J88" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K88" s="31"/>
@@ -20070,7 +20044,7 @@
       <c r="FZ88" s="32"/>
       <c r="GA88" s="32"/>
     </row>
-    <row r="89" spans="1:183">
+    <row r="89" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A89" s="24"/>
       <c r="B89" s="24"/>
       <c r="C89" s="24"/>
@@ -20079,14 +20053,14 @@
       <c r="F89" s="27"/>
       <c r="G89" s="27"/>
       <c r="H89" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I89" s="35">
         <v>0</v>
       </c>
       <c r="J89" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K89" s="31"/>
@@ -20263,7 +20237,7 @@
       <c r="FZ89" s="32"/>
       <c r="GA89" s="32"/>
     </row>
-    <row r="90" spans="1:183">
+    <row r="90" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A90" s="24"/>
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
@@ -20272,14 +20246,14 @@
       <c r="F90" s="27"/>
       <c r="G90" s="27"/>
       <c r="H90" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I90" s="35">
         <v>0</v>
       </c>
       <c r="J90" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K90" s="31"/>
@@ -20456,7 +20430,7 @@
       <c r="FZ90" s="32"/>
       <c r="GA90" s="32"/>
     </row>
-    <row r="91" spans="1:183">
+    <row r="91" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A91" s="24"/>
       <c r="B91" s="24"/>
       <c r="C91" s="24"/>
@@ -20465,14 +20439,14 @@
       <c r="F91" s="27"/>
       <c r="G91" s="27"/>
       <c r="H91" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I91" s="35">
         <v>0</v>
       </c>
       <c r="J91" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K91" s="31"/>
@@ -20649,7 +20623,7 @@
       <c r="FZ91" s="32"/>
       <c r="GA91" s="32"/>
     </row>
-    <row r="92" spans="1:183">
+    <row r="92" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A92" s="24"/>
       <c r="B92" s="24"/>
       <c r="C92" s="24"/>
@@ -20658,14 +20632,14 @@
       <c r="F92" s="27"/>
       <c r="G92" s="27"/>
       <c r="H92" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I92" s="35">
         <v>0</v>
       </c>
       <c r="J92" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K92" s="31"/>
@@ -20842,7 +20816,7 @@
       <c r="FZ92" s="32"/>
       <c r="GA92" s="32"/>
     </row>
-    <row r="93" spans="1:183">
+    <row r="93" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A93" s="24"/>
       <c r="B93" s="24"/>
       <c r="C93" s="24"/>
@@ -20851,14 +20825,14 @@
       <c r="F93" s="27"/>
       <c r="G93" s="27"/>
       <c r="H93" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I93" s="35">
         <v>0</v>
       </c>
       <c r="J93" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K93" s="31"/>
@@ -21035,7 +21009,7 @@
       <c r="FZ93" s="32"/>
       <c r="GA93" s="32"/>
     </row>
-    <row r="94" spans="1:183">
+    <row r="94" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A94" s="24"/>
       <c r="B94" s="24"/>
       <c r="C94" s="24"/>
@@ -21044,14 +21018,14 @@
       <c r="F94" s="27"/>
       <c r="G94" s="27"/>
       <c r="H94" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I94" s="35">
         <v>0</v>
       </c>
       <c r="J94" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K94" s="31"/>
@@ -21228,7 +21202,7 @@
       <c r="FZ94" s="32"/>
       <c r="GA94" s="32"/>
     </row>
-    <row r="95" spans="1:183">
+    <row r="95" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A95" s="24"/>
       <c r="B95" s="24"/>
       <c r="C95" s="24"/>
@@ -21237,14 +21211,14 @@
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
       <c r="H95" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I95" s="35">
         <v>0</v>
       </c>
       <c r="J95" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K95" s="31"/>
@@ -21421,7 +21395,7 @@
       <c r="FZ95" s="32"/>
       <c r="GA95" s="32"/>
     </row>
-    <row r="96" spans="1:183">
+    <row r="96" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A96" s="24"/>
       <c r="B96" s="24"/>
       <c r="C96" s="24"/>
@@ -21430,14 +21404,14 @@
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
       <c r="H96" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I96" s="35">
         <v>0</v>
       </c>
       <c r="J96" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K96" s="31"/>
@@ -21614,7 +21588,7 @@
       <c r="FZ96" s="32"/>
       <c r="GA96" s="32"/>
     </row>
-    <row r="97" spans="1:183">
+    <row r="97" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A97" s="24"/>
       <c r="B97" s="24"/>
       <c r="C97" s="24"/>
@@ -21623,14 +21597,14 @@
       <c r="F97" s="27"/>
       <c r="G97" s="27"/>
       <c r="H97" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I97" s="35">
         <v>0</v>
       </c>
       <c r="J97" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K97" s="31"/>
@@ -21807,7 +21781,7 @@
       <c r="FZ97" s="32"/>
       <c r="GA97" s="32"/>
     </row>
-    <row r="98" spans="1:183">
+    <row r="98" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A98" s="24"/>
       <c r="B98" s="24"/>
       <c r="C98" s="24"/>
@@ -21816,14 +21790,14 @@
       <c r="F98" s="27"/>
       <c r="G98" s="27"/>
       <c r="H98" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I98" s="35">
         <v>0</v>
       </c>
       <c r="J98" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K98" s="31"/>
@@ -22000,7 +21974,7 @@
       <c r="FZ98" s="32"/>
       <c r="GA98" s="32"/>
     </row>
-    <row r="99" spans="1:183">
+    <row r="99" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A99" s="24"/>
       <c r="B99" s="24"/>
       <c r="C99" s="24"/>
@@ -22009,14 +21983,14 @@
       <c r="F99" s="27"/>
       <c r="G99" s="27"/>
       <c r="H99" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I99" s="35">
         <v>0</v>
       </c>
       <c r="J99" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K99" s="31"/>
@@ -22193,7 +22167,7 @@
       <c r="FZ99" s="32"/>
       <c r="GA99" s="32"/>
     </row>
-    <row r="100" spans="1:183">
+    <row r="100" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A100" s="24"/>
       <c r="B100" s="24"/>
       <c r="C100" s="24"/>
@@ -22202,14 +22176,14 @@
       <c r="F100" s="27"/>
       <c r="G100" s="27"/>
       <c r="H100" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I100" s="35">
         <v>0</v>
       </c>
       <c r="J100" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K100" s="31"/>
@@ -22386,7 +22360,7 @@
       <c r="FZ100" s="32"/>
       <c r="GA100" s="32"/>
     </row>
-    <row r="101" spans="1:183">
+    <row r="101" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A101" s="24"/>
       <c r="B101" s="24"/>
       <c r="C101" s="24"/>
@@ -22395,14 +22369,14 @@
       <c r="F101" s="27"/>
       <c r="G101" s="27"/>
       <c r="H101" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I101" s="35">
         <v>0</v>
       </c>
       <c r="J101" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K101" s="31"/>
@@ -22579,7 +22553,7 @@
       <c r="FZ101" s="32"/>
       <c r="GA101" s="32"/>
     </row>
-    <row r="102" spans="1:183">
+    <row r="102" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A102" s="24"/>
       <c r="B102" s="24"/>
       <c r="C102" s="24"/>
@@ -22588,14 +22562,14 @@
       <c r="F102" s="27"/>
       <c r="G102" s="27"/>
       <c r="H102" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I102" s="35">
         <v>0</v>
       </c>
       <c r="J102" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K102" s="31"/>
@@ -22772,7 +22746,7 @@
       <c r="FZ102" s="32"/>
       <c r="GA102" s="32"/>
     </row>
-    <row r="103" spans="1:183">
+    <row r="103" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A103" s="24"/>
       <c r="B103" s="24"/>
       <c r="C103" s="24"/>
@@ -22781,14 +22755,14 @@
       <c r="F103" s="27"/>
       <c r="G103" s="27"/>
       <c r="H103" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I103" s="35">
         <v>0</v>
       </c>
       <c r="J103" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K103" s="31"/>
@@ -22965,7 +22939,7 @@
       <c r="FZ103" s="32"/>
       <c r="GA103" s="32"/>
     </row>
-    <row r="104" spans="1:183">
+    <row r="104" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A104" s="24"/>
       <c r="B104" s="24"/>
       <c r="C104" s="24"/>
@@ -22974,14 +22948,14 @@
       <c r="F104" s="27"/>
       <c r="G104" s="27"/>
       <c r="H104" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I104" s="35">
         <v>0</v>
       </c>
       <c r="J104" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K104" s="31"/>
@@ -23158,7 +23132,7 @@
       <c r="FZ104" s="32"/>
       <c r="GA104" s="32"/>
     </row>
-    <row r="105" spans="1:183">
+    <row r="105" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A105" s="24"/>
       <c r="B105" s="24"/>
       <c r="C105" s="24"/>
@@ -23167,14 +23141,14 @@
       <c r="F105" s="27"/>
       <c r="G105" s="27"/>
       <c r="H105" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I105" s="35">
         <v>0</v>
       </c>
       <c r="J105" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K105" s="31"/>
@@ -23351,7 +23325,7 @@
       <c r="FZ105" s="32"/>
       <c r="GA105" s="32"/>
     </row>
-    <row r="106" spans="1:183">
+    <row r="106" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A106" s="24"/>
       <c r="B106" s="24"/>
       <c r="C106" s="24"/>
@@ -23360,14 +23334,14 @@
       <c r="F106" s="27"/>
       <c r="G106" s="27"/>
       <c r="H106" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I106" s="35">
         <v>0</v>
       </c>
       <c r="J106" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K106" s="31"/>
@@ -23544,7 +23518,7 @@
       <c r="FZ106" s="32"/>
       <c r="GA106" s="32"/>
     </row>
-    <row r="107" spans="1:183">
+    <row r="107" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A107" s="24"/>
       <c r="B107" s="24"/>
       <c r="C107" s="24"/>
@@ -23553,14 +23527,14 @@
       <c r="F107" s="27"/>
       <c r="G107" s="27"/>
       <c r="H107" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I107" s="35">
         <v>0</v>
       </c>
       <c r="J107" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K107" s="31"/>
@@ -23737,7 +23711,7 @@
       <c r="FZ107" s="32"/>
       <c r="GA107" s="32"/>
     </row>
-    <row r="108" spans="1:183">
+    <row r="108" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A108" s="24"/>
       <c r="B108" s="24"/>
       <c r="C108" s="24"/>
@@ -23746,14 +23720,14 @@
       <c r="F108" s="27"/>
       <c r="G108" s="27"/>
       <c r="H108" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I108" s="35">
         <v>0</v>
       </c>
       <c r="J108" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K108" s="31"/>
@@ -23930,7 +23904,7 @@
       <c r="FZ108" s="32"/>
       <c r="GA108" s="32"/>
     </row>
-    <row r="109" spans="1:183">
+    <row r="109" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A109" s="24"/>
       <c r="B109" s="24"/>
       <c r="C109" s="24"/>
@@ -23939,14 +23913,14 @@
       <c r="F109" s="27"/>
       <c r="G109" s="27"/>
       <c r="H109" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I109" s="35">
         <v>0</v>
       </c>
       <c r="J109" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K109" s="31"/>
@@ -24123,7 +24097,7 @@
       <c r="FZ109" s="32"/>
       <c r="GA109" s="32"/>
     </row>
-    <row r="110" spans="1:183">
+    <row r="110" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A110" s="24"/>
       <c r="B110" s="24"/>
       <c r="C110" s="24"/>
@@ -24132,14 +24106,14 @@
       <c r="F110" s="27"/>
       <c r="G110" s="27"/>
       <c r="H110" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I110" s="35">
         <v>0</v>
       </c>
       <c r="J110" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K110" s="31"/>
@@ -24316,7 +24290,7 @@
       <c r="FZ110" s="32"/>
       <c r="GA110" s="32"/>
     </row>
-    <row r="111" spans="1:183">
+    <row r="111" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A111" s="24"/>
       <c r="B111" s="24"/>
       <c r="C111" s="24"/>
@@ -24325,14 +24299,14 @@
       <c r="F111" s="27"/>
       <c r="G111" s="27"/>
       <c r="H111" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I111" s="35">
         <v>0</v>
       </c>
       <c r="J111" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K111" s="31"/>
@@ -24509,7 +24483,7 @@
       <c r="FZ111" s="32"/>
       <c r="GA111" s="32"/>
     </row>
-    <row r="112" spans="1:183">
+    <row r="112" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A112" s="24"/>
       <c r="B112" s="24"/>
       <c r="C112" s="24"/>
@@ -24518,14 +24492,14 @@
       <c r="F112" s="27"/>
       <c r="G112" s="27"/>
       <c r="H112" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I112" s="35">
         <v>0</v>
       </c>
       <c r="J112" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K112" s="31"/>
@@ -24702,7 +24676,7 @@
       <c r="FZ112" s="32"/>
       <c r="GA112" s="32"/>
     </row>
-    <row r="113" spans="1:183">
+    <row r="113" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A113" s="24"/>
       <c r="B113" s="24"/>
       <c r="C113" s="24"/>
@@ -24711,14 +24685,14 @@
       <c r="F113" s="27"/>
       <c r="G113" s="27"/>
       <c r="H113" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I113" s="35">
         <v>0</v>
       </c>
       <c r="J113" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K113" s="31"/>
@@ -24895,7 +24869,7 @@
       <c r="FZ113" s="32"/>
       <c r="GA113" s="32"/>
     </row>
-    <row r="114" spans="1:183">
+    <row r="114" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A114" s="24"/>
       <c r="B114" s="24"/>
       <c r="C114" s="24"/>
@@ -24904,14 +24878,14 @@
       <c r="F114" s="27"/>
       <c r="G114" s="27"/>
       <c r="H114" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I114" s="35">
         <v>0</v>
       </c>
       <c r="J114" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K114" s="31"/>
@@ -25088,7 +25062,7 @@
       <c r="FZ114" s="32"/>
       <c r="GA114" s="32"/>
     </row>
-    <row r="115" spans="1:183">
+    <row r="115" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A115" s="24"/>
       <c r="B115" s="24"/>
       <c r="C115" s="24"/>
@@ -25097,14 +25071,14 @@
       <c r="F115" s="27"/>
       <c r="G115" s="27"/>
       <c r="H115" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I115" s="35">
         <v>0</v>
       </c>
       <c r="J115" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K115" s="31"/>
@@ -25281,7 +25255,7 @@
       <c r="FZ115" s="32"/>
       <c r="GA115" s="32"/>
     </row>
-    <row r="116" spans="1:183">
+    <row r="116" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A116" s="24"/>
       <c r="B116" s="24"/>
       <c r="C116" s="24"/>
@@ -25290,14 +25264,14 @@
       <c r="F116" s="27"/>
       <c r="G116" s="27"/>
       <c r="H116" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I116" s="35">
         <v>0</v>
       </c>
       <c r="J116" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K116" s="31"/>
@@ -25474,7 +25448,7 @@
       <c r="FZ116" s="32"/>
       <c r="GA116" s="32"/>
     </row>
-    <row r="117" spans="1:183">
+    <row r="117" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A117" s="24"/>
       <c r="B117" s="24"/>
       <c r="C117" s="24"/>
@@ -25483,14 +25457,14 @@
       <c r="F117" s="27"/>
       <c r="G117" s="27"/>
       <c r="H117" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I117" s="35">
         <v>0</v>
       </c>
       <c r="J117" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K117" s="31"/>
@@ -25667,7 +25641,7 @@
       <c r="FZ117" s="32"/>
       <c r="GA117" s="32"/>
     </row>
-    <row r="118" spans="1:183">
+    <row r="118" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A118" s="24"/>
       <c r="B118" s="24"/>
       <c r="C118" s="24"/>
@@ -25676,14 +25650,14 @@
       <c r="F118" s="27"/>
       <c r="G118" s="27"/>
       <c r="H118" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I118" s="35">
         <v>0</v>
       </c>
       <c r="J118" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K118" s="31"/>
@@ -25860,7 +25834,7 @@
       <c r="FZ118" s="32"/>
       <c r="GA118" s="32"/>
     </row>
-    <row r="119" spans="1:183">
+    <row r="119" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A119" s="24"/>
       <c r="B119" s="24"/>
       <c r="C119" s="24"/>
@@ -25869,14 +25843,14 @@
       <c r="F119" s="27"/>
       <c r="G119" s="27"/>
       <c r="H119" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I119" s="35">
         <v>0</v>
       </c>
       <c r="J119" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K119" s="31"/>
@@ -26053,7 +26027,7 @@
       <c r="FZ119" s="32"/>
       <c r="GA119" s="32"/>
     </row>
-    <row r="120" spans="1:183">
+    <row r="120" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A120" s="24"/>
       <c r="B120" s="24"/>
       <c r="C120" s="24"/>
@@ -26062,14 +26036,14 @@
       <c r="F120" s="27"/>
       <c r="G120" s="27"/>
       <c r="H120" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I120" s="35">
         <v>0</v>
       </c>
       <c r="J120" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K120" s="31"/>
@@ -26246,7 +26220,7 @@
       <c r="FZ120" s="32"/>
       <c r="GA120" s="32"/>
     </row>
-    <row r="121" spans="1:183">
+    <row r="121" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A121" s="24"/>
       <c r="B121" s="24"/>
       <c r="C121" s="24"/>
@@ -26255,14 +26229,14 @@
       <c r="F121" s="27"/>
       <c r="G121" s="27"/>
       <c r="H121" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I121" s="35">
         <v>0</v>
       </c>
       <c r="J121" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K121" s="31"/>
@@ -26439,7 +26413,7 @@
       <c r="FZ121" s="32"/>
       <c r="GA121" s="32"/>
     </row>
-    <row r="122" spans="1:183">
+    <row r="122" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A122" s="24"/>
       <c r="B122" s="24"/>
       <c r="C122" s="24"/>
@@ -26448,14 +26422,14 @@
       <c r="F122" s="27"/>
       <c r="G122" s="27"/>
       <c r="H122" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I122" s="35">
         <v>0</v>
       </c>
       <c r="J122" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K122" s="31"/>
@@ -26632,7 +26606,7 @@
       <c r="FZ122" s="32"/>
       <c r="GA122" s="32"/>
     </row>
-    <row r="123" spans="1:183">
+    <row r="123" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A123" s="24"/>
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
@@ -26641,14 +26615,14 @@
       <c r="F123" s="27"/>
       <c r="G123" s="27"/>
       <c r="H123" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I123" s="35">
         <v>0</v>
       </c>
       <c r="J123" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K123" s="31"/>
@@ -26825,7 +26799,7 @@
       <c r="FZ123" s="32"/>
       <c r="GA123" s="32"/>
     </row>
-    <row r="124" spans="1:183">
+    <row r="124" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A124" s="24"/>
       <c r="B124" s="24"/>
       <c r="C124" s="24"/>
@@ -26834,14 +26808,14 @@
       <c r="F124" s="27"/>
       <c r="G124" s="27"/>
       <c r="H124" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I124" s="35">
         <v>0</v>
       </c>
       <c r="J124" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K124" s="31"/>
@@ -27018,7 +26992,7 @@
       <c r="FZ124" s="32"/>
       <c r="GA124" s="32"/>
     </row>
-    <row r="125" spans="1:183">
+    <row r="125" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A125" s="24"/>
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
@@ -27027,14 +27001,14 @@
       <c r="F125" s="27"/>
       <c r="G125" s="27"/>
       <c r="H125" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I125" s="35">
         <v>0</v>
       </c>
       <c r="J125" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K125" s="31"/>
@@ -27211,7 +27185,7 @@
       <c r="FZ125" s="32"/>
       <c r="GA125" s="32"/>
     </row>
-    <row r="126" spans="1:183">
+    <row r="126" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A126" s="24"/>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
@@ -27220,14 +27194,14 @@
       <c r="F126" s="27"/>
       <c r="G126" s="27"/>
       <c r="H126" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I126" s="35">
         <v>0</v>
       </c>
       <c r="J126" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K126" s="31"/>
@@ -27404,7 +27378,7 @@
       <c r="FZ126" s="32"/>
       <c r="GA126" s="32"/>
     </row>
-    <row r="127" spans="1:183">
+    <row r="127" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A127" s="24"/>
       <c r="B127" s="24"/>
       <c r="C127" s="24"/>
@@ -27413,14 +27387,14 @@
       <c r="F127" s="27"/>
       <c r="G127" s="27"/>
       <c r="H127" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I127" s="35">
         <v>0</v>
       </c>
       <c r="J127" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K127" s="31"/>
@@ -27597,7 +27571,7 @@
       <c r="FZ127" s="32"/>
       <c r="GA127" s="32"/>
     </row>
-    <row r="128" spans="1:183">
+    <row r="128" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A128" s="24"/>
       <c r="B128" s="24"/>
       <c r="C128" s="24"/>
@@ -27606,14 +27580,14 @@
       <c r="F128" s="27"/>
       <c r="G128" s="27"/>
       <c r="H128" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I128" s="35">
         <v>0</v>
       </c>
       <c r="J128" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K128" s="31"/>
@@ -27790,7 +27764,7 @@
       <c r="FZ128" s="32"/>
       <c r="GA128" s="32"/>
     </row>
-    <row r="129" spans="1:183">
+    <row r="129" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A129" s="24"/>
       <c r="B129" s="24"/>
       <c r="C129" s="24"/>
@@ -27799,14 +27773,14 @@
       <c r="F129" s="27"/>
       <c r="G129" s="27"/>
       <c r="H129" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I129" s="35">
         <v>0</v>
       </c>
       <c r="J129" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K129" s="31"/>
@@ -27983,7 +27957,7 @@
       <c r="FZ129" s="32"/>
       <c r="GA129" s="32"/>
     </row>
-    <row r="130" spans="1:183">
+    <row r="130" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A130" s="24"/>
       <c r="B130" s="24"/>
       <c r="C130" s="24"/>
@@ -27992,14 +27966,14 @@
       <c r="F130" s="27"/>
       <c r="G130" s="27"/>
       <c r="H130" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I130" s="35">
         <v>0</v>
       </c>
       <c r="J130" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K130" s="31"/>
@@ -28176,7 +28150,7 @@
       <c r="FZ130" s="32"/>
       <c r="GA130" s="32"/>
     </row>
-    <row r="131" spans="1:183">
+    <row r="131" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A131" s="24"/>
       <c r="B131" s="24"/>
       <c r="C131" s="24"/>
@@ -28185,14 +28159,14 @@
       <c r="F131" s="27"/>
       <c r="G131" s="27"/>
       <c r="H131" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I131" s="35">
         <v>0</v>
       </c>
       <c r="J131" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K131" s="31"/>
@@ -28369,7 +28343,7 @@
       <c r="FZ131" s="32"/>
       <c r="GA131" s="32"/>
     </row>
-    <row r="132" spans="1:183">
+    <row r="132" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A132" s="24"/>
       <c r="B132" s="24"/>
       <c r="C132" s="24"/>
@@ -28378,14 +28352,14 @@
       <c r="F132" s="27"/>
       <c r="G132" s="27"/>
       <c r="H132" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I132" s="35">
         <v>0</v>
       </c>
       <c r="J132" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K132" s="31"/>
@@ -28562,7 +28536,7 @@
       <c r="FZ132" s="32"/>
       <c r="GA132" s="32"/>
     </row>
-    <row r="133" spans="1:183">
+    <row r="133" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A133" s="24"/>
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
@@ -28571,14 +28545,14 @@
       <c r="F133" s="27"/>
       <c r="G133" s="27"/>
       <c r="H133" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I133" s="35">
         <v>0</v>
       </c>
       <c r="J133" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K133" s="31"/>
@@ -28755,7 +28729,7 @@
       <c r="FZ133" s="32"/>
       <c r="GA133" s="32"/>
     </row>
-    <row r="134" spans="1:183">
+    <row r="134" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A134" s="24"/>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
@@ -28764,14 +28738,14 @@
       <c r="F134" s="27"/>
       <c r="G134" s="27"/>
       <c r="H134" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I134" s="35">
         <v>0</v>
       </c>
       <c r="J134" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K134" s="31"/>
@@ -28948,7 +28922,7 @@
       <c r="FZ134" s="32"/>
       <c r="GA134" s="32"/>
     </row>
-    <row r="135" spans="1:183">
+    <row r="135" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A135" s="24"/>
       <c r="B135" s="24"/>
       <c r="C135" s="24"/>
@@ -28957,14 +28931,14 @@
       <c r="F135" s="27"/>
       <c r="G135" s="27"/>
       <c r="H135" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I135" s="35">
         <v>0</v>
       </c>
       <c r="J135" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>대기</v>
       </c>
       <c r="K135" s="31"/>
@@ -29141,7 +29115,7 @@
       <c r="FZ135" s="32"/>
       <c r="GA135" s="32"/>
     </row>
-    <row r="136" spans="1:183">
+    <row r="136" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A136" s="24"/>
       <c r="B136" s="24"/>
       <c r="C136" s="24"/>
@@ -29150,14 +29124,14 @@
       <c r="F136" s="27"/>
       <c r="G136" s="27"/>
       <c r="H136" s="34">
-        <f t="shared" ref="H136:H199" si="12">NETWORKDAYS(F136,G136)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I136" s="35">
         <v>0</v>
       </c>
       <c r="J136" s="30" t="str">
-        <f t="shared" ref="J136:J199" si="13">IF(I136=100,"완료",IF(I136=0,"대기","진행중"))</f>
+        <f t="shared" ref="J136:J199" si="10">IF(I136=100,"완료",IF(I136=0,"대기","진행중"))</f>
         <v>대기</v>
       </c>
       <c r="K136" s="31"/>
@@ -29334,7 +29308,7 @@
       <c r="FZ136" s="32"/>
       <c r="GA136" s="32"/>
     </row>
-    <row r="137" spans="1:183">
+    <row r="137" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A137" s="24"/>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
@@ -29343,14 +29317,14 @@
       <c r="F137" s="27"/>
       <c r="G137" s="27"/>
       <c r="H137" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I137" s="35">
         <v>0</v>
       </c>
       <c r="J137" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K137" s="31"/>
@@ -29527,7 +29501,7 @@
       <c r="FZ137" s="32"/>
       <c r="GA137" s="32"/>
     </row>
-    <row r="138" spans="1:183">
+    <row r="138" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A138" s="24"/>
       <c r="B138" s="24"/>
       <c r="C138" s="24"/>
@@ -29536,14 +29510,14 @@
       <c r="F138" s="27"/>
       <c r="G138" s="27"/>
       <c r="H138" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I138" s="35">
         <v>0</v>
       </c>
       <c r="J138" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K138" s="31"/>
@@ -29720,7 +29694,7 @@
       <c r="FZ138" s="32"/>
       <c r="GA138" s="32"/>
     </row>
-    <row r="139" spans="1:183">
+    <row r="139" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A139" s="24"/>
       <c r="B139" s="24"/>
       <c r="C139" s="24"/>
@@ -29729,14 +29703,14 @@
       <c r="F139" s="27"/>
       <c r="G139" s="27"/>
       <c r="H139" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I139" s="35">
         <v>0</v>
       </c>
       <c r="J139" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K139" s="31"/>
@@ -29913,7 +29887,7 @@
       <c r="FZ139" s="32"/>
       <c r="GA139" s="32"/>
     </row>
-    <row r="140" spans="1:183">
+    <row r="140" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A140" s="24"/>
       <c r="B140" s="24"/>
       <c r="C140" s="24"/>
@@ -29922,14 +29896,14 @@
       <c r="F140" s="27"/>
       <c r="G140" s="27"/>
       <c r="H140" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I140" s="35">
         <v>0</v>
       </c>
       <c r="J140" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K140" s="31"/>
@@ -30106,7 +30080,7 @@
       <c r="FZ140" s="32"/>
       <c r="GA140" s="32"/>
     </row>
-    <row r="141" spans="1:183">
+    <row r="141" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A141" s="24"/>
       <c r="B141" s="24"/>
       <c r="C141" s="24"/>
@@ -30115,14 +30089,14 @@
       <c r="F141" s="27"/>
       <c r="G141" s="27"/>
       <c r="H141" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I141" s="35">
         <v>0</v>
       </c>
       <c r="J141" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K141" s="31"/>
@@ -30299,7 +30273,7 @@
       <c r="FZ141" s="32"/>
       <c r="GA141" s="32"/>
     </row>
-    <row r="142" spans="1:183">
+    <row r="142" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A142" s="24"/>
       <c r="B142" s="24"/>
       <c r="C142" s="24"/>
@@ -30308,14 +30282,14 @@
       <c r="F142" s="27"/>
       <c r="G142" s="27"/>
       <c r="H142" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I142" s="35">
         <v>0</v>
       </c>
       <c r="J142" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K142" s="31"/>
@@ -30492,7 +30466,7 @@
       <c r="FZ142" s="32"/>
       <c r="GA142" s="32"/>
     </row>
-    <row r="143" spans="1:183">
+    <row r="143" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A143" s="24"/>
       <c r="B143" s="24"/>
       <c r="C143" s="24"/>
@@ -30501,14 +30475,14 @@
       <c r="F143" s="27"/>
       <c r="G143" s="27"/>
       <c r="H143" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I143" s="35">
         <v>0</v>
       </c>
       <c r="J143" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K143" s="31"/>
@@ -30685,7 +30659,7 @@
       <c r="FZ143" s="32"/>
       <c r="GA143" s="32"/>
     </row>
-    <row r="144" spans="1:183">
+    <row r="144" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A144" s="24"/>
       <c r="B144" s="24"/>
       <c r="C144" s="24"/>
@@ -30694,14 +30668,14 @@
       <c r="F144" s="27"/>
       <c r="G144" s="27"/>
       <c r="H144" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I144" s="35">
         <v>0</v>
       </c>
       <c r="J144" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K144" s="31"/>
@@ -30878,7 +30852,7 @@
       <c r="FZ144" s="32"/>
       <c r="GA144" s="32"/>
     </row>
-    <row r="145" spans="1:183">
+    <row r="145" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A145" s="24"/>
       <c r="B145" s="24"/>
       <c r="C145" s="24"/>
@@ -30887,14 +30861,14 @@
       <c r="F145" s="27"/>
       <c r="G145" s="27"/>
       <c r="H145" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I145" s="35">
         <v>0</v>
       </c>
       <c r="J145" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K145" s="31"/>
@@ -31071,7 +31045,7 @@
       <c r="FZ145" s="32"/>
       <c r="GA145" s="32"/>
     </row>
-    <row r="146" spans="1:183">
+    <row r="146" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A146" s="24"/>
       <c r="B146" s="24"/>
       <c r="C146" s="24"/>
@@ -31080,14 +31054,14 @@
       <c r="F146" s="27"/>
       <c r="G146" s="27"/>
       <c r="H146" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I146" s="35">
         <v>0</v>
       </c>
       <c r="J146" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K146" s="31"/>
@@ -31264,7 +31238,7 @@
       <c r="FZ146" s="32"/>
       <c r="GA146" s="32"/>
     </row>
-    <row r="147" spans="1:183">
+    <row r="147" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A147" s="24"/>
       <c r="B147" s="24"/>
       <c r="C147" s="24"/>
@@ -31273,14 +31247,14 @@
       <c r="F147" s="27"/>
       <c r="G147" s="27"/>
       <c r="H147" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I147" s="35">
         <v>0</v>
       </c>
       <c r="J147" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K147" s="31"/>
@@ -31457,7 +31431,7 @@
       <c r="FZ147" s="32"/>
       <c r="GA147" s="32"/>
     </row>
-    <row r="148" spans="1:183">
+    <row r="148" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A148" s="24"/>
       <c r="B148" s="24"/>
       <c r="C148" s="24"/>
@@ -31466,14 +31440,14 @@
       <c r="F148" s="27"/>
       <c r="G148" s="27"/>
       <c r="H148" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I148" s="35">
         <v>0</v>
       </c>
       <c r="J148" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K148" s="31"/>
@@ -31650,7 +31624,7 @@
       <c r="FZ148" s="32"/>
       <c r="GA148" s="32"/>
     </row>
-    <row r="149" spans="1:183">
+    <row r="149" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A149" s="24"/>
       <c r="B149" s="24"/>
       <c r="C149" s="24"/>
@@ -31659,14 +31633,14 @@
       <c r="F149" s="27"/>
       <c r="G149" s="27"/>
       <c r="H149" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I149" s="35">
         <v>0</v>
       </c>
       <c r="J149" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K149" s="31"/>
@@ -31843,7 +31817,7 @@
       <c r="FZ149" s="32"/>
       <c r="GA149" s="32"/>
     </row>
-    <row r="150" spans="1:183">
+    <row r="150" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A150" s="24"/>
       <c r="B150" s="24"/>
       <c r="C150" s="24"/>
@@ -31852,14 +31826,14 @@
       <c r="F150" s="27"/>
       <c r="G150" s="27"/>
       <c r="H150" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I150" s="35">
         <v>0</v>
       </c>
       <c r="J150" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K150" s="31"/>
@@ -32036,7 +32010,7 @@
       <c r="FZ150" s="32"/>
       <c r="GA150" s="32"/>
     </row>
-    <row r="151" spans="1:183">
+    <row r="151" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A151" s="24"/>
       <c r="B151" s="24"/>
       <c r="C151" s="24"/>
@@ -32045,14 +32019,14 @@
       <c r="F151" s="27"/>
       <c r="G151" s="27"/>
       <c r="H151" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I151" s="35">
         <v>0</v>
       </c>
       <c r="J151" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K151" s="31"/>
@@ -32229,7 +32203,7 @@
       <c r="FZ151" s="32"/>
       <c r="GA151" s="32"/>
     </row>
-    <row r="152" spans="1:183">
+    <row r="152" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A152" s="24"/>
       <c r="B152" s="24"/>
       <c r="C152" s="24"/>
@@ -32238,14 +32212,14 @@
       <c r="F152" s="27"/>
       <c r="G152" s="27"/>
       <c r="H152" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I152" s="35">
         <v>0</v>
       </c>
       <c r="J152" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K152" s="31"/>
@@ -32422,7 +32396,7 @@
       <c r="FZ152" s="32"/>
       <c r="GA152" s="32"/>
     </row>
-    <row r="153" spans="1:183">
+    <row r="153" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A153" s="24"/>
       <c r="B153" s="24"/>
       <c r="C153" s="24"/>
@@ -32431,14 +32405,14 @@
       <c r="F153" s="27"/>
       <c r="G153" s="27"/>
       <c r="H153" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I153" s="35">
         <v>0</v>
       </c>
       <c r="J153" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K153" s="31"/>
@@ -32615,7 +32589,7 @@
       <c r="FZ153" s="32"/>
       <c r="GA153" s="32"/>
     </row>
-    <row r="154" spans="1:183">
+    <row r="154" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A154" s="24"/>
       <c r="B154" s="24"/>
       <c r="C154" s="24"/>
@@ -32624,14 +32598,14 @@
       <c r="F154" s="27"/>
       <c r="G154" s="27"/>
       <c r="H154" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I154" s="35">
         <v>0</v>
       </c>
       <c r="J154" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K154" s="31"/>
@@ -32808,7 +32782,7 @@
       <c r="FZ154" s="32"/>
       <c r="GA154" s="32"/>
     </row>
-    <row r="155" spans="1:183">
+    <row r="155" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A155" s="24"/>
       <c r="B155" s="24"/>
       <c r="C155" s="24"/>
@@ -32817,14 +32791,14 @@
       <c r="F155" s="27"/>
       <c r="G155" s="27"/>
       <c r="H155" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I155" s="35">
         <v>0</v>
       </c>
       <c r="J155" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K155" s="31"/>
@@ -33001,7 +32975,7 @@
       <c r="FZ155" s="32"/>
       <c r="GA155" s="32"/>
     </row>
-    <row r="156" spans="1:183">
+    <row r="156" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A156" s="24"/>
       <c r="B156" s="24"/>
       <c r="C156" s="24"/>
@@ -33010,14 +32984,14 @@
       <c r="F156" s="27"/>
       <c r="G156" s="27"/>
       <c r="H156" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I156" s="35">
         <v>0</v>
       </c>
       <c r="J156" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K156" s="31"/>
@@ -33194,7 +33168,7 @@
       <c r="FZ156" s="32"/>
       <c r="GA156" s="32"/>
     </row>
-    <row r="157" spans="1:183">
+    <row r="157" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A157" s="24"/>
       <c r="B157" s="24"/>
       <c r="C157" s="24"/>
@@ -33203,14 +33177,14 @@
       <c r="F157" s="27"/>
       <c r="G157" s="27"/>
       <c r="H157" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I157" s="35">
         <v>0</v>
       </c>
       <c r="J157" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K157" s="31"/>
@@ -33387,7 +33361,7 @@
       <c r="FZ157" s="32"/>
       <c r="GA157" s="32"/>
     </row>
-    <row r="158" spans="1:183">
+    <row r="158" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A158" s="24"/>
       <c r="B158" s="24"/>
       <c r="C158" s="24"/>
@@ -33396,14 +33370,14 @@
       <c r="F158" s="27"/>
       <c r="G158" s="27"/>
       <c r="H158" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I158" s="35">
         <v>0</v>
       </c>
       <c r="J158" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K158" s="31"/>
@@ -33580,7 +33554,7 @@
       <c r="FZ158" s="32"/>
       <c r="GA158" s="32"/>
     </row>
-    <row r="159" spans="1:183">
+    <row r="159" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A159" s="24"/>
       <c r="B159" s="24"/>
       <c r="C159" s="24"/>
@@ -33589,14 +33563,14 @@
       <c r="F159" s="27"/>
       <c r="G159" s="27"/>
       <c r="H159" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I159" s="35">
         <v>0</v>
       </c>
       <c r="J159" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K159" s="31"/>
@@ -33773,7 +33747,7 @@
       <c r="FZ159" s="32"/>
       <c r="GA159" s="32"/>
     </row>
-    <row r="160" spans="1:183">
+    <row r="160" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A160" s="24"/>
       <c r="B160" s="24"/>
       <c r="C160" s="24"/>
@@ -33782,14 +33756,14 @@
       <c r="F160" s="27"/>
       <c r="G160" s="27"/>
       <c r="H160" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I160" s="35">
         <v>0</v>
       </c>
       <c r="J160" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K160" s="31"/>
@@ -33966,7 +33940,7 @@
       <c r="FZ160" s="32"/>
       <c r="GA160" s="32"/>
     </row>
-    <row r="161" spans="1:183">
+    <row r="161" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A161" s="24"/>
       <c r="B161" s="24"/>
       <c r="C161" s="24"/>
@@ -33975,14 +33949,14 @@
       <c r="F161" s="27"/>
       <c r="G161" s="27"/>
       <c r="H161" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I161" s="35">
         <v>0</v>
       </c>
       <c r="J161" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K161" s="31"/>
@@ -34159,7 +34133,7 @@
       <c r="FZ161" s="32"/>
       <c r="GA161" s="32"/>
     </row>
-    <row r="162" spans="1:183">
+    <row r="162" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A162" s="24"/>
       <c r="B162" s="24"/>
       <c r="C162" s="24"/>
@@ -34168,14 +34142,14 @@
       <c r="F162" s="27"/>
       <c r="G162" s="27"/>
       <c r="H162" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I162" s="35">
         <v>0</v>
       </c>
       <c r="J162" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K162" s="31"/>
@@ -34352,7 +34326,7 @@
       <c r="FZ162" s="32"/>
       <c r="GA162" s="32"/>
     </row>
-    <row r="163" spans="1:183">
+    <row r="163" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A163" s="24"/>
       <c r="B163" s="24"/>
       <c r="C163" s="24"/>
@@ -34361,14 +34335,14 @@
       <c r="F163" s="27"/>
       <c r="G163" s="27"/>
       <c r="H163" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I163" s="35">
         <v>0</v>
       </c>
       <c r="J163" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K163" s="31"/>
@@ -34545,7 +34519,7 @@
       <c r="FZ163" s="32"/>
       <c r="GA163" s="32"/>
     </row>
-    <row r="164" spans="1:183">
+    <row r="164" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A164" s="24"/>
       <c r="B164" s="24"/>
       <c r="C164" s="24"/>
@@ -34554,14 +34528,14 @@
       <c r="F164" s="27"/>
       <c r="G164" s="27"/>
       <c r="H164" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I164" s="35">
         <v>0</v>
       </c>
       <c r="J164" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K164" s="31"/>
@@ -34738,7 +34712,7 @@
       <c r="FZ164" s="32"/>
       <c r="GA164" s="32"/>
     </row>
-    <row r="165" spans="1:183">
+    <row r="165" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A165" s="24"/>
       <c r="B165" s="24"/>
       <c r="C165" s="24"/>
@@ -34747,14 +34721,14 @@
       <c r="F165" s="27"/>
       <c r="G165" s="27"/>
       <c r="H165" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I165" s="35">
         <v>0</v>
       </c>
       <c r="J165" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K165" s="31"/>
@@ -34931,7 +34905,7 @@
       <c r="FZ165" s="32"/>
       <c r="GA165" s="32"/>
     </row>
-    <row r="166" spans="1:183">
+    <row r="166" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A166" s="24"/>
       <c r="B166" s="24"/>
       <c r="C166" s="24"/>
@@ -34940,14 +34914,14 @@
       <c r="F166" s="27"/>
       <c r="G166" s="27"/>
       <c r="H166" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I166" s="35">
         <v>0</v>
       </c>
       <c r="J166" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K166" s="31"/>
@@ -35124,7 +35098,7 @@
       <c r="FZ166" s="32"/>
       <c r="GA166" s="32"/>
     </row>
-    <row r="167" spans="1:183">
+    <row r="167" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A167" s="24"/>
       <c r="B167" s="24"/>
       <c r="C167" s="24"/>
@@ -35133,14 +35107,14 @@
       <c r="F167" s="27"/>
       <c r="G167" s="27"/>
       <c r="H167" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I167" s="35">
         <v>0</v>
       </c>
       <c r="J167" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K167" s="31"/>
@@ -35317,7 +35291,7 @@
       <c r="FZ167" s="32"/>
       <c r="GA167" s="32"/>
     </row>
-    <row r="168" spans="1:183">
+    <row r="168" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A168" s="24"/>
       <c r="B168" s="24"/>
       <c r="C168" s="24"/>
@@ -35326,14 +35300,14 @@
       <c r="F168" s="27"/>
       <c r="G168" s="27"/>
       <c r="H168" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I168" s="35">
         <v>0</v>
       </c>
       <c r="J168" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K168" s="31"/>
@@ -35510,7 +35484,7 @@
       <c r="FZ168" s="32"/>
       <c r="GA168" s="32"/>
     </row>
-    <row r="169" spans="1:183">
+    <row r="169" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A169" s="24"/>
       <c r="B169" s="24"/>
       <c r="C169" s="24"/>
@@ -35519,14 +35493,14 @@
       <c r="F169" s="27"/>
       <c r="G169" s="27"/>
       <c r="H169" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I169" s="35">
         <v>0</v>
       </c>
       <c r="J169" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K169" s="31"/>
@@ -35703,7 +35677,7 @@
       <c r="FZ169" s="32"/>
       <c r="GA169" s="32"/>
     </row>
-    <row r="170" spans="1:183">
+    <row r="170" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A170" s="24"/>
       <c r="B170" s="24"/>
       <c r="C170" s="24"/>
@@ -35712,14 +35686,14 @@
       <c r="F170" s="27"/>
       <c r="G170" s="27"/>
       <c r="H170" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I170" s="35">
         <v>0</v>
       </c>
       <c r="J170" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K170" s="31"/>
@@ -35896,7 +35870,7 @@
       <c r="FZ170" s="32"/>
       <c r="GA170" s="32"/>
     </row>
-    <row r="171" spans="1:183">
+    <row r="171" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A171" s="24"/>
       <c r="B171" s="24"/>
       <c r="C171" s="24"/>
@@ -35905,14 +35879,14 @@
       <c r="F171" s="27"/>
       <c r="G171" s="27"/>
       <c r="H171" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I171" s="35">
         <v>0</v>
       </c>
       <c r="J171" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K171" s="31"/>
@@ -36089,7 +36063,7 @@
       <c r="FZ171" s="32"/>
       <c r="GA171" s="32"/>
     </row>
-    <row r="172" spans="1:183">
+    <row r="172" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A172" s="24"/>
       <c r="B172" s="24"/>
       <c r="C172" s="24"/>
@@ -36098,14 +36072,14 @@
       <c r="F172" s="27"/>
       <c r="G172" s="27"/>
       <c r="H172" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I172" s="35">
         <v>0</v>
       </c>
       <c r="J172" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K172" s="31"/>
@@ -36282,7 +36256,7 @@
       <c r="FZ172" s="32"/>
       <c r="GA172" s="32"/>
     </row>
-    <row r="173" spans="1:183">
+    <row r="173" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A173" s="24"/>
       <c r="B173" s="24"/>
       <c r="C173" s="24"/>
@@ -36291,14 +36265,14 @@
       <c r="F173" s="27"/>
       <c r="G173" s="27"/>
       <c r="H173" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I173" s="35">
         <v>0</v>
       </c>
       <c r="J173" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K173" s="31"/>
@@ -36475,7 +36449,7 @@
       <c r="FZ173" s="32"/>
       <c r="GA173" s="32"/>
     </row>
-    <row r="174" spans="1:183">
+    <row r="174" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A174" s="24"/>
       <c r="B174" s="24"/>
       <c r="C174" s="24"/>
@@ -36484,14 +36458,14 @@
       <c r="F174" s="27"/>
       <c r="G174" s="27"/>
       <c r="H174" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I174" s="35">
         <v>0</v>
       </c>
       <c r="J174" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K174" s="31"/>
@@ -36668,7 +36642,7 @@
       <c r="FZ174" s="32"/>
       <c r="GA174" s="32"/>
     </row>
-    <row r="175" spans="1:183">
+    <row r="175" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A175" s="24"/>
       <c r="B175" s="24"/>
       <c r="C175" s="24"/>
@@ -36677,14 +36651,14 @@
       <c r="F175" s="27"/>
       <c r="G175" s="27"/>
       <c r="H175" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I175" s="35">
         <v>0</v>
       </c>
       <c r="J175" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K175" s="31"/>
@@ -36861,7 +36835,7 @@
       <c r="FZ175" s="32"/>
       <c r="GA175" s="32"/>
     </row>
-    <row r="176" spans="1:183">
+    <row r="176" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A176" s="24"/>
       <c r="B176" s="24"/>
       <c r="C176" s="24"/>
@@ -36870,14 +36844,14 @@
       <c r="F176" s="27"/>
       <c r="G176" s="27"/>
       <c r="H176" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I176" s="35">
         <v>0</v>
       </c>
       <c r="J176" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K176" s="31"/>
@@ -37054,7 +37028,7 @@
       <c r="FZ176" s="32"/>
       <c r="GA176" s="32"/>
     </row>
-    <row r="177" spans="1:183">
+    <row r="177" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A177" s="24"/>
       <c r="B177" s="24"/>
       <c r="C177" s="24"/>
@@ -37063,14 +37037,14 @@
       <c r="F177" s="27"/>
       <c r="G177" s="27"/>
       <c r="H177" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I177" s="35">
         <v>0</v>
       </c>
       <c r="J177" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K177" s="31"/>
@@ -37247,7 +37221,7 @@
       <c r="FZ177" s="32"/>
       <c r="GA177" s="32"/>
     </row>
-    <row r="178" spans="1:183">
+    <row r="178" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A178" s="24"/>
       <c r="B178" s="24"/>
       <c r="C178" s="24"/>
@@ -37256,14 +37230,14 @@
       <c r="F178" s="27"/>
       <c r="G178" s="27"/>
       <c r="H178" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I178" s="35">
         <v>0</v>
       </c>
       <c r="J178" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K178" s="31"/>
@@ -37440,7 +37414,7 @@
       <c r="FZ178" s="32"/>
       <c r="GA178" s="32"/>
     </row>
-    <row r="179" spans="1:183">
+    <row r="179" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A179" s="24"/>
       <c r="B179" s="24"/>
       <c r="C179" s="24"/>
@@ -37449,14 +37423,14 @@
       <c r="F179" s="27"/>
       <c r="G179" s="27"/>
       <c r="H179" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I179" s="35">
         <v>0</v>
       </c>
       <c r="J179" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K179" s="31"/>
@@ -37633,7 +37607,7 @@
       <c r="FZ179" s="32"/>
       <c r="GA179" s="32"/>
     </row>
-    <row r="180" spans="1:183">
+    <row r="180" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A180" s="24"/>
       <c r="B180" s="24"/>
       <c r="C180" s="24"/>
@@ -37642,14 +37616,14 @@
       <c r="F180" s="27"/>
       <c r="G180" s="27"/>
       <c r="H180" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I180" s="35">
         <v>0</v>
       </c>
       <c r="J180" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K180" s="31"/>
@@ -37826,7 +37800,7 @@
       <c r="FZ180" s="32"/>
       <c r="GA180" s="32"/>
     </row>
-    <row r="181" spans="1:183">
+    <row r="181" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A181" s="24"/>
       <c r="B181" s="24"/>
       <c r="C181" s="24"/>
@@ -37835,14 +37809,14 @@
       <c r="F181" s="27"/>
       <c r="G181" s="27"/>
       <c r="H181" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I181" s="35">
         <v>0</v>
       </c>
       <c r="J181" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K181" s="31"/>
@@ -38019,7 +37993,7 @@
       <c r="FZ181" s="32"/>
       <c r="GA181" s="32"/>
     </row>
-    <row r="182" spans="1:183">
+    <row r="182" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A182" s="24"/>
       <c r="B182" s="24"/>
       <c r="C182" s="24"/>
@@ -38028,14 +38002,14 @@
       <c r="F182" s="27"/>
       <c r="G182" s="27"/>
       <c r="H182" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I182" s="35">
         <v>0</v>
       </c>
       <c r="J182" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K182" s="31"/>
@@ -38212,7 +38186,7 @@
       <c r="FZ182" s="32"/>
       <c r="GA182" s="32"/>
     </row>
-    <row r="183" spans="1:183">
+    <row r="183" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A183" s="24"/>
       <c r="B183" s="24"/>
       <c r="C183" s="24"/>
@@ -38221,14 +38195,14 @@
       <c r="F183" s="27"/>
       <c r="G183" s="27"/>
       <c r="H183" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I183" s="35">
         <v>0</v>
       </c>
       <c r="J183" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K183" s="31"/>
@@ -38405,7 +38379,7 @@
       <c r="FZ183" s="32"/>
       <c r="GA183" s="32"/>
     </row>
-    <row r="184" spans="1:183">
+    <row r="184" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A184" s="24"/>
       <c r="B184" s="24"/>
       <c r="C184" s="24"/>
@@ -38414,14 +38388,14 @@
       <c r="F184" s="27"/>
       <c r="G184" s="27"/>
       <c r="H184" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I184" s="35">
         <v>0</v>
       </c>
       <c r="J184" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K184" s="31"/>
@@ -38598,7 +38572,7 @@
       <c r="FZ184" s="32"/>
       <c r="GA184" s="32"/>
     </row>
-    <row r="185" spans="1:183">
+    <row r="185" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A185" s="24"/>
       <c r="B185" s="24"/>
       <c r="C185" s="24"/>
@@ -38607,14 +38581,14 @@
       <c r="F185" s="27"/>
       <c r="G185" s="27"/>
       <c r="H185" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I185" s="35">
         <v>0</v>
       </c>
       <c r="J185" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K185" s="31"/>
@@ -38791,7 +38765,7 @@
       <c r="FZ185" s="32"/>
       <c r="GA185" s="32"/>
     </row>
-    <row r="186" spans="1:183">
+    <row r="186" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A186" s="24"/>
       <c r="B186" s="24"/>
       <c r="C186" s="24"/>
@@ -38800,14 +38774,14 @@
       <c r="F186" s="27"/>
       <c r="G186" s="27"/>
       <c r="H186" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I186" s="35">
         <v>0</v>
       </c>
       <c r="J186" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K186" s="31"/>
@@ -38984,7 +38958,7 @@
       <c r="FZ186" s="32"/>
       <c r="GA186" s="32"/>
     </row>
-    <row r="187" spans="1:183">
+    <row r="187" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A187" s="24"/>
       <c r="B187" s="24"/>
       <c r="C187" s="24"/>
@@ -38993,14 +38967,14 @@
       <c r="F187" s="27"/>
       <c r="G187" s="27"/>
       <c r="H187" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I187" s="35">
         <v>0</v>
       </c>
       <c r="J187" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K187" s="31"/>
@@ -39177,7 +39151,7 @@
       <c r="FZ187" s="32"/>
       <c r="GA187" s="32"/>
     </row>
-    <row r="188" spans="1:183">
+    <row r="188" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A188" s="24"/>
       <c r="B188" s="24"/>
       <c r="C188" s="24"/>
@@ -39186,14 +39160,14 @@
       <c r="F188" s="27"/>
       <c r="G188" s="27"/>
       <c r="H188" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I188" s="35">
         <v>0</v>
       </c>
       <c r="J188" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K188" s="31"/>
@@ -39370,7 +39344,7 @@
       <c r="FZ188" s="32"/>
       <c r="GA188" s="32"/>
     </row>
-    <row r="189" spans="1:183">
+    <row r="189" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A189" s="24"/>
       <c r="B189" s="24"/>
       <c r="C189" s="24"/>
@@ -39379,14 +39353,14 @@
       <c r="F189" s="27"/>
       <c r="G189" s="27"/>
       <c r="H189" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I189" s="35">
         <v>0</v>
       </c>
       <c r="J189" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K189" s="31"/>
@@ -39563,7 +39537,7 @@
       <c r="FZ189" s="32"/>
       <c r="GA189" s="32"/>
     </row>
-    <row r="190" spans="1:183">
+    <row r="190" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A190" s="24"/>
       <c r="B190" s="24"/>
       <c r="C190" s="24"/>
@@ -39572,14 +39546,14 @@
       <c r="F190" s="27"/>
       <c r="G190" s="27"/>
       <c r="H190" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I190" s="35">
         <v>0</v>
       </c>
       <c r="J190" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K190" s="31"/>
@@ -39756,7 +39730,7 @@
       <c r="FZ190" s="32"/>
       <c r="GA190" s="32"/>
     </row>
-    <row r="191" spans="1:183">
+    <row r="191" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A191" s="24"/>
       <c r="B191" s="24"/>
       <c r="C191" s="24"/>
@@ -39765,14 +39739,14 @@
       <c r="F191" s="27"/>
       <c r="G191" s="27"/>
       <c r="H191" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I191" s="35">
         <v>0</v>
       </c>
       <c r="J191" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K191" s="31"/>
@@ -39949,7 +39923,7 @@
       <c r="FZ191" s="32"/>
       <c r="GA191" s="32"/>
     </row>
-    <row r="192" spans="1:183">
+    <row r="192" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A192" s="24"/>
       <c r="B192" s="24"/>
       <c r="C192" s="24"/>
@@ -39958,14 +39932,14 @@
       <c r="F192" s="27"/>
       <c r="G192" s="27"/>
       <c r="H192" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I192" s="35">
         <v>0</v>
       </c>
       <c r="J192" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K192" s="31"/>
@@ -40142,7 +40116,7 @@
       <c r="FZ192" s="32"/>
       <c r="GA192" s="32"/>
     </row>
-    <row r="193" spans="1:183">
+    <row r="193" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A193" s="24"/>
       <c r="B193" s="24"/>
       <c r="C193" s="24"/>
@@ -40151,14 +40125,14 @@
       <c r="F193" s="27"/>
       <c r="G193" s="27"/>
       <c r="H193" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I193" s="35">
         <v>0</v>
       </c>
       <c r="J193" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K193" s="31"/>
@@ -40335,7 +40309,7 @@
       <c r="FZ193" s="32"/>
       <c r="GA193" s="32"/>
     </row>
-    <row r="194" spans="1:183">
+    <row r="194" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A194" s="24"/>
       <c r="B194" s="24"/>
       <c r="C194" s="24"/>
@@ -40344,14 +40318,14 @@
       <c r="F194" s="27"/>
       <c r="G194" s="27"/>
       <c r="H194" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I194" s="35">
         <v>0</v>
       </c>
       <c r="J194" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K194" s="31"/>
@@ -40528,7 +40502,7 @@
       <c r="FZ194" s="32"/>
       <c r="GA194" s="32"/>
     </row>
-    <row r="195" spans="1:183">
+    <row r="195" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A195" s="24"/>
       <c r="B195" s="24"/>
       <c r="C195" s="24"/>
@@ -40537,14 +40511,14 @@
       <c r="F195" s="27"/>
       <c r="G195" s="27"/>
       <c r="H195" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I195" s="35">
         <v>0</v>
       </c>
       <c r="J195" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K195" s="31"/>
@@ -40721,7 +40695,7 @@
       <c r="FZ195" s="32"/>
       <c r="GA195" s="32"/>
     </row>
-    <row r="196" spans="1:183">
+    <row r="196" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A196" s="24"/>
       <c r="B196" s="24"/>
       <c r="C196" s="24"/>
@@ -40730,14 +40704,14 @@
       <c r="F196" s="27"/>
       <c r="G196" s="27"/>
       <c r="H196" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I196" s="35">
         <v>0</v>
       </c>
       <c r="J196" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K196" s="31"/>
@@ -40914,7 +40888,7 @@
       <c r="FZ196" s="32"/>
       <c r="GA196" s="32"/>
     </row>
-    <row r="197" spans="1:183">
+    <row r="197" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A197" s="24"/>
       <c r="B197" s="24"/>
       <c r="C197" s="24"/>
@@ -40923,14 +40897,14 @@
       <c r="F197" s="27"/>
       <c r="G197" s="27"/>
       <c r="H197" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I197" s="35">
         <v>0</v>
       </c>
       <c r="J197" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K197" s="31"/>
@@ -41107,7 +41081,7 @@
       <c r="FZ197" s="32"/>
       <c r="GA197" s="32"/>
     </row>
-    <row r="198" spans="1:183">
+    <row r="198" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A198" s="24"/>
       <c r="B198" s="24"/>
       <c r="C198" s="24"/>
@@ -41116,14 +41090,14 @@
       <c r="F198" s="27"/>
       <c r="G198" s="27"/>
       <c r="H198" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I198" s="35">
         <v>0</v>
       </c>
       <c r="J198" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K198" s="31"/>
@@ -41300,7 +41274,7 @@
       <c r="FZ198" s="32"/>
       <c r="GA198" s="32"/>
     </row>
-    <row r="199" spans="1:183">
+    <row r="199" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A199" s="24"/>
       <c r="B199" s="24"/>
       <c r="C199" s="24"/>
@@ -41309,14 +41283,14 @@
       <c r="F199" s="27"/>
       <c r="G199" s="27"/>
       <c r="H199" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I199" s="35">
         <v>0</v>
       </c>
       <c r="J199" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>대기</v>
       </c>
       <c r="K199" s="31"/>
@@ -41493,7 +41467,7 @@
       <c r="FZ199" s="32"/>
       <c r="GA199" s="32"/>
     </row>
-    <row r="200" spans="1:183">
+    <row r="200" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A200" s="24"/>
       <c r="B200" s="24"/>
       <c r="C200" s="24"/>
@@ -41502,14 +41476,14 @@
       <c r="F200" s="27"/>
       <c r="G200" s="27"/>
       <c r="H200" s="34">
-        <f t="shared" ref="H200:H263" si="14">NETWORKDAYS(F200,G200)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I200" s="35">
         <v>0</v>
       </c>
       <c r="J200" s="30" t="str">
-        <f t="shared" ref="J200:J263" si="15">IF(I200=100,"완료",IF(I200=0,"대기","진행중"))</f>
+        <f t="shared" ref="J200:J263" si="11">IF(I200=100,"완료",IF(I200=0,"대기","진행중"))</f>
         <v>대기</v>
       </c>
       <c r="K200" s="31"/>
@@ -41686,7 +41660,7 @@
       <c r="FZ200" s="32"/>
       <c r="GA200" s="32"/>
     </row>
-    <row r="201" spans="1:183">
+    <row r="201" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A201" s="24"/>
       <c r="B201" s="24"/>
       <c r="C201" s="24"/>
@@ -41695,14 +41669,14 @@
       <c r="F201" s="27"/>
       <c r="G201" s="27"/>
       <c r="H201" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I201" s="35">
         <v>0</v>
       </c>
       <c r="J201" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K201" s="31"/>
@@ -41879,7 +41853,7 @@
       <c r="FZ201" s="32"/>
       <c r="GA201" s="32"/>
     </row>
-    <row r="202" spans="1:183">
+    <row r="202" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A202" s="24"/>
       <c r="B202" s="24"/>
       <c r="C202" s="24"/>
@@ -41888,14 +41862,14 @@
       <c r="F202" s="27"/>
       <c r="G202" s="27"/>
       <c r="H202" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I202" s="35">
         <v>0</v>
       </c>
       <c r="J202" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K202" s="31"/>
@@ -42072,7 +42046,7 @@
       <c r="FZ202" s="32"/>
       <c r="GA202" s="32"/>
     </row>
-    <row r="203" spans="1:183">
+    <row r="203" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A203" s="24"/>
       <c r="B203" s="24"/>
       <c r="C203" s="24"/>
@@ -42081,14 +42055,14 @@
       <c r="F203" s="27"/>
       <c r="G203" s="27"/>
       <c r="H203" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I203" s="35">
         <v>0</v>
       </c>
       <c r="J203" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K203" s="31"/>
@@ -42265,7 +42239,7 @@
       <c r="FZ203" s="32"/>
       <c r="GA203" s="32"/>
     </row>
-    <row r="204" spans="1:183">
+    <row r="204" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A204" s="24"/>
       <c r="B204" s="24"/>
       <c r="C204" s="24"/>
@@ -42274,14 +42248,14 @@
       <c r="F204" s="27"/>
       <c r="G204" s="27"/>
       <c r="H204" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I204" s="35">
         <v>0</v>
       </c>
       <c r="J204" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K204" s="31"/>
@@ -42458,7 +42432,7 @@
       <c r="FZ204" s="32"/>
       <c r="GA204" s="32"/>
     </row>
-    <row r="205" spans="1:183">
+    <row r="205" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A205" s="24"/>
       <c r="B205" s="24"/>
       <c r="C205" s="24"/>
@@ -42467,14 +42441,14 @@
       <c r="F205" s="27"/>
       <c r="G205" s="27"/>
       <c r="H205" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I205" s="35">
         <v>0</v>
       </c>
       <c r="J205" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K205" s="31"/>
@@ -42651,7 +42625,7 @@
       <c r="FZ205" s="32"/>
       <c r="GA205" s="32"/>
     </row>
-    <row r="206" spans="1:183">
+    <row r="206" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A206" s="24"/>
       <c r="B206" s="24"/>
       <c r="C206" s="24"/>
@@ -42660,14 +42634,14 @@
       <c r="F206" s="27"/>
       <c r="G206" s="27"/>
       <c r="H206" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I206" s="35">
         <v>0</v>
       </c>
       <c r="J206" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K206" s="31"/>
@@ -42844,7 +42818,7 @@
       <c r="FZ206" s="32"/>
       <c r="GA206" s="32"/>
     </row>
-    <row r="207" spans="1:183">
+    <row r="207" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A207" s="24"/>
       <c r="B207" s="24"/>
       <c r="C207" s="24"/>
@@ -42853,14 +42827,14 @@
       <c r="F207" s="27"/>
       <c r="G207" s="27"/>
       <c r="H207" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I207" s="35">
         <v>0</v>
       </c>
       <c r="J207" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K207" s="31"/>
@@ -43037,7 +43011,7 @@
       <c r="FZ207" s="32"/>
       <c r="GA207" s="32"/>
     </row>
-    <row r="208" spans="1:183">
+    <row r="208" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A208" s="24"/>
       <c r="B208" s="24"/>
       <c r="C208" s="24"/>
@@ -43046,14 +43020,14 @@
       <c r="F208" s="27"/>
       <c r="G208" s="27"/>
       <c r="H208" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I208" s="35">
         <v>0</v>
       </c>
       <c r="J208" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K208" s="31"/>
@@ -43230,7 +43204,7 @@
       <c r="FZ208" s="32"/>
       <c r="GA208" s="32"/>
     </row>
-    <row r="209" spans="1:183">
+    <row r="209" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A209" s="24"/>
       <c r="B209" s="24"/>
       <c r="C209" s="24"/>
@@ -43239,14 +43213,14 @@
       <c r="F209" s="27"/>
       <c r="G209" s="27"/>
       <c r="H209" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I209" s="35">
         <v>0</v>
       </c>
       <c r="J209" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K209" s="31"/>
@@ -43423,7 +43397,7 @@
       <c r="FZ209" s="32"/>
       <c r="GA209" s="32"/>
     </row>
-    <row r="210" spans="1:183">
+    <row r="210" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A210" s="24"/>
       <c r="B210" s="24"/>
       <c r="C210" s="24"/>
@@ -43432,14 +43406,14 @@
       <c r="F210" s="27"/>
       <c r="G210" s="27"/>
       <c r="H210" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I210" s="35">
         <v>0</v>
       </c>
       <c r="J210" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K210" s="31"/>
@@ -43616,7 +43590,7 @@
       <c r="FZ210" s="32"/>
       <c r="GA210" s="32"/>
     </row>
-    <row r="211" spans="1:183">
+    <row r="211" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A211" s="24"/>
       <c r="B211" s="24"/>
       <c r="C211" s="24"/>
@@ -43625,14 +43599,14 @@
       <c r="F211" s="27"/>
       <c r="G211" s="27"/>
       <c r="H211" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I211" s="35">
         <v>0</v>
       </c>
       <c r="J211" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K211" s="31"/>
@@ -43809,7 +43783,7 @@
       <c r="FZ211" s="32"/>
       <c r="GA211" s="32"/>
     </row>
-    <row r="212" spans="1:183">
+    <row r="212" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A212" s="24"/>
       <c r="B212" s="24"/>
       <c r="C212" s="24"/>
@@ -43818,14 +43792,14 @@
       <c r="F212" s="27"/>
       <c r="G212" s="27"/>
       <c r="H212" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I212" s="35">
         <v>0</v>
       </c>
       <c r="J212" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K212" s="31"/>
@@ -44002,7 +43976,7 @@
       <c r="FZ212" s="32"/>
       <c r="GA212" s="32"/>
     </row>
-    <row r="213" spans="1:183">
+    <row r="213" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A213" s="24"/>
       <c r="B213" s="24"/>
       <c r="C213" s="24"/>
@@ -44011,14 +43985,14 @@
       <c r="F213" s="27"/>
       <c r="G213" s="27"/>
       <c r="H213" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I213" s="35">
         <v>0</v>
       </c>
       <c r="J213" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K213" s="31"/>
@@ -44195,7 +44169,7 @@
       <c r="FZ213" s="32"/>
       <c r="GA213" s="32"/>
     </row>
-    <row r="214" spans="1:183">
+    <row r="214" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A214" s="24"/>
       <c r="B214" s="24"/>
       <c r="C214" s="24"/>
@@ -44204,14 +44178,14 @@
       <c r="F214" s="27"/>
       <c r="G214" s="27"/>
       <c r="H214" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I214" s="35">
         <v>0</v>
       </c>
       <c r="J214" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K214" s="31"/>
@@ -44388,7 +44362,7 @@
       <c r="FZ214" s="32"/>
       <c r="GA214" s="32"/>
     </row>
-    <row r="215" spans="1:183">
+    <row r="215" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A215" s="24"/>
       <c r="B215" s="24"/>
       <c r="C215" s="24"/>
@@ -44397,14 +44371,14 @@
       <c r="F215" s="27"/>
       <c r="G215" s="27"/>
       <c r="H215" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I215" s="35">
         <v>0</v>
       </c>
       <c r="J215" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K215" s="31"/>
@@ -44581,7 +44555,7 @@
       <c r="FZ215" s="32"/>
       <c r="GA215" s="32"/>
     </row>
-    <row r="216" spans="1:183">
+    <row r="216" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A216" s="24"/>
       <c r="B216" s="24"/>
       <c r="C216" s="24"/>
@@ -44590,14 +44564,14 @@
       <c r="F216" s="27"/>
       <c r="G216" s="27"/>
       <c r="H216" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I216" s="35">
         <v>0</v>
       </c>
       <c r="J216" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K216" s="31"/>
@@ -44774,7 +44748,7 @@
       <c r="FZ216" s="32"/>
       <c r="GA216" s="32"/>
     </row>
-    <row r="217" spans="1:183">
+    <row r="217" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A217" s="24"/>
       <c r="B217" s="24"/>
       <c r="C217" s="24"/>
@@ -44783,14 +44757,14 @@
       <c r="F217" s="27"/>
       <c r="G217" s="27"/>
       <c r="H217" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I217" s="35">
         <v>0</v>
       </c>
       <c r="J217" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K217" s="31"/>
@@ -44967,7 +44941,7 @@
       <c r="FZ217" s="32"/>
       <c r="GA217" s="32"/>
     </row>
-    <row r="218" spans="1:183">
+    <row r="218" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A218" s="24"/>
       <c r="B218" s="24"/>
       <c r="C218" s="24"/>
@@ -44976,14 +44950,14 @@
       <c r="F218" s="27"/>
       <c r="G218" s="27"/>
       <c r="H218" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I218" s="35">
         <v>0</v>
       </c>
       <c r="J218" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K218" s="31"/>
@@ -45160,7 +45134,7 @@
       <c r="FZ218" s="32"/>
       <c r="GA218" s="32"/>
     </row>
-    <row r="219" spans="1:183">
+    <row r="219" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A219" s="24"/>
       <c r="B219" s="24"/>
       <c r="C219" s="24"/>
@@ -45169,14 +45143,14 @@
       <c r="F219" s="27"/>
       <c r="G219" s="27"/>
       <c r="H219" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I219" s="35">
         <v>0</v>
       </c>
       <c r="J219" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K219" s="31"/>
@@ -45353,7 +45327,7 @@
       <c r="FZ219" s="32"/>
       <c r="GA219" s="32"/>
     </row>
-    <row r="220" spans="1:183">
+    <row r="220" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A220" s="24"/>
       <c r="B220" s="24"/>
       <c r="C220" s="24"/>
@@ -45362,14 +45336,14 @@
       <c r="F220" s="27"/>
       <c r="G220" s="27"/>
       <c r="H220" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I220" s="35">
         <v>0</v>
       </c>
       <c r="J220" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K220" s="31"/>
@@ -45546,7 +45520,7 @@
       <c r="FZ220" s="32"/>
       <c r="GA220" s="32"/>
     </row>
-    <row r="221" spans="1:183">
+    <row r="221" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A221" s="24"/>
       <c r="B221" s="24"/>
       <c r="C221" s="24"/>
@@ -45555,14 +45529,14 @@
       <c r="F221" s="27"/>
       <c r="G221" s="27"/>
       <c r="H221" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I221" s="35">
         <v>0</v>
       </c>
       <c r="J221" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K221" s="31"/>
@@ -45739,7 +45713,7 @@
       <c r="FZ221" s="32"/>
       <c r="GA221" s="32"/>
     </row>
-    <row r="222" spans="1:183">
+    <row r="222" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A222" s="24"/>
       <c r="B222" s="24"/>
       <c r="C222" s="24"/>
@@ -45748,14 +45722,14 @@
       <c r="F222" s="27"/>
       <c r="G222" s="27"/>
       <c r="H222" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I222" s="35">
         <v>0</v>
       </c>
       <c r="J222" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K222" s="31"/>
@@ -45932,7 +45906,7 @@
       <c r="FZ222" s="32"/>
       <c r="GA222" s="32"/>
     </row>
-    <row r="223" spans="1:183">
+    <row r="223" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A223" s="24"/>
       <c r="B223" s="24"/>
       <c r="C223" s="24"/>
@@ -45941,14 +45915,14 @@
       <c r="F223" s="27"/>
       <c r="G223" s="27"/>
       <c r="H223" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I223" s="35">
         <v>0</v>
       </c>
       <c r="J223" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K223" s="31"/>
@@ -46125,7 +46099,7 @@
       <c r="FZ223" s="32"/>
       <c r="GA223" s="32"/>
     </row>
-    <row r="224" spans="1:183">
+    <row r="224" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A224" s="24"/>
       <c r="B224" s="24"/>
       <c r="C224" s="24"/>
@@ -46134,14 +46108,14 @@
       <c r="F224" s="27"/>
       <c r="G224" s="27"/>
       <c r="H224" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I224" s="35">
         <v>0</v>
       </c>
       <c r="J224" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K224" s="31"/>
@@ -46318,7 +46292,7 @@
       <c r="FZ224" s="32"/>
       <c r="GA224" s="32"/>
     </row>
-    <row r="225" spans="1:183">
+    <row r="225" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A225" s="24"/>
       <c r="B225" s="24"/>
       <c r="C225" s="24"/>
@@ -46327,14 +46301,14 @@
       <c r="F225" s="27"/>
       <c r="G225" s="27"/>
       <c r="H225" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I225" s="35">
         <v>0</v>
       </c>
       <c r="J225" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K225" s="31"/>
@@ -46511,7 +46485,7 @@
       <c r="FZ225" s="32"/>
       <c r="GA225" s="32"/>
     </row>
-    <row r="226" spans="1:183">
+    <row r="226" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A226" s="24"/>
       <c r="B226" s="24"/>
       <c r="C226" s="24"/>
@@ -46520,14 +46494,14 @@
       <c r="F226" s="27"/>
       <c r="G226" s="27"/>
       <c r="H226" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I226" s="35">
         <v>0</v>
       </c>
       <c r="J226" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K226" s="31"/>
@@ -46704,7 +46678,7 @@
       <c r="FZ226" s="32"/>
       <c r="GA226" s="32"/>
     </row>
-    <row r="227" spans="1:183">
+    <row r="227" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A227" s="24"/>
       <c r="B227" s="24"/>
       <c r="C227" s="24"/>
@@ -46713,14 +46687,14 @@
       <c r="F227" s="27"/>
       <c r="G227" s="27"/>
       <c r="H227" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I227" s="35">
         <v>0</v>
       </c>
       <c r="J227" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K227" s="31"/>
@@ -46897,7 +46871,7 @@
       <c r="FZ227" s="32"/>
       <c r="GA227" s="32"/>
     </row>
-    <row r="228" spans="1:183">
+    <row r="228" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A228" s="24"/>
       <c r="B228" s="24"/>
       <c r="C228" s="24"/>
@@ -46906,14 +46880,14 @@
       <c r="F228" s="27"/>
       <c r="G228" s="27"/>
       <c r="H228" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I228" s="35">
         <v>0</v>
       </c>
       <c r="J228" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K228" s="31"/>
@@ -47090,7 +47064,7 @@
       <c r="FZ228" s="32"/>
       <c r="GA228" s="32"/>
     </row>
-    <row r="229" spans="1:183">
+    <row r="229" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A229" s="24"/>
       <c r="B229" s="24"/>
       <c r="C229" s="24"/>
@@ -47099,14 +47073,14 @@
       <c r="F229" s="27"/>
       <c r="G229" s="27"/>
       <c r="H229" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I229" s="35">
         <v>0</v>
       </c>
       <c r="J229" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K229" s="31"/>
@@ -47283,7 +47257,7 @@
       <c r="FZ229" s="32"/>
       <c r="GA229" s="32"/>
     </row>
-    <row r="230" spans="1:183">
+    <row r="230" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A230" s="24"/>
       <c r="B230" s="24"/>
       <c r="C230" s="24"/>
@@ -47292,14 +47266,14 @@
       <c r="F230" s="27"/>
       <c r="G230" s="27"/>
       <c r="H230" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I230" s="35">
         <v>0</v>
       </c>
       <c r="J230" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K230" s="31"/>
@@ -47476,7 +47450,7 @@
       <c r="FZ230" s="32"/>
       <c r="GA230" s="32"/>
     </row>
-    <row r="231" spans="1:183">
+    <row r="231" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A231" s="24"/>
       <c r="B231" s="24"/>
       <c r="C231" s="24"/>
@@ -47485,14 +47459,14 @@
       <c r="F231" s="27"/>
       <c r="G231" s="27"/>
       <c r="H231" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I231" s="35">
         <v>0</v>
       </c>
       <c r="J231" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K231" s="31"/>
@@ -47669,7 +47643,7 @@
       <c r="FZ231" s="32"/>
       <c r="GA231" s="32"/>
     </row>
-    <row r="232" spans="1:183">
+    <row r="232" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A232" s="24"/>
       <c r="B232" s="24"/>
       <c r="C232" s="24"/>
@@ -47678,14 +47652,14 @@
       <c r="F232" s="27"/>
       <c r="G232" s="27"/>
       <c r="H232" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I232" s="35">
         <v>0</v>
       </c>
       <c r="J232" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K232" s="31"/>
@@ -47862,7 +47836,7 @@
       <c r="FZ232" s="32"/>
       <c r="GA232" s="32"/>
     </row>
-    <row r="233" spans="1:183">
+    <row r="233" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A233" s="24"/>
       <c r="B233" s="24"/>
       <c r="C233" s="24"/>
@@ -47871,14 +47845,14 @@
       <c r="F233" s="27"/>
       <c r="G233" s="27"/>
       <c r="H233" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I233" s="35">
         <v>0</v>
       </c>
       <c r="J233" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K233" s="31"/>
@@ -48055,7 +48029,7 @@
       <c r="FZ233" s="32"/>
       <c r="GA233" s="32"/>
     </row>
-    <row r="234" spans="1:183">
+    <row r="234" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A234" s="24"/>
       <c r="B234" s="24"/>
       <c r="C234" s="24"/>
@@ -48064,14 +48038,14 @@
       <c r="F234" s="27"/>
       <c r="G234" s="27"/>
       <c r="H234" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I234" s="35">
         <v>0</v>
       </c>
       <c r="J234" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K234" s="31"/>
@@ -48248,7 +48222,7 @@
       <c r="FZ234" s="32"/>
       <c r="GA234" s="32"/>
     </row>
-    <row r="235" spans="1:183">
+    <row r="235" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A235" s="24"/>
       <c r="B235" s="24"/>
       <c r="C235" s="24"/>
@@ -48257,14 +48231,14 @@
       <c r="F235" s="27"/>
       <c r="G235" s="27"/>
       <c r="H235" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I235" s="35">
         <v>0</v>
       </c>
       <c r="J235" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K235" s="31"/>
@@ -48441,7 +48415,7 @@
       <c r="FZ235" s="32"/>
       <c r="GA235" s="32"/>
     </row>
-    <row r="236" spans="1:183">
+    <row r="236" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A236" s="24"/>
       <c r="B236" s="24"/>
       <c r="C236" s="24"/>
@@ -48450,14 +48424,14 @@
       <c r="F236" s="27"/>
       <c r="G236" s="27"/>
       <c r="H236" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I236" s="35">
         <v>0</v>
       </c>
       <c r="J236" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K236" s="31"/>
@@ -48634,7 +48608,7 @@
       <c r="FZ236" s="32"/>
       <c r="GA236" s="32"/>
     </row>
-    <row r="237" spans="1:183">
+    <row r="237" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A237" s="24"/>
       <c r="B237" s="24"/>
       <c r="C237" s="24"/>
@@ -48643,14 +48617,14 @@
       <c r="F237" s="27"/>
       <c r="G237" s="27"/>
       <c r="H237" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I237" s="35">
         <v>0</v>
       </c>
       <c r="J237" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K237" s="31"/>
@@ -48827,7 +48801,7 @@
       <c r="FZ237" s="32"/>
       <c r="GA237" s="32"/>
     </row>
-    <row r="238" spans="1:183">
+    <row r="238" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A238" s="24"/>
       <c r="B238" s="24"/>
       <c r="C238" s="24"/>
@@ -48836,14 +48810,14 @@
       <c r="F238" s="27"/>
       <c r="G238" s="27"/>
       <c r="H238" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I238" s="35">
         <v>0</v>
       </c>
       <c r="J238" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K238" s="31"/>
@@ -49020,7 +48994,7 @@
       <c r="FZ238" s="32"/>
       <c r="GA238" s="32"/>
     </row>
-    <row r="239" spans="1:183">
+    <row r="239" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A239" s="24"/>
       <c r="B239" s="24"/>
       <c r="C239" s="24"/>
@@ -49029,14 +49003,14 @@
       <c r="F239" s="27"/>
       <c r="G239" s="27"/>
       <c r="H239" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I239" s="35">
         <v>0</v>
       </c>
       <c r="J239" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K239" s="31"/>
@@ -49213,7 +49187,7 @@
       <c r="FZ239" s="32"/>
       <c r="GA239" s="32"/>
     </row>
-    <row r="240" spans="1:183">
+    <row r="240" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A240" s="24"/>
       <c r="B240" s="24"/>
       <c r="C240" s="24"/>
@@ -49222,14 +49196,14 @@
       <c r="F240" s="27"/>
       <c r="G240" s="27"/>
       <c r="H240" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I240" s="35">
         <v>0</v>
       </c>
       <c r="J240" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K240" s="31"/>
@@ -49406,7 +49380,7 @@
       <c r="FZ240" s="32"/>
       <c r="GA240" s="32"/>
     </row>
-    <row r="241" spans="1:183">
+    <row r="241" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A241" s="24"/>
       <c r="B241" s="24"/>
       <c r="C241" s="24"/>
@@ -49415,14 +49389,14 @@
       <c r="F241" s="27"/>
       <c r="G241" s="27"/>
       <c r="H241" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I241" s="35">
         <v>0</v>
       </c>
       <c r="J241" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K241" s="31"/>
@@ -49599,7 +49573,7 @@
       <c r="FZ241" s="32"/>
       <c r="GA241" s="32"/>
     </row>
-    <row r="242" spans="1:183">
+    <row r="242" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A242" s="24"/>
       <c r="B242" s="24"/>
       <c r="C242" s="24"/>
@@ -49608,14 +49582,14 @@
       <c r="F242" s="27"/>
       <c r="G242" s="27"/>
       <c r="H242" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I242" s="35">
         <v>0</v>
       </c>
       <c r="J242" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K242" s="31"/>
@@ -49792,7 +49766,7 @@
       <c r="FZ242" s="32"/>
       <c r="GA242" s="32"/>
     </row>
-    <row r="243" spans="1:183">
+    <row r="243" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A243" s="24"/>
       <c r="B243" s="24"/>
       <c r="C243" s="24"/>
@@ -49801,14 +49775,14 @@
       <c r="F243" s="27"/>
       <c r="G243" s="27"/>
       <c r="H243" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I243" s="35">
         <v>0</v>
       </c>
       <c r="J243" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K243" s="31"/>
@@ -49985,7 +49959,7 @@
       <c r="FZ243" s="32"/>
       <c r="GA243" s="32"/>
     </row>
-    <row r="244" spans="1:183">
+    <row r="244" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A244" s="24"/>
       <c r="B244" s="24"/>
       <c r="C244" s="24"/>
@@ -49994,14 +49968,14 @@
       <c r="F244" s="27"/>
       <c r="G244" s="27"/>
       <c r="H244" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I244" s="35">
         <v>0</v>
       </c>
       <c r="J244" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K244" s="31"/>
@@ -50178,7 +50152,7 @@
       <c r="FZ244" s="32"/>
       <c r="GA244" s="32"/>
     </row>
-    <row r="245" spans="1:183">
+    <row r="245" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A245" s="24"/>
       <c r="B245" s="24"/>
       <c r="C245" s="24"/>
@@ -50187,14 +50161,14 @@
       <c r="F245" s="27"/>
       <c r="G245" s="27"/>
       <c r="H245" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I245" s="35">
         <v>0</v>
       </c>
       <c r="J245" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K245" s="31"/>
@@ -50371,7 +50345,7 @@
       <c r="FZ245" s="32"/>
       <c r="GA245" s="32"/>
     </row>
-    <row r="246" spans="1:183">
+    <row r="246" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A246" s="24"/>
       <c r="B246" s="24"/>
       <c r="C246" s="24"/>
@@ -50380,14 +50354,14 @@
       <c r="F246" s="27"/>
       <c r="G246" s="27"/>
       <c r="H246" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I246" s="35">
         <v>0</v>
       </c>
       <c r="J246" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K246" s="31"/>
@@ -50564,7 +50538,7 @@
       <c r="FZ246" s="32"/>
       <c r="GA246" s="32"/>
     </row>
-    <row r="247" spans="1:183">
+    <row r="247" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A247" s="24"/>
       <c r="B247" s="24"/>
       <c r="C247" s="24"/>
@@ -50573,14 +50547,14 @@
       <c r="F247" s="27"/>
       <c r="G247" s="27"/>
       <c r="H247" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I247" s="35">
         <v>0</v>
       </c>
       <c r="J247" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K247" s="31"/>
@@ -50757,7 +50731,7 @@
       <c r="FZ247" s="32"/>
       <c r="GA247" s="32"/>
     </row>
-    <row r="248" spans="1:183">
+    <row r="248" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A248" s="24"/>
       <c r="B248" s="24"/>
       <c r="C248" s="24"/>
@@ -50766,14 +50740,14 @@
       <c r="F248" s="27"/>
       <c r="G248" s="27"/>
       <c r="H248" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I248" s="35">
         <v>0</v>
       </c>
       <c r="J248" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K248" s="31"/>
@@ -50950,7 +50924,7 @@
       <c r="FZ248" s="32"/>
       <c r="GA248" s="32"/>
     </row>
-    <row r="249" spans="1:183">
+    <row r="249" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A249" s="24"/>
       <c r="B249" s="24"/>
       <c r="C249" s="24"/>
@@ -50959,14 +50933,14 @@
       <c r="F249" s="27"/>
       <c r="G249" s="27"/>
       <c r="H249" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I249" s="35">
         <v>0</v>
       </c>
       <c r="J249" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K249" s="31"/>
@@ -51143,7 +51117,7 @@
       <c r="FZ249" s="32"/>
       <c r="GA249" s="32"/>
     </row>
-    <row r="250" spans="1:183">
+    <row r="250" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A250" s="24"/>
       <c r="B250" s="24"/>
       <c r="C250" s="24"/>
@@ -51152,14 +51126,14 @@
       <c r="F250" s="27"/>
       <c r="G250" s="27"/>
       <c r="H250" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I250" s="35">
         <v>0</v>
       </c>
       <c r="J250" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K250" s="31"/>
@@ -51336,7 +51310,7 @@
       <c r="FZ250" s="32"/>
       <c r="GA250" s="32"/>
     </row>
-    <row r="251" spans="1:183">
+    <row r="251" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A251" s="24"/>
       <c r="B251" s="24"/>
       <c r="C251" s="24"/>
@@ -51345,14 +51319,14 @@
       <c r="F251" s="27"/>
       <c r="G251" s="27"/>
       <c r="H251" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I251" s="35">
         <v>0</v>
       </c>
       <c r="J251" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K251" s="31"/>
@@ -51529,7 +51503,7 @@
       <c r="FZ251" s="32"/>
       <c r="GA251" s="32"/>
     </row>
-    <row r="252" spans="1:183">
+    <row r="252" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A252" s="24"/>
       <c r="B252" s="24"/>
       <c r="C252" s="24"/>
@@ -51538,14 +51512,14 @@
       <c r="F252" s="27"/>
       <c r="G252" s="27"/>
       <c r="H252" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I252" s="35">
         <v>0</v>
       </c>
       <c r="J252" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K252" s="31"/>
@@ -51722,7 +51696,7 @@
       <c r="FZ252" s="32"/>
       <c r="GA252" s="32"/>
     </row>
-    <row r="253" spans="1:183">
+    <row r="253" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A253" s="24"/>
       <c r="B253" s="24"/>
       <c r="C253" s="24"/>
@@ -51731,14 +51705,14 @@
       <c r="F253" s="27"/>
       <c r="G253" s="27"/>
       <c r="H253" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I253" s="35">
         <v>0</v>
       </c>
       <c r="J253" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K253" s="31"/>
@@ -51915,7 +51889,7 @@
       <c r="FZ253" s="32"/>
       <c r="GA253" s="32"/>
     </row>
-    <row r="254" spans="1:183">
+    <row r="254" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A254" s="24"/>
       <c r="B254" s="24"/>
       <c r="C254" s="24"/>
@@ -51924,14 +51898,14 @@
       <c r="F254" s="27"/>
       <c r="G254" s="27"/>
       <c r="H254" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I254" s="35">
         <v>0</v>
       </c>
       <c r="J254" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K254" s="31"/>
@@ -52108,7 +52082,7 @@
       <c r="FZ254" s="32"/>
       <c r="GA254" s="32"/>
     </row>
-    <row r="255" spans="1:183">
+    <row r="255" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A255" s="24"/>
       <c r="B255" s="24"/>
       <c r="C255" s="24"/>
@@ -52117,14 +52091,14 @@
       <c r="F255" s="27"/>
       <c r="G255" s="27"/>
       <c r="H255" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I255" s="35">
         <v>0</v>
       </c>
       <c r="J255" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K255" s="31"/>
@@ -52301,7 +52275,7 @@
       <c r="FZ255" s="32"/>
       <c r="GA255" s="32"/>
     </row>
-    <row r="256" spans="1:183">
+    <row r="256" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A256" s="24"/>
       <c r="B256" s="24"/>
       <c r="C256" s="24"/>
@@ -52310,14 +52284,14 @@
       <c r="F256" s="27"/>
       <c r="G256" s="27"/>
       <c r="H256" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I256" s="35">
         <v>0</v>
       </c>
       <c r="J256" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K256" s="31"/>
@@ -52494,7 +52468,7 @@
       <c r="FZ256" s="32"/>
       <c r="GA256" s="32"/>
     </row>
-    <row r="257" spans="1:183">
+    <row r="257" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A257" s="24"/>
       <c r="B257" s="24"/>
       <c r="C257" s="24"/>
@@ -52503,14 +52477,14 @@
       <c r="F257" s="27"/>
       <c r="G257" s="27"/>
       <c r="H257" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I257" s="35">
         <v>0</v>
       </c>
       <c r="J257" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K257" s="31"/>
@@ -52687,7 +52661,7 @@
       <c r="FZ257" s="32"/>
       <c r="GA257" s="32"/>
     </row>
-    <row r="258" spans="1:183">
+    <row r="258" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A258" s="24"/>
       <c r="B258" s="24"/>
       <c r="C258" s="24"/>
@@ -52696,14 +52670,14 @@
       <c r="F258" s="27"/>
       <c r="G258" s="27"/>
       <c r="H258" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I258" s="35">
         <v>0</v>
       </c>
       <c r="J258" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K258" s="31"/>
@@ -52880,7 +52854,7 @@
       <c r="FZ258" s="32"/>
       <c r="GA258" s="32"/>
     </row>
-    <row r="259" spans="1:183">
+    <row r="259" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A259" s="24"/>
       <c r="B259" s="24"/>
       <c r="C259" s="24"/>
@@ -52889,14 +52863,14 @@
       <c r="F259" s="27"/>
       <c r="G259" s="27"/>
       <c r="H259" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I259" s="35">
         <v>0</v>
       </c>
       <c r="J259" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K259" s="31"/>
@@ -53073,7 +53047,7 @@
       <c r="FZ259" s="32"/>
       <c r="GA259" s="32"/>
     </row>
-    <row r="260" spans="1:183">
+    <row r="260" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A260" s="24"/>
       <c r="B260" s="24"/>
       <c r="C260" s="24"/>
@@ -53082,14 +53056,14 @@
       <c r="F260" s="27"/>
       <c r="G260" s="27"/>
       <c r="H260" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I260" s="35">
         <v>0</v>
       </c>
       <c r="J260" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K260" s="31"/>
@@ -53266,7 +53240,7 @@
       <c r="FZ260" s="32"/>
       <c r="GA260" s="32"/>
     </row>
-    <row r="261" spans="1:183">
+    <row r="261" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A261" s="24"/>
       <c r="B261" s="24"/>
       <c r="C261" s="24"/>
@@ -53275,14 +53249,14 @@
       <c r="F261" s="27"/>
       <c r="G261" s="27"/>
       <c r="H261" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I261" s="35">
         <v>0</v>
       </c>
       <c r="J261" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K261" s="31"/>
@@ -53459,7 +53433,7 @@
       <c r="FZ261" s="32"/>
       <c r="GA261" s="32"/>
     </row>
-    <row r="262" spans="1:183">
+    <row r="262" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A262" s="24"/>
       <c r="B262" s="24"/>
       <c r="C262" s="24"/>
@@ -53468,14 +53442,14 @@
       <c r="F262" s="27"/>
       <c r="G262" s="27"/>
       <c r="H262" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I262" s="35">
         <v>0</v>
       </c>
       <c r="J262" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K262" s="31"/>
@@ -53652,7 +53626,7 @@
       <c r="FZ262" s="32"/>
       <c r="GA262" s="32"/>
     </row>
-    <row r="263" spans="1:183">
+    <row r="263" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A263" s="24"/>
       <c r="B263" s="24"/>
       <c r="C263" s="24"/>
@@ -53661,14 +53635,14 @@
       <c r="F263" s="27"/>
       <c r="G263" s="27"/>
       <c r="H263" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I263" s="35">
         <v>0</v>
       </c>
       <c r="J263" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K263" s="31"/>
@@ -53845,7 +53819,7 @@
       <c r="FZ263" s="32"/>
       <c r="GA263" s="32"/>
     </row>
-    <row r="264" spans="1:183">
+    <row r="264" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A264" s="24"/>
       <c r="B264" s="24"/>
       <c r="C264" s="24"/>
@@ -53854,14 +53828,14 @@
       <c r="F264" s="27"/>
       <c r="G264" s="27"/>
       <c r="H264" s="34">
-        <f t="shared" ref="H264:H280" si="16">NETWORKDAYS(F264,G264)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I264" s="35">
         <v>0</v>
       </c>
       <c r="J264" s="30" t="str">
-        <f t="shared" ref="J264:J281" si="17">IF(I264=100,"완료",IF(I264=0,"대기","진행중"))</f>
+        <f t="shared" ref="J264:J281" si="12">IF(I264=100,"완료",IF(I264=0,"대기","진행중"))</f>
         <v>대기</v>
       </c>
       <c r="K264" s="31"/>
@@ -54038,7 +54012,7 @@
       <c r="FZ264" s="32"/>
       <c r="GA264" s="32"/>
     </row>
-    <row r="265" spans="1:183">
+    <row r="265" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A265" s="24"/>
       <c r="B265" s="24"/>
       <c r="C265" s="24"/>
@@ -54047,14 +54021,14 @@
       <c r="F265" s="27"/>
       <c r="G265" s="27"/>
       <c r="H265" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I265" s="35">
         <v>0</v>
       </c>
       <c r="J265" s="30" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>대기</v>
       </c>
       <c r="K265" s="31"/>
@@ -54231,7 +54205,7 @@
       <c r="FZ265" s="32"/>
       <c r="GA265" s="32"/>
     </row>
-    <row r="266" spans="1:183">
+    <row r="266" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A266" s="24"/>
       <c r="B266" s="24"/>
       <c r="C266" s="24"/>
@@ -54240,14 +54214,14 @@
       <c r="F266" s="27"/>
       <c r="G266" s="27"/>
       <c r="H266" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I266" s="35">
         <v>0</v>
       </c>
       <c r="J266" s="30" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>대기</v>
       </c>
       <c r="K266" s="31"/>
@@ -54424,7 +54398,7 @@
       <c r="FZ266" s="32"/>
       <c r="GA266" s="32"/>
     </row>
-    <row r="267" spans="1:183">
+    <row r="267" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A267" s="24"/>
       <c r="B267" s="24"/>
       <c r="C267" s="24"/>
@@ -54433,14 +54407,14 @@
       <c r="F267" s="27"/>
       <c r="G267" s="27"/>
       <c r="H267" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I267" s="35">
         <v>0</v>
       </c>
       <c r="J267" s="30" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>대기</v>
       </c>
       <c r="K267" s="31"/>
@@ -54617,7 +54591,7 @@
       <c r="FZ267" s="32"/>
       <c r="GA267" s="32"/>
     </row>
-    <row r="268" spans="1:183">
+    <row r="268" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A268" s="24"/>
       <c r="B268" s="24"/>
       <c r="C268" s="24"/>
@@ -54626,14 +54600,14 @@
       <c r="F268" s="27"/>
       <c r="G268" s="27"/>
       <c r="H268" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I268" s="35">
         <v>0</v>
       </c>
       <c r="J268" s="30" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>대기</v>
       </c>
       <c r="K268" s="31"/>
@@ -54810,7 +54784,7 @@
       <c r="FZ268" s="32"/>
       <c r="GA268" s="32"/>
     </row>
-    <row r="269" spans="1:183">
+    <row r="269" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A269" s="24"/>
       <c r="B269" s="24"/>
       <c r="C269" s="24"/>
@@ -54819,14 +54793,14 @@
       <c r="F269" s="27"/>
       <c r="G269" s="27"/>
       <c r="H269" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I269" s="35">
         <v>0</v>
       </c>
       <c r="J269" s="30" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>대기</v>
       </c>
       <c r="K269" s="31"/>
@@ -55003,7 +54977,7 @@
       <c r="FZ269" s="32"/>
       <c r="GA269" s="32"/>
     </row>
-    <row r="270" spans="1:183">
+    <row r="270" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A270" s="24"/>
       <c r="B270" s="24"/>
       <c r="C270" s="24"/>
@@ -55012,14 +54986,14 @@
       <c r="F270" s="27"/>
       <c r="G270" s="27"/>
       <c r="H270" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I270" s="35">
         <v>0</v>
       </c>
       <c r="J270" s="30" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>대기</v>
       </c>
       <c r="K270" s="31"/>
@@ -55196,7 +55170,7 @@
       <c r="FZ270" s="32"/>
       <c r="GA270" s="32"/>
     </row>
-    <row r="271" spans="1:183">
+    <row r="271" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A271" s="24"/>
       <c r="B271" s="24"/>
       <c r="C271" s="24"/>
@@ -55205,14 +55179,14 @@
       <c r="F271" s="27"/>
       <c r="G271" s="27"/>
       <c r="H271" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I271" s="35">
         <v>0</v>
       </c>
       <c r="J271" s="30" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>대기</v>
       </c>
       <c r="K271" s="31"/>
@@ -55389,7 +55363,7 @@
       <c r="FZ271" s="32"/>
       <c r="GA271" s="32"/>
     </row>
-    <row r="272" spans="1:183">
+    <row r="272" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A272" s="24"/>
       <c r="B272" s="24"/>
       <c r="C272" s="24"/>
@@ -55398,14 +55372,14 @@
       <c r="F272" s="27"/>
       <c r="G272" s="27"/>
       <c r="H272" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I272" s="35">
         <v>0</v>
       </c>
       <c r="J272" s="30" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>대기</v>
       </c>
       <c r="K272" s="31"/>
@@ -55582,7 +55556,7 @@
       <c r="FZ272" s="32"/>
       <c r="GA272" s="32"/>
     </row>
-    <row r="273" spans="1:183">
+    <row r="273" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A273" s="24"/>
       <c r="B273" s="24"/>
       <c r="C273" s="24"/>
@@ -55591,14 +55565,14 @@
       <c r="F273" s="27"/>
       <c r="G273" s="27"/>
       <c r="H273" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I273" s="35">
         <v>0</v>
       </c>
       <c r="J273" s="30" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>대기</v>
       </c>
       <c r="K273" s="31"/>
@@ -55775,7 +55749,7 @@
       <c r="FZ273" s="32"/>
       <c r="GA273" s="32"/>
     </row>
-    <row r="274" spans="1:183">
+    <row r="274" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A274" s="24"/>
       <c r="B274" s="24"/>
       <c r="C274" s="24"/>
@@ -55784,14 +55758,14 @@
       <c r="F274" s="27"/>
       <c r="G274" s="27"/>
       <c r="H274" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I274" s="35">
         <v>0</v>
       </c>
       <c r="J274" s="30" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>대기</v>
       </c>
       <c r="K274" s="31"/>
@@ -55968,7 +55942,7 @@
       <c r="FZ274" s="32"/>
       <c r="GA274" s="32"/>
     </row>
-    <row r="275" spans="1:183">
+    <row r="275" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A275" s="24"/>
       <c r="B275" s="24"/>
       <c r="C275" s="24"/>
@@ -55977,14 +55951,14 @@
       <c r="F275" s="27"/>
       <c r="G275" s="27"/>
       <c r="H275" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I275" s="35">
         <v>0</v>
       </c>
       <c r="J275" s="30" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>대기</v>
       </c>
       <c r="K275" s="31"/>
@@ -56161,7 +56135,7 @@
       <c r="FZ275" s="32"/>
       <c r="GA275" s="32"/>
     </row>
-    <row r="276" spans="1:183">
+    <row r="276" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A276" s="24"/>
       <c r="B276" s="24"/>
       <c r="C276" s="24"/>
@@ -56170,14 +56144,14 @@
       <c r="F276" s="27"/>
       <c r="G276" s="27"/>
       <c r="H276" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I276" s="35">
         <v>0</v>
       </c>
       <c r="J276" s="30" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>대기</v>
       </c>
       <c r="K276" s="31"/>
@@ -56354,7 +56328,7 @@
       <c r="FZ276" s="32"/>
       <c r="GA276" s="32"/>
     </row>
-    <row r="277" spans="1:183">
+    <row r="277" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A277" s="24"/>
       <c r="B277" s="24"/>
       <c r="C277" s="24"/>
@@ -56363,14 +56337,14 @@
       <c r="F277" s="27"/>
       <c r="G277" s="27"/>
       <c r="H277" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I277" s="35">
         <v>0</v>
       </c>
       <c r="J277" s="30" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>대기</v>
       </c>
       <c r="K277" s="31"/>
@@ -56547,7 +56521,7 @@
       <c r="FZ277" s="32"/>
       <c r="GA277" s="32"/>
     </row>
-    <row r="278" spans="1:183">
+    <row r="278" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A278" s="24"/>
       <c r="B278" s="24"/>
       <c r="C278" s="24"/>
@@ -56556,14 +56530,14 @@
       <c r="F278" s="27"/>
       <c r="G278" s="27"/>
       <c r="H278" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I278" s="35">
         <v>0</v>
       </c>
       <c r="J278" s="30" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>대기</v>
       </c>
       <c r="K278" s="31"/>
@@ -56740,7 +56714,7 @@
       <c r="FZ278" s="32"/>
       <c r="GA278" s="32"/>
     </row>
-    <row r="279" spans="1:183">
+    <row r="279" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A279" s="24"/>
       <c r="B279" s="24"/>
       <c r="C279" s="24"/>
@@ -56749,14 +56723,14 @@
       <c r="F279" s="27"/>
       <c r="G279" s="27"/>
       <c r="H279" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I279" s="35">
         <v>0</v>
       </c>
       <c r="J279" s="30" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>대기</v>
       </c>
       <c r="K279" s="31"/>
@@ -56933,7 +56907,7 @@
       <c r="FZ279" s="32"/>
       <c r="GA279" s="32"/>
     </row>
-    <row r="280" spans="1:183">
+    <row r="280" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A280" s="24"/>
       <c r="B280" s="24"/>
       <c r="C280" s="24"/>
@@ -56942,14 +56916,14 @@
       <c r="F280" s="27"/>
       <c r="G280" s="27"/>
       <c r="H280" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I280" s="35">
         <v>0</v>
       </c>
       <c r="J280" s="30" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>대기</v>
       </c>
       <c r="K280" s="31"/>
@@ -57126,7 +57100,7 @@
       <c r="FZ280" s="32"/>
       <c r="GA280" s="32"/>
     </row>
-    <row r="281" spans="1:183">
+    <row r="281" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A281" s="24"/>
       <c r="B281" s="24"/>
       <c r="C281" s="24"/>
@@ -57142,7 +57116,7 @@
         <v>0</v>
       </c>
       <c r="J281" s="30" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>대기</v>
       </c>
       <c r="K281" s="31"/>
@@ -57325,7 +57299,7 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A4:F4"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="K4:GA4">
     <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
       <formula>IF($G$4&lt;2,(OR(WEEKDAY(K5)=1,WEEKDAY(K5)=7)))</formula>
@@ -57337,25 +57311,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:GA7 K12:GA281">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
-      <formula>AND(K$5&gt;=$F6,K$5&lt;$F6+($G6-$F6+1)*$I6%)</formula>
+    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
+      <formula>IF($G$4&lt;2,(OR(WEEKDAY(K$5)=1,WEEKDAY(K$5)=7)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>AND(K$5&gt;=$F6+($G6-$F6+1)*$I6%,K$5&lt;=$G6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8" stopIfTrue="1">
-      <formula>IF($G$4&lt;2,(OR(WEEKDAY(K$5)=1,WEEKDAY(K$5)=7)))</formula>
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+      <formula>AND(K$5&gt;=$F6,K$5&lt;$F6+($G6-$F6+1)*$I6%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:GA11">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>AND(K$5&gt;=$F8,K$5&lt;$F8+($G8-$F8+1)*$I8%)</formula>
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>IF($G$4&lt;2,(OR(WEEKDAY(K$5)=1,WEEKDAY(K$5)=7)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>AND(K$5&gt;=$F8+($G8-$F8+1)*$I8%,K$5&lt;=$G8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>IF($G$4&lt;2,(OR(WEEKDAY(K$5)=1,WEEKDAY(K$5)=7)))</formula>
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>AND(K$5&gt;=$F8,K$5&lt;$F8+($G8-$F8+1)*$I8%)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -57364,10 +57338,10 @@
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.42" header="0.5" footer="0.23"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.41999998688697815" header="0.5" footer="0.23000000417232513"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;F&amp;CPage &amp;P of  &amp;N&amp;R&amp;F</oddFooter>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;F&amp;C&amp;"맑은 고딕,Regular"Page &amp;P of  &amp;N&amp;R&amp;"맑은 고딕,Regular"&amp;F</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/ODiYstatus.xlsx
+++ b/ODiYstatus.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EZEN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\라쿤\Documents\pot\DEV\EZENProject\ODiY\git\ODiY\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5798C8C6-EFEF-4006-A13F-668797E0DB7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22575" windowHeight="8595"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -64,13 +65,21 @@
     <definedName name="파트" localSheetId="0">OFFSET(#REF!,0,0,1,COUNTA(#REF!))</definedName>
     <definedName name="파트">OFFSET(#REF!,0,0,1,COUNTA(#REF!))</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="114">
   <si>
     <t>담당자</t>
   </si>
@@ -91,9 +100,6 @@
   </si>
   <si>
     <t>내주변</t>
-  </si>
-  <si>
-    <t>JS</t>
   </si>
   <si>
     <t>페이지</t>
@@ -124,9 +130,6 @@
   </si>
   <si>
     <t>원일</t>
-  </si>
-  <si>
-    <t>기능</t>
   </si>
   <si>
     <t>진척율
@@ -161,12 +164,6 @@
   </si>
   <si>
     <t>즐겨찾기 영역</t>
-  </si>
-  <si>
-    <t>배우고나서</t>
-  </si>
-  <si>
-    <t>추후작성</t>
   </si>
   <si>
     <t>회원목록보기</t>
@@ -261,21 +258,469 @@
   <si>
     <t>가이드, 회원가입, 로그인 버튼 모양</t>
   </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ourAPI</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>java, sql</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ourAPI를 데이터베이스에 저장</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ava, sql</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겨찾기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입, 회원정보수정 이용시 사용할 데이터베이스 작성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보와 연동될 즐겨찾기 데이터베이스 테이블 작성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>html, js</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도API</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>내주변 페이지에 카카오맵(또는 OSM) API 호출</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>지도A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>PI</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>tml, js</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>상세정보페이지에 카카오맵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(또는 OSM) API 호출</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행플랜 작성, 상세보기 페이지에 카카오맵(또는 OSM) API 호출</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>헤더 영역</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 동적 기능 추가</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>통영</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>우진</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>재웅</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>메인 지역별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 추천 관광지 영역 동적 기능 추가</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>sp</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색결과목록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>내주변</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세정보</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행플랜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>데이터베이스에서 불러올</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 부분을 페이지에 추가</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ss</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ss디자인 표준화, 조율</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 페이지</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>재웅</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 페이지</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>sd</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>오리지널 디자인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 아이콘, 이미지 추가</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 기능</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ffline</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>기존 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 강화 또는 간소화 회의</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>추가 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 회의</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>완성 페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 확인, 후속 일정 논의</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>우진</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>원일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>통영</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="184" formatCode="yy/mm/dd"/>
-    <numFmt numFmtId="185" formatCode="ddd"/>
-    <numFmt numFmtId="186" formatCode="d/m/yy"/>
-    <numFmt numFmtId="187" formatCode="#,##0_ "/>
-    <numFmt numFmtId="188" formatCode="0\ \%"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="yy/mm/dd"/>
+    <numFmt numFmtId="179" formatCode="ddd"/>
+    <numFmt numFmtId="180" formatCode="d/m/yy"/>
+    <numFmt numFmtId="181" formatCode="#,##0_ "/>
+    <numFmt numFmtId="182" formatCode="0\ \%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -327,6 +772,13 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -691,7 +1143,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -715,21 +1167,21 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="2" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -743,10 +1195,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -764,10 +1216,10 @@
     <xf numFmtId="4" fontId="3" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -783,14 +1235,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="187" fontId="3" fillId="6" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="6" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="3" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="3" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="187" fontId="3" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -802,10 +1254,10 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="3" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="3" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="3" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -814,6 +1266,15 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -837,21 +1298,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="3" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="3" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="3" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="3" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal_ChartUs" xfId="2"/>
-    <cellStyle name="기본 2" xfId="1"/>
-    <cellStyle name="쉼표_Book1" xfId="4"/>
+    <cellStyle name="Normal_ChartUs" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="기본 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="쉼표_Book1" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_Book1" xfId="3"/>
+    <cellStyle name="표준_Book1" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="28">
     <dxf>
@@ -1251,8 +1712,8 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="5" defaultTableStyle="표 스타일 1" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9">
+  <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="27"/>
       <tableStyleElement type="headerRow" dxfId="26"/>
       <tableStyleElement type="totalRow" dxfId="25"/>
@@ -1261,7 +1722,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="22"/>
       <tableStyleElement type="firstColumnStripe" dxfId="21"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="20"/>
       <tableStyleElement type="headerRow" dxfId="19"/>
       <tableStyleElement type="totalRow" dxfId="18"/>
@@ -1270,16 +1731,16 @@
       <tableStyleElement type="firstRowStripe" dxfId="15"/>
       <tableStyleElement type="firstColumnStripe" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="표 스타일 1" pivot="0" count="4">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstColumn" dxfId="11"/>
       <tableStyleElement type="lastColumn" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="표 스타일 2" pivot="0" count="1">
+    <tableStyle name="표 스타일 2" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
     </tableStyle>
-    <tableStyle name="표 스타일 2 2" pivot="0" count="1">
+    <tableStyle name="표 스타일 2 2" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
     </tableStyle>
   </tableStyles>
@@ -1649,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:GA281"/>
   <sheetViews>
@@ -1657,7 +2118,7 @@
       <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
+      <selection pane="bottomRight" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1675,17 +2136,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="44"/>
+      <c r="A1" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="47"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1864,16 +2325,16 @@
       <c r="GA1" s="2"/>
     </row>
     <row r="2" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -2053,11 +2514,11 @@
       <c r="GA2" s="2"/>
     </row>
     <row r="3" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="9">
         <v>44027</v>
       </c>
@@ -2242,14 +2703,14 @@
       <c r="GA3" s="12"/>
     </row>
     <row r="4" spans="1:183" s="17" customFormat="1" ht="27.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s" ph="1">
-        <v>48</v>
-      </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
+      <c r="A4" s="48" t="s" ph="1">
+        <v>44</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="13">
         <v>1</v>
       </c>
@@ -2951,16 +3412,16 @@
     </row>
     <row r="5" spans="1:183" ht="48.75" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>22</v>
-      </c>
       <c r="D5" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>0</v>
@@ -2969,13 +3430,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>2</v>
@@ -3678,16 +4139,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="27">
         <v>44027</v>
@@ -3696,7 +4157,7 @@
         <v>44029</v>
       </c>
       <c r="H6" s="28">
-        <f>NETWORKDAYS(F6,G6)</f>
+        <f t="shared" ref="H6:H69" si="6">NETWORKDAYS(F6,G6)</f>
         <v>3</v>
       </c>
       <c r="I6" s="29">
@@ -3884,13 +4345,13 @@
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="27">
         <v>44028</v>
@@ -3899,7 +4360,7 @@
         <v>44032</v>
       </c>
       <c r="H7" s="34">
-        <f t="shared" ref="H7:H280" si="6">NETWORKDAYS(F7,G7)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I7" s="29">
@@ -4087,13 +4548,13 @@
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="27">
         <v>44029</v>
@@ -4109,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="30" t="str">
-        <f t="shared" ref="J8:J11" si="8">IF(I8=100,"완료",IF(I8=0,"대기","진행중"))</f>
+        <f>IF(I8=100,"완료",IF(I8=0,"대기","진행중"))</f>
         <v>대기</v>
       </c>
       <c r="K8" s="31"/>
@@ -4290,13 +4751,13 @@
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="27">
         <v>44032</v>
@@ -4305,14 +4766,14 @@
         <v>44034</v>
       </c>
       <c r="H9" s="34">
-        <f>NETWORKDAYS(F9,G9)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I9" s="29">
         <v>0</v>
       </c>
       <c r="J9" s="30" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(I9=100,"완료",IF(I9=0,"대기","진행중"))</f>
         <v>대기</v>
       </c>
       <c r="K9" s="31"/>
@@ -4493,13 +4954,13 @@
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="27">
         <v>44033</v>
@@ -4515,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="30" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(I10=100,"완료",IF(I10=0,"대기","진행중"))</f>
         <v>대기</v>
       </c>
       <c r="K10" s="31"/>
@@ -4696,13 +5157,13 @@
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="27">
         <v>44034</v>
@@ -4718,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="30" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(I11=100,"완료",IF(I11=0,"대기","진행중"))</f>
         <v>대기</v>
       </c>
       <c r="K11" s="31"/>
@@ -4899,13 +5360,13 @@
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="27">
         <v>44034</v>
@@ -5103,16 +5564,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="27">
         <v>44027</v>
@@ -5309,13 +5770,13 @@
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="27">
         <v>44034</v>
@@ -5512,16 +5973,16 @@
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="27">
-        <v>44037</v>
+        <v>44039</v>
       </c>
       <c r="G15" s="27">
         <v>44040</v>
@@ -5715,23 +6176,23 @@
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="27">
+        <v>44040</v>
+      </c>
+      <c r="G16" s="27">
         <v>44041</v>
-      </c>
-      <c r="G16" s="27">
-        <v>44044</v>
       </c>
       <c r="H16" s="34">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" s="29">
         <v>0</v>
@@ -5919,16 +6380,16 @@
         <v>4</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="27">
         <v>44028</v>
@@ -6123,19 +6584,19 @@
     </row>
     <row r="18" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="26" t="s">
         <v>8</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>9</v>
       </c>
       <c r="F18" s="27">
         <v>44027</v>
@@ -6330,19 +6791,19 @@
     </row>
     <row r="19" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" s="27">
         <v>44030</v>
@@ -6537,19 +6998,19 @@
     </row>
     <row r="20" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C20" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>47</v>
-      </c>
       <c r="E20" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="27">
         <v>44027</v>
@@ -6746,13 +7207,13 @@
       <c r="A21" s="24"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="27">
         <v>44028</v>
@@ -6949,13 +7410,13 @@
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
       <c r="C22" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="27">
         <v>44030</v>
@@ -7150,29 +7611,29 @@
     </row>
     <row r="23" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="27">
-        <v>44045</v>
+        <v>44042</v>
       </c>
       <c r="G23" s="27">
-        <v>44050</v>
+        <v>44043</v>
       </c>
       <c r="H23" s="34">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I23" s="29">
         <v>0</v>
@@ -7359,23 +7820,23 @@
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="27">
-        <v>44051</v>
+        <v>44043</v>
       </c>
       <c r="G24" s="27">
-        <v>44055</v>
+        <v>44046</v>
       </c>
       <c r="H24" s="34">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" s="29">
         <v>0</v>
@@ -7562,23 +8023,23 @@
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="27">
-        <v>44056</v>
+        <v>44046</v>
       </c>
       <c r="G25" s="27">
-        <v>44060</v>
+        <v>44047</v>
       </c>
       <c r="H25" s="34">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" s="29">
         <v>0</v>
@@ -7763,19 +8224,19 @@
     </row>
     <row r="26" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="26" t="s">
         <v>8</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>9</v>
       </c>
       <c r="F26" s="27">
         <v>44032</v>
@@ -7972,13 +8433,13 @@
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" s="27">
         <v>44033</v>
@@ -8173,19 +8634,19 @@
     </row>
     <row r="28" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" s="27">
         <v>44033</v>
@@ -8380,19 +8841,19 @@
     </row>
     <row r="29" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>43</v>
-      </c>
       <c r="D29" s="25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" s="27">
         <v>44034</v>
@@ -8587,29 +9048,29 @@
     </row>
     <row r="30" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" s="27">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="G30" s="27">
-        <v>44040</v>
+        <v>44042</v>
       </c>
       <c r="H30" s="34">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30" s="29">
         <v>0</v>
@@ -8794,19 +9255,19 @@
     </row>
     <row r="31" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="27">
         <v>44036</v>
@@ -9000,20 +9461,30 @@
       <c r="GA31" s="32"/>
     </row>
     <row r="32" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
+      <c r="A32" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="F32" s="27">
-        <v>44052</v>
+        <v>44040</v>
       </c>
       <c r="G32" s="27">
-        <v>44054</v>
+        <v>44047</v>
       </c>
       <c r="H32" s="34">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I32" s="29">
         <v>0</v>
@@ -9197,28 +9668,30 @@
       <c r="GA32" s="32"/>
     </row>
     <row r="33" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="26"/>
+      <c r="A33" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="F33" s="27">
-        <v>44053</v>
+        <v>44039</v>
       </c>
       <c r="G33" s="27">
-        <v>44055</v>
+        <v>44047</v>
       </c>
       <c r="H33" s="34">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I33" s="29">
         <v>0</v>
@@ -9402,20 +9875,30 @@
       <c r="GA33" s="32"/>
     </row>
     <row r="34" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
+      <c r="A34" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>81</v>
+      </c>
       <c r="F34" s="27">
-        <v>44054</v>
+        <v>44046</v>
       </c>
       <c r="G34" s="27">
-        <v>44056</v>
+        <v>44050</v>
       </c>
       <c r="H34" s="34">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I34" s="29">
         <v>0</v>
@@ -9599,20 +10082,30 @@
       <c r="GA34" s="32"/>
     </row>
     <row r="35" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
+      <c r="A35" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>99</v>
+      </c>
       <c r="F35" s="27">
-        <v>44055</v>
+        <v>44048</v>
       </c>
       <c r="G35" s="27">
-        <v>44057</v>
+        <v>44053</v>
       </c>
       <c r="H35" s="34">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I35" s="29">
         <v>0</v>
@@ -9796,20 +10289,30 @@
       <c r="GA35" s="32"/>
     </row>
     <row r="36" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
+      <c r="A36" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>99</v>
+      </c>
       <c r="F36" s="27">
-        <v>44056</v>
+        <v>44048</v>
       </c>
       <c r="G36" s="27">
-        <v>44058</v>
+        <v>44053</v>
       </c>
       <c r="H36" s="34">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I36" s="29">
         <v>0</v>
@@ -9993,20 +10496,30 @@
       <c r="GA36" s="32"/>
     </row>
     <row r="37" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
+      <c r="A37" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>99</v>
+      </c>
       <c r="F37" s="27">
-        <v>44057</v>
+        <v>44048</v>
       </c>
       <c r="G37" s="27">
-        <v>44059</v>
+        <v>44053</v>
       </c>
       <c r="H37" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I37" s="29">
         <v>0</v>
@@ -10190,20 +10703,30 @@
       <c r="GA37" s="32"/>
     </row>
     <row r="38" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26"/>
+      <c r="A38" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="F38" s="27">
-        <v>44058</v>
+        <v>44047</v>
       </c>
       <c r="G38" s="27">
-        <v>44060</v>
+        <v>44050</v>
       </c>
       <c r="H38" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I38" s="29">
         <v>0</v>
@@ -10387,20 +10910,30 @@
       <c r="GA38" s="32"/>
     </row>
     <row r="39" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
+      <c r="A39" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>81</v>
+      </c>
       <c r="F39" s="27">
-        <v>44059</v>
+        <v>44053</v>
       </c>
       <c r="G39" s="27">
-        <v>44061</v>
+        <v>44055</v>
       </c>
       <c r="H39" s="34">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" s="29">
         <v>0</v>
@@ -10584,20 +11117,30 @@
       <c r="GA39" s="32"/>
     </row>
     <row r="40" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26"/>
+      <c r="A40" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="F40" s="27">
-        <v>44060</v>
+        <v>44050</v>
       </c>
       <c r="G40" s="27">
-        <v>44062</v>
+        <v>44053</v>
       </c>
       <c r="H40" s="34">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" s="29">
         <v>0</v>
@@ -10781,16 +11324,30 @@
       <c r="GA40" s="32"/>
     </row>
     <row r="41" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
+      <c r="A41" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="27">
+        <v>44054</v>
+      </c>
+      <c r="G41" s="27">
+        <v>44056</v>
+      </c>
       <c r="H41" s="34">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I41" s="35">
         <v>0</v>
@@ -10974,16 +11531,30 @@
       <c r="GA41" s="32"/>
     </row>
     <row r="42" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
+      <c r="A42" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" s="27">
+        <v>44048</v>
+      </c>
+      <c r="G42" s="27">
+        <v>44050</v>
+      </c>
       <c r="H42" s="34">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42" s="35">
         <v>0</v>
@@ -11167,16 +11738,30 @@
       <c r="GA42" s="32"/>
     </row>
     <row r="43" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
+      <c r="A43" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="27">
+        <v>44050</v>
+      </c>
+      <c r="G43" s="27">
+        <v>44053</v>
+      </c>
       <c r="H43" s="34">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" s="35">
         <v>0</v>
@@ -11360,16 +11945,30 @@
       <c r="GA43" s="32"/>
     </row>
     <row r="44" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
+      <c r="A44" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="27">
+        <v>44043</v>
+      </c>
+      <c r="G44" s="27">
+        <v>44048</v>
+      </c>
       <c r="H44" s="34">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I44" s="35">
         <v>0</v>
@@ -11553,16 +12152,30 @@
       <c r="GA44" s="32"/>
     </row>
     <row r="45" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
+      <c r="A45" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="27">
+        <v>44055</v>
+      </c>
+      <c r="G45" s="27">
+        <v>44057</v>
+      </c>
       <c r="H45" s="34">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I45" s="35">
         <v>0</v>
@@ -11746,16 +12359,30 @@
       <c r="GA45" s="32"/>
     </row>
     <row r="46" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
+      <c r="A46" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="27">
+        <v>44053</v>
+      </c>
+      <c r="G46" s="27">
+        <v>44056</v>
+      </c>
       <c r="H46" s="34">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I46" s="35">
         <v>0</v>
@@ -11939,16 +12566,30 @@
       <c r="GA46" s="32"/>
     </row>
     <row r="47" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
+      <c r="A47" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="27">
+        <v>44048</v>
+      </c>
+      <c r="G47" s="27">
+        <v>44050</v>
+      </c>
       <c r="H47" s="34">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47" s="35">
         <v>0</v>
@@ -12132,16 +12773,30 @@
       <c r="GA47" s="32"/>
     </row>
     <row r="48" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="A48" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F48" s="27">
+        <v>44049</v>
+      </c>
+      <c r="G48" s="27">
+        <v>44056</v>
+      </c>
       <c r="H48" s="34">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I48" s="35">
         <v>0</v>
@@ -12325,16 +12980,30 @@
       <c r="GA48" s="32"/>
     </row>
     <row r="49" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
+      <c r="A49" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="27">
+        <v>44053</v>
+      </c>
+      <c r="G49" s="27">
+        <v>44057</v>
+      </c>
       <c r="H49" s="34">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I49" s="35">
         <v>0</v>
@@ -12518,16 +13187,30 @@
       <c r="GA49" s="32"/>
     </row>
     <row r="50" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
+      <c r="A50" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="27">
+        <v>44055</v>
+      </c>
+      <c r="G50" s="27">
+        <v>44057</v>
+      </c>
       <c r="H50" s="34">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I50" s="35">
         <v>0</v>
@@ -12711,16 +13394,30 @@
       <c r="GA50" s="32"/>
     </row>
     <row r="51" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
+      <c r="A51" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" s="27">
+        <v>44056</v>
+      </c>
+      <c r="G51" s="27">
+        <v>44057</v>
+      </c>
       <c r="H51" s="34">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" s="35">
         <v>0</v>
@@ -12904,16 +13601,30 @@
       <c r="GA51" s="32"/>
     </row>
     <row r="52" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
+      <c r="A52" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" s="27">
+        <v>44056</v>
+      </c>
+      <c r="G52" s="27">
+        <v>44056</v>
+      </c>
       <c r="H52" s="34">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="35">
         <v>0</v>
@@ -13097,16 +13808,30 @@
       <c r="GA52" s="32"/>
     </row>
     <row r="53" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
+      <c r="A53" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" s="27">
+        <v>44057</v>
+      </c>
+      <c r="G53" s="27">
+        <v>44057</v>
+      </c>
       <c r="H53" s="34">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="35">
         <v>0</v>
@@ -13290,16 +14015,30 @@
       <c r="GA53" s="32"/>
     </row>
     <row r="54" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
+      <c r="A54" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="27">
+        <v>44060</v>
+      </c>
+      <c r="G54" s="27">
+        <v>44060</v>
+      </c>
       <c r="H54" s="34">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="35">
         <v>0</v>
@@ -16386,7 +17125,7 @@
       <c r="F70" s="27"/>
       <c r="G70" s="27"/>
       <c r="H70" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H70:H133" si="8">NETWORKDAYS(F70,G70)</f>
         <v>0</v>
       </c>
       <c r="I70" s="35">
@@ -16579,7 +17318,7 @@
       <c r="F71" s="27"/>
       <c r="G71" s="27"/>
       <c r="H71" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I71" s="35">
@@ -16772,7 +17511,7 @@
       <c r="F72" s="27"/>
       <c r="G72" s="27"/>
       <c r="H72" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I72" s="35">
@@ -16965,7 +17704,7 @@
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
       <c r="H73" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I73" s="35">
@@ -17158,7 +17897,7 @@
       <c r="F74" s="27"/>
       <c r="G74" s="27"/>
       <c r="H74" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I74" s="35">
@@ -17351,7 +18090,7 @@
       <c r="F75" s="27"/>
       <c r="G75" s="27"/>
       <c r="H75" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I75" s="35">
@@ -17544,7 +18283,7 @@
       <c r="F76" s="27"/>
       <c r="G76" s="27"/>
       <c r="H76" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I76" s="35">
@@ -17737,7 +18476,7 @@
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
       <c r="H77" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I77" s="35">
@@ -17930,7 +18669,7 @@
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
       <c r="H78" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I78" s="35">
@@ -18123,7 +18862,7 @@
       <c r="F79" s="27"/>
       <c r="G79" s="27"/>
       <c r="H79" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I79" s="35">
@@ -18316,7 +19055,7 @@
       <c r="F80" s="27"/>
       <c r="G80" s="27"/>
       <c r="H80" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I80" s="35">
@@ -18509,7 +19248,7 @@
       <c r="F81" s="27"/>
       <c r="G81" s="27"/>
       <c r="H81" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I81" s="35">
@@ -18702,7 +19441,7 @@
       <c r="F82" s="27"/>
       <c r="G82" s="27"/>
       <c r="H82" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I82" s="35">
@@ -18895,7 +19634,7 @@
       <c r="F83" s="27"/>
       <c r="G83" s="27"/>
       <c r="H83" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I83" s="35">
@@ -19088,7 +19827,7 @@
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
       <c r="H84" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I84" s="35">
@@ -19281,7 +20020,7 @@
       <c r="F85" s="27"/>
       <c r="G85" s="27"/>
       <c r="H85" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I85" s="35">
@@ -19474,7 +20213,7 @@
       <c r="F86" s="27"/>
       <c r="G86" s="27"/>
       <c r="H86" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I86" s="35">
@@ -19667,7 +20406,7 @@
       <c r="F87" s="27"/>
       <c r="G87" s="27"/>
       <c r="H87" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I87" s="35">
@@ -19860,7 +20599,7 @@
       <c r="F88" s="27"/>
       <c r="G88" s="27"/>
       <c r="H88" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I88" s="35">
@@ -20053,7 +20792,7 @@
       <c r="F89" s="27"/>
       <c r="G89" s="27"/>
       <c r="H89" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I89" s="35">
@@ -20246,7 +20985,7 @@
       <c r="F90" s="27"/>
       <c r="G90" s="27"/>
       <c r="H90" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I90" s="35">
@@ -20439,7 +21178,7 @@
       <c r="F91" s="27"/>
       <c r="G91" s="27"/>
       <c r="H91" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I91" s="35">
@@ -20632,7 +21371,7 @@
       <c r="F92" s="27"/>
       <c r="G92" s="27"/>
       <c r="H92" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I92" s="35">
@@ -20825,7 +21564,7 @@
       <c r="F93" s="27"/>
       <c r="G93" s="27"/>
       <c r="H93" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I93" s="35">
@@ -21018,7 +21757,7 @@
       <c r="F94" s="27"/>
       <c r="G94" s="27"/>
       <c r="H94" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I94" s="35">
@@ -21211,7 +21950,7 @@
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
       <c r="H95" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I95" s="35">
@@ -21404,7 +22143,7 @@
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
       <c r="H96" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I96" s="35">
@@ -21597,7 +22336,7 @@
       <c r="F97" s="27"/>
       <c r="G97" s="27"/>
       <c r="H97" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I97" s="35">
@@ -21790,7 +22529,7 @@
       <c r="F98" s="27"/>
       <c r="G98" s="27"/>
       <c r="H98" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I98" s="35">
@@ -21983,7 +22722,7 @@
       <c r="F99" s="27"/>
       <c r="G99" s="27"/>
       <c r="H99" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I99" s="35">
@@ -22176,7 +22915,7 @@
       <c r="F100" s="27"/>
       <c r="G100" s="27"/>
       <c r="H100" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I100" s="35">
@@ -22369,7 +23108,7 @@
       <c r="F101" s="27"/>
       <c r="G101" s="27"/>
       <c r="H101" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I101" s="35">
@@ -22562,7 +23301,7 @@
       <c r="F102" s="27"/>
       <c r="G102" s="27"/>
       <c r="H102" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I102" s="35">
@@ -22755,7 +23494,7 @@
       <c r="F103" s="27"/>
       <c r="G103" s="27"/>
       <c r="H103" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I103" s="35">
@@ -22948,7 +23687,7 @@
       <c r="F104" s="27"/>
       <c r="G104" s="27"/>
       <c r="H104" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I104" s="35">
@@ -23141,7 +23880,7 @@
       <c r="F105" s="27"/>
       <c r="G105" s="27"/>
       <c r="H105" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I105" s="35">
@@ -23334,7 +24073,7 @@
       <c r="F106" s="27"/>
       <c r="G106" s="27"/>
       <c r="H106" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I106" s="35">
@@ -23527,7 +24266,7 @@
       <c r="F107" s="27"/>
       <c r="G107" s="27"/>
       <c r="H107" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I107" s="35">
@@ -23720,7 +24459,7 @@
       <c r="F108" s="27"/>
       <c r="G108" s="27"/>
       <c r="H108" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I108" s="35">
@@ -23913,7 +24652,7 @@
       <c r="F109" s="27"/>
       <c r="G109" s="27"/>
       <c r="H109" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I109" s="35">
@@ -24106,7 +24845,7 @@
       <c r="F110" s="27"/>
       <c r="G110" s="27"/>
       <c r="H110" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I110" s="35">
@@ -24299,7 +25038,7 @@
       <c r="F111" s="27"/>
       <c r="G111" s="27"/>
       <c r="H111" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I111" s="35">
@@ -24492,7 +25231,7 @@
       <c r="F112" s="27"/>
       <c r="G112" s="27"/>
       <c r="H112" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I112" s="35">
@@ -24685,7 +25424,7 @@
       <c r="F113" s="27"/>
       <c r="G113" s="27"/>
       <c r="H113" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I113" s="35">
@@ -24878,7 +25617,7 @@
       <c r="F114" s="27"/>
       <c r="G114" s="27"/>
       <c r="H114" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I114" s="35">
@@ -25071,7 +25810,7 @@
       <c r="F115" s="27"/>
       <c r="G115" s="27"/>
       <c r="H115" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I115" s="35">
@@ -25264,7 +26003,7 @@
       <c r="F116" s="27"/>
       <c r="G116" s="27"/>
       <c r="H116" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I116" s="35">
@@ -25457,7 +26196,7 @@
       <c r="F117" s="27"/>
       <c r="G117" s="27"/>
       <c r="H117" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I117" s="35">
@@ -25650,7 +26389,7 @@
       <c r="F118" s="27"/>
       <c r="G118" s="27"/>
       <c r="H118" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I118" s="35">
@@ -25843,7 +26582,7 @@
       <c r="F119" s="27"/>
       <c r="G119" s="27"/>
       <c r="H119" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I119" s="35">
@@ -26036,7 +26775,7 @@
       <c r="F120" s="27"/>
       <c r="G120" s="27"/>
       <c r="H120" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I120" s="35">
@@ -26229,7 +26968,7 @@
       <c r="F121" s="27"/>
       <c r="G121" s="27"/>
       <c r="H121" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I121" s="35">
@@ -26422,7 +27161,7 @@
       <c r="F122" s="27"/>
       <c r="G122" s="27"/>
       <c r="H122" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I122" s="35">
@@ -26615,7 +27354,7 @@
       <c r="F123" s="27"/>
       <c r="G123" s="27"/>
       <c r="H123" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I123" s="35">
@@ -26808,7 +27547,7 @@
       <c r="F124" s="27"/>
       <c r="G124" s="27"/>
       <c r="H124" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I124" s="35">
@@ -27001,7 +27740,7 @@
       <c r="F125" s="27"/>
       <c r="G125" s="27"/>
       <c r="H125" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I125" s="35">
@@ -27194,7 +27933,7 @@
       <c r="F126" s="27"/>
       <c r="G126" s="27"/>
       <c r="H126" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I126" s="35">
@@ -27387,7 +28126,7 @@
       <c r="F127" s="27"/>
       <c r="G127" s="27"/>
       <c r="H127" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I127" s="35">
@@ -27580,7 +28319,7 @@
       <c r="F128" s="27"/>
       <c r="G128" s="27"/>
       <c r="H128" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I128" s="35">
@@ -27773,7 +28512,7 @@
       <c r="F129" s="27"/>
       <c r="G129" s="27"/>
       <c r="H129" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I129" s="35">
@@ -27966,7 +28705,7 @@
       <c r="F130" s="27"/>
       <c r="G130" s="27"/>
       <c r="H130" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I130" s="35">
@@ -28159,7 +28898,7 @@
       <c r="F131" s="27"/>
       <c r="G131" s="27"/>
       <c r="H131" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I131" s="35">
@@ -28352,7 +29091,7 @@
       <c r="F132" s="27"/>
       <c r="G132" s="27"/>
       <c r="H132" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I132" s="35">
@@ -28545,7 +29284,7 @@
       <c r="F133" s="27"/>
       <c r="G133" s="27"/>
       <c r="H133" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I133" s="35">
@@ -28738,7 +29477,7 @@
       <c r="F134" s="27"/>
       <c r="G134" s="27"/>
       <c r="H134" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H134:H197" si="10">NETWORKDAYS(F134,G134)</f>
         <v>0</v>
       </c>
       <c r="I134" s="35">
@@ -28931,7 +29670,7 @@
       <c r="F135" s="27"/>
       <c r="G135" s="27"/>
       <c r="H135" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I135" s="35">
@@ -29124,14 +29863,14 @@
       <c r="F136" s="27"/>
       <c r="G136" s="27"/>
       <c r="H136" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I136" s="35">
         <v>0</v>
       </c>
       <c r="J136" s="30" t="str">
-        <f t="shared" ref="J136:J199" si="10">IF(I136=100,"완료",IF(I136=0,"대기","진행중"))</f>
+        <f t="shared" ref="J136:J199" si="11">IF(I136=100,"완료",IF(I136=0,"대기","진행중"))</f>
         <v>대기</v>
       </c>
       <c r="K136" s="31"/>
@@ -29317,14 +30056,14 @@
       <c r="F137" s="27"/>
       <c r="G137" s="27"/>
       <c r="H137" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I137" s="35">
         <v>0</v>
       </c>
       <c r="J137" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K137" s="31"/>
@@ -29510,14 +30249,14 @@
       <c r="F138" s="27"/>
       <c r="G138" s="27"/>
       <c r="H138" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I138" s="35">
         <v>0</v>
       </c>
       <c r="J138" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K138" s="31"/>
@@ -29703,14 +30442,14 @@
       <c r="F139" s="27"/>
       <c r="G139" s="27"/>
       <c r="H139" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I139" s="35">
         <v>0</v>
       </c>
       <c r="J139" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K139" s="31"/>
@@ -29896,14 +30635,14 @@
       <c r="F140" s="27"/>
       <c r="G140" s="27"/>
       <c r="H140" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I140" s="35">
         <v>0</v>
       </c>
       <c r="J140" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K140" s="31"/>
@@ -30089,14 +30828,14 @@
       <c r="F141" s="27"/>
       <c r="G141" s="27"/>
       <c r="H141" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I141" s="35">
         <v>0</v>
       </c>
       <c r="J141" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K141" s="31"/>
@@ -30282,14 +31021,14 @@
       <c r="F142" s="27"/>
       <c r="G142" s="27"/>
       <c r="H142" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I142" s="35">
         <v>0</v>
       </c>
       <c r="J142" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K142" s="31"/>
@@ -30475,14 +31214,14 @@
       <c r="F143" s="27"/>
       <c r="G143" s="27"/>
       <c r="H143" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I143" s="35">
         <v>0</v>
       </c>
       <c r="J143" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K143" s="31"/>
@@ -30668,14 +31407,14 @@
       <c r="F144" s="27"/>
       <c r="G144" s="27"/>
       <c r="H144" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I144" s="35">
         <v>0</v>
       </c>
       <c r="J144" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K144" s="31"/>
@@ -30861,14 +31600,14 @@
       <c r="F145" s="27"/>
       <c r="G145" s="27"/>
       <c r="H145" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I145" s="35">
         <v>0</v>
       </c>
       <c r="J145" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K145" s="31"/>
@@ -31054,14 +31793,14 @@
       <c r="F146" s="27"/>
       <c r="G146" s="27"/>
       <c r="H146" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I146" s="35">
         <v>0</v>
       </c>
       <c r="J146" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K146" s="31"/>
@@ -31247,14 +31986,14 @@
       <c r="F147" s="27"/>
       <c r="G147" s="27"/>
       <c r="H147" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I147" s="35">
         <v>0</v>
       </c>
       <c r="J147" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K147" s="31"/>
@@ -31440,14 +32179,14 @@
       <c r="F148" s="27"/>
       <c r="G148" s="27"/>
       <c r="H148" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I148" s="35">
         <v>0</v>
       </c>
       <c r="J148" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K148" s="31"/>
@@ -31633,14 +32372,14 @@
       <c r="F149" s="27"/>
       <c r="G149" s="27"/>
       <c r="H149" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I149" s="35">
         <v>0</v>
       </c>
       <c r="J149" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K149" s="31"/>
@@ -31826,14 +32565,14 @@
       <c r="F150" s="27"/>
       <c r="G150" s="27"/>
       <c r="H150" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I150" s="35">
         <v>0</v>
       </c>
       <c r="J150" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K150" s="31"/>
@@ -32019,14 +32758,14 @@
       <c r="F151" s="27"/>
       <c r="G151" s="27"/>
       <c r="H151" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I151" s="35">
         <v>0</v>
       </c>
       <c r="J151" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K151" s="31"/>
@@ -32212,14 +32951,14 @@
       <c r="F152" s="27"/>
       <c r="G152" s="27"/>
       <c r="H152" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I152" s="35">
         <v>0</v>
       </c>
       <c r="J152" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K152" s="31"/>
@@ -32405,14 +33144,14 @@
       <c r="F153" s="27"/>
       <c r="G153" s="27"/>
       <c r="H153" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I153" s="35">
         <v>0</v>
       </c>
       <c r="J153" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K153" s="31"/>
@@ -32598,14 +33337,14 @@
       <c r="F154" s="27"/>
       <c r="G154" s="27"/>
       <c r="H154" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I154" s="35">
         <v>0</v>
       </c>
       <c r="J154" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K154" s="31"/>
@@ -32791,14 +33530,14 @@
       <c r="F155" s="27"/>
       <c r="G155" s="27"/>
       <c r="H155" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I155" s="35">
         <v>0</v>
       </c>
       <c r="J155" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K155" s="31"/>
@@ -32984,14 +33723,14 @@
       <c r="F156" s="27"/>
       <c r="G156" s="27"/>
       <c r="H156" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I156" s="35">
         <v>0</v>
       </c>
       <c r="J156" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K156" s="31"/>
@@ -33177,14 +33916,14 @@
       <c r="F157" s="27"/>
       <c r="G157" s="27"/>
       <c r="H157" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I157" s="35">
         <v>0</v>
       </c>
       <c r="J157" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K157" s="31"/>
@@ -33370,14 +34109,14 @@
       <c r="F158" s="27"/>
       <c r="G158" s="27"/>
       <c r="H158" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I158" s="35">
         <v>0</v>
       </c>
       <c r="J158" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K158" s="31"/>
@@ -33563,14 +34302,14 @@
       <c r="F159" s="27"/>
       <c r="G159" s="27"/>
       <c r="H159" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I159" s="35">
         <v>0</v>
       </c>
       <c r="J159" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K159" s="31"/>
@@ -33756,14 +34495,14 @@
       <c r="F160" s="27"/>
       <c r="G160" s="27"/>
       <c r="H160" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I160" s="35">
         <v>0</v>
       </c>
       <c r="J160" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K160" s="31"/>
@@ -33949,14 +34688,14 @@
       <c r="F161" s="27"/>
       <c r="G161" s="27"/>
       <c r="H161" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I161" s="35">
         <v>0</v>
       </c>
       <c r="J161" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K161" s="31"/>
@@ -34142,14 +34881,14 @@
       <c r="F162" s="27"/>
       <c r="G162" s="27"/>
       <c r="H162" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I162" s="35">
         <v>0</v>
       </c>
       <c r="J162" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K162" s="31"/>
@@ -34335,14 +35074,14 @@
       <c r="F163" s="27"/>
       <c r="G163" s="27"/>
       <c r="H163" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I163" s="35">
         <v>0</v>
       </c>
       <c r="J163" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K163" s="31"/>
@@ -34528,14 +35267,14 @@
       <c r="F164" s="27"/>
       <c r="G164" s="27"/>
       <c r="H164" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I164" s="35">
         <v>0</v>
       </c>
       <c r="J164" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K164" s="31"/>
@@ -34721,14 +35460,14 @@
       <c r="F165" s="27"/>
       <c r="G165" s="27"/>
       <c r="H165" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I165" s="35">
         <v>0</v>
       </c>
       <c r="J165" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K165" s="31"/>
@@ -34914,14 +35653,14 @@
       <c r="F166" s="27"/>
       <c r="G166" s="27"/>
       <c r="H166" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I166" s="35">
         <v>0</v>
       </c>
       <c r="J166" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K166" s="31"/>
@@ -35107,14 +35846,14 @@
       <c r="F167" s="27"/>
       <c r="G167" s="27"/>
       <c r="H167" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I167" s="35">
         <v>0</v>
       </c>
       <c r="J167" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K167" s="31"/>
@@ -35300,14 +36039,14 @@
       <c r="F168" s="27"/>
       <c r="G168" s="27"/>
       <c r="H168" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I168" s="35">
         <v>0</v>
       </c>
       <c r="J168" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K168" s="31"/>
@@ -35493,14 +36232,14 @@
       <c r="F169" s="27"/>
       <c r="G169" s="27"/>
       <c r="H169" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I169" s="35">
         <v>0</v>
       </c>
       <c r="J169" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K169" s="31"/>
@@ -35686,14 +36425,14 @@
       <c r="F170" s="27"/>
       <c r="G170" s="27"/>
       <c r="H170" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I170" s="35">
         <v>0</v>
       </c>
       <c r="J170" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K170" s="31"/>
@@ -35879,14 +36618,14 @@
       <c r="F171" s="27"/>
       <c r="G171" s="27"/>
       <c r="H171" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I171" s="35">
         <v>0</v>
       </c>
       <c r="J171" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K171" s="31"/>
@@ -36072,14 +36811,14 @@
       <c r="F172" s="27"/>
       <c r="G172" s="27"/>
       <c r="H172" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I172" s="35">
         <v>0</v>
       </c>
       <c r="J172" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K172" s="31"/>
@@ -36265,14 +37004,14 @@
       <c r="F173" s="27"/>
       <c r="G173" s="27"/>
       <c r="H173" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I173" s="35">
         <v>0</v>
       </c>
       <c r="J173" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K173" s="31"/>
@@ -36458,14 +37197,14 @@
       <c r="F174" s="27"/>
       <c r="G174" s="27"/>
       <c r="H174" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I174" s="35">
         <v>0</v>
       </c>
       <c r="J174" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K174" s="31"/>
@@ -36651,14 +37390,14 @@
       <c r="F175" s="27"/>
       <c r="G175" s="27"/>
       <c r="H175" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I175" s="35">
         <v>0</v>
       </c>
       <c r="J175" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K175" s="31"/>
@@ -36844,14 +37583,14 @@
       <c r="F176" s="27"/>
       <c r="G176" s="27"/>
       <c r="H176" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I176" s="35">
         <v>0</v>
       </c>
       <c r="J176" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K176" s="31"/>
@@ -37037,14 +37776,14 @@
       <c r="F177" s="27"/>
       <c r="G177" s="27"/>
       <c r="H177" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I177" s="35">
         <v>0</v>
       </c>
       <c r="J177" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K177" s="31"/>
@@ -37230,14 +37969,14 @@
       <c r="F178" s="27"/>
       <c r="G178" s="27"/>
       <c r="H178" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I178" s="35">
         <v>0</v>
       </c>
       <c r="J178" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K178" s="31"/>
@@ -37423,14 +38162,14 @@
       <c r="F179" s="27"/>
       <c r="G179" s="27"/>
       <c r="H179" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I179" s="35">
         <v>0</v>
       </c>
       <c r="J179" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K179" s="31"/>
@@ -37616,14 +38355,14 @@
       <c r="F180" s="27"/>
       <c r="G180" s="27"/>
       <c r="H180" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I180" s="35">
         <v>0</v>
       </c>
       <c r="J180" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K180" s="31"/>
@@ -37809,14 +38548,14 @@
       <c r="F181" s="27"/>
       <c r="G181" s="27"/>
       <c r="H181" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I181" s="35">
         <v>0</v>
       </c>
       <c r="J181" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K181" s="31"/>
@@ -38002,14 +38741,14 @@
       <c r="F182" s="27"/>
       <c r="G182" s="27"/>
       <c r="H182" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I182" s="35">
         <v>0</v>
       </c>
       <c r="J182" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K182" s="31"/>
@@ -38195,14 +38934,14 @@
       <c r="F183" s="27"/>
       <c r="G183" s="27"/>
       <c r="H183" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I183" s="35">
         <v>0</v>
       </c>
       <c r="J183" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K183" s="31"/>
@@ -38388,14 +39127,14 @@
       <c r="F184" s="27"/>
       <c r="G184" s="27"/>
       <c r="H184" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I184" s="35">
         <v>0</v>
       </c>
       <c r="J184" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K184" s="31"/>
@@ -38581,14 +39320,14 @@
       <c r="F185" s="27"/>
       <c r="G185" s="27"/>
       <c r="H185" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I185" s="35">
         <v>0</v>
       </c>
       <c r="J185" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K185" s="31"/>
@@ -38774,14 +39513,14 @@
       <c r="F186" s="27"/>
       <c r="G186" s="27"/>
       <c r="H186" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I186" s="35">
         <v>0</v>
       </c>
       <c r="J186" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K186" s="31"/>
@@ -38967,14 +39706,14 @@
       <c r="F187" s="27"/>
       <c r="G187" s="27"/>
       <c r="H187" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I187" s="35">
         <v>0</v>
       </c>
       <c r="J187" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K187" s="31"/>
@@ -39160,14 +39899,14 @@
       <c r="F188" s="27"/>
       <c r="G188" s="27"/>
       <c r="H188" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I188" s="35">
         <v>0</v>
       </c>
       <c r="J188" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K188" s="31"/>
@@ -39353,14 +40092,14 @@
       <c r="F189" s="27"/>
       <c r="G189" s="27"/>
       <c r="H189" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I189" s="35">
         <v>0</v>
       </c>
       <c r="J189" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K189" s="31"/>
@@ -39546,14 +40285,14 @@
       <c r="F190" s="27"/>
       <c r="G190" s="27"/>
       <c r="H190" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I190" s="35">
         <v>0</v>
       </c>
       <c r="J190" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K190" s="31"/>
@@ -39739,14 +40478,14 @@
       <c r="F191" s="27"/>
       <c r="G191" s="27"/>
       <c r="H191" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I191" s="35">
         <v>0</v>
       </c>
       <c r="J191" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K191" s="31"/>
@@ -39932,14 +40671,14 @@
       <c r="F192" s="27"/>
       <c r="G192" s="27"/>
       <c r="H192" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I192" s="35">
         <v>0</v>
       </c>
       <c r="J192" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K192" s="31"/>
@@ -40125,14 +40864,14 @@
       <c r="F193" s="27"/>
       <c r="G193" s="27"/>
       <c r="H193" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I193" s="35">
         <v>0</v>
       </c>
       <c r="J193" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K193" s="31"/>
@@ -40318,14 +41057,14 @@
       <c r="F194" s="27"/>
       <c r="G194" s="27"/>
       <c r="H194" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I194" s="35">
         <v>0</v>
       </c>
       <c r="J194" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K194" s="31"/>
@@ -40511,14 +41250,14 @@
       <c r="F195" s="27"/>
       <c r="G195" s="27"/>
       <c r="H195" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I195" s="35">
         <v>0</v>
       </c>
       <c r="J195" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K195" s="31"/>
@@ -40704,14 +41443,14 @@
       <c r="F196" s="27"/>
       <c r="G196" s="27"/>
       <c r="H196" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I196" s="35">
         <v>0</v>
       </c>
       <c r="J196" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K196" s="31"/>
@@ -40897,14 +41636,14 @@
       <c r="F197" s="27"/>
       <c r="G197" s="27"/>
       <c r="H197" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I197" s="35">
         <v>0</v>
       </c>
       <c r="J197" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K197" s="31"/>
@@ -41090,14 +41829,14 @@
       <c r="F198" s="27"/>
       <c r="G198" s="27"/>
       <c r="H198" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H198:H261" si="12">NETWORKDAYS(F198,G198)</f>
         <v>0</v>
       </c>
       <c r="I198" s="35">
         <v>0</v>
       </c>
       <c r="J198" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K198" s="31"/>
@@ -41283,14 +42022,14 @@
       <c r="F199" s="27"/>
       <c r="G199" s="27"/>
       <c r="H199" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I199" s="35">
         <v>0</v>
       </c>
       <c r="J199" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>대기</v>
       </c>
       <c r="K199" s="31"/>
@@ -41476,14 +42215,14 @@
       <c r="F200" s="27"/>
       <c r="G200" s="27"/>
       <c r="H200" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I200" s="35">
         <v>0</v>
       </c>
       <c r="J200" s="30" t="str">
-        <f t="shared" ref="J200:J263" si="11">IF(I200=100,"완료",IF(I200=0,"대기","진행중"))</f>
+        <f t="shared" ref="J200:J263" si="13">IF(I200=100,"완료",IF(I200=0,"대기","진행중"))</f>
         <v>대기</v>
       </c>
       <c r="K200" s="31"/>
@@ -41669,14 +42408,14 @@
       <c r="F201" s="27"/>
       <c r="G201" s="27"/>
       <c r="H201" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I201" s="35">
         <v>0</v>
       </c>
       <c r="J201" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K201" s="31"/>
@@ -41862,14 +42601,14 @@
       <c r="F202" s="27"/>
       <c r="G202" s="27"/>
       <c r="H202" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I202" s="35">
         <v>0</v>
       </c>
       <c r="J202" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K202" s="31"/>
@@ -42055,14 +42794,14 @@
       <c r="F203" s="27"/>
       <c r="G203" s="27"/>
       <c r="H203" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I203" s="35">
         <v>0</v>
       </c>
       <c r="J203" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K203" s="31"/>
@@ -42248,14 +42987,14 @@
       <c r="F204" s="27"/>
       <c r="G204" s="27"/>
       <c r="H204" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I204" s="35">
         <v>0</v>
       </c>
       <c r="J204" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K204" s="31"/>
@@ -42441,14 +43180,14 @@
       <c r="F205" s="27"/>
       <c r="G205" s="27"/>
       <c r="H205" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I205" s="35">
         <v>0</v>
       </c>
       <c r="J205" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K205" s="31"/>
@@ -42634,14 +43373,14 @@
       <c r="F206" s="27"/>
       <c r="G206" s="27"/>
       <c r="H206" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I206" s="35">
         <v>0</v>
       </c>
       <c r="J206" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K206" s="31"/>
@@ -42827,14 +43566,14 @@
       <c r="F207" s="27"/>
       <c r="G207" s="27"/>
       <c r="H207" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I207" s="35">
         <v>0</v>
       </c>
       <c r="J207" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K207" s="31"/>
@@ -43020,14 +43759,14 @@
       <c r="F208" s="27"/>
       <c r="G208" s="27"/>
       <c r="H208" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I208" s="35">
         <v>0</v>
       </c>
       <c r="J208" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K208" s="31"/>
@@ -43213,14 +43952,14 @@
       <c r="F209" s="27"/>
       <c r="G209" s="27"/>
       <c r="H209" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I209" s="35">
         <v>0</v>
       </c>
       <c r="J209" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K209" s="31"/>
@@ -43406,14 +44145,14 @@
       <c r="F210" s="27"/>
       <c r="G210" s="27"/>
       <c r="H210" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I210" s="35">
         <v>0</v>
       </c>
       <c r="J210" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K210" s="31"/>
@@ -43599,14 +44338,14 @@
       <c r="F211" s="27"/>
       <c r="G211" s="27"/>
       <c r="H211" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I211" s="35">
         <v>0</v>
       </c>
       <c r="J211" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K211" s="31"/>
@@ -43792,14 +44531,14 @@
       <c r="F212" s="27"/>
       <c r="G212" s="27"/>
       <c r="H212" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I212" s="35">
         <v>0</v>
       </c>
       <c r="J212" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K212" s="31"/>
@@ -43985,14 +44724,14 @@
       <c r="F213" s="27"/>
       <c r="G213" s="27"/>
       <c r="H213" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I213" s="35">
         <v>0</v>
       </c>
       <c r="J213" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K213" s="31"/>
@@ -44178,14 +44917,14 @@
       <c r="F214" s="27"/>
       <c r="G214" s="27"/>
       <c r="H214" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I214" s="35">
         <v>0</v>
       </c>
       <c r="J214" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K214" s="31"/>
@@ -44371,14 +45110,14 @@
       <c r="F215" s="27"/>
       <c r="G215" s="27"/>
       <c r="H215" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I215" s="35">
         <v>0</v>
       </c>
       <c r="J215" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K215" s="31"/>
@@ -44564,14 +45303,14 @@
       <c r="F216" s="27"/>
       <c r="G216" s="27"/>
       <c r="H216" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I216" s="35">
         <v>0</v>
       </c>
       <c r="J216" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K216" s="31"/>
@@ -44757,14 +45496,14 @@
       <c r="F217" s="27"/>
       <c r="G217" s="27"/>
       <c r="H217" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I217" s="35">
         <v>0</v>
       </c>
       <c r="J217" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K217" s="31"/>
@@ -44950,14 +45689,14 @@
       <c r="F218" s="27"/>
       <c r="G218" s="27"/>
       <c r="H218" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I218" s="35">
         <v>0</v>
       </c>
       <c r="J218" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K218" s="31"/>
@@ -45143,14 +45882,14 @@
       <c r="F219" s="27"/>
       <c r="G219" s="27"/>
       <c r="H219" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I219" s="35">
         <v>0</v>
       </c>
       <c r="J219" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K219" s="31"/>
@@ -45336,14 +46075,14 @@
       <c r="F220" s="27"/>
       <c r="G220" s="27"/>
       <c r="H220" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I220" s="35">
         <v>0</v>
       </c>
       <c r="J220" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K220" s="31"/>
@@ -45529,14 +46268,14 @@
       <c r="F221" s="27"/>
       <c r="G221" s="27"/>
       <c r="H221" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I221" s="35">
         <v>0</v>
       </c>
       <c r="J221" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K221" s="31"/>
@@ -45722,14 +46461,14 @@
       <c r="F222" s="27"/>
       <c r="G222" s="27"/>
       <c r="H222" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I222" s="35">
         <v>0</v>
       </c>
       <c r="J222" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K222" s="31"/>
@@ -45915,14 +46654,14 @@
       <c r="F223" s="27"/>
       <c r="G223" s="27"/>
       <c r="H223" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I223" s="35">
         <v>0</v>
       </c>
       <c r="J223" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K223" s="31"/>
@@ -46108,14 +46847,14 @@
       <c r="F224" s="27"/>
       <c r="G224" s="27"/>
       <c r="H224" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I224" s="35">
         <v>0</v>
       </c>
       <c r="J224" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K224" s="31"/>
@@ -46301,14 +47040,14 @@
       <c r="F225" s="27"/>
       <c r="G225" s="27"/>
       <c r="H225" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I225" s="35">
         <v>0</v>
       </c>
       <c r="J225" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K225" s="31"/>
@@ -46494,14 +47233,14 @@
       <c r="F226" s="27"/>
       <c r="G226" s="27"/>
       <c r="H226" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I226" s="35">
         <v>0</v>
       </c>
       <c r="J226" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K226" s="31"/>
@@ -46687,14 +47426,14 @@
       <c r="F227" s="27"/>
       <c r="G227" s="27"/>
       <c r="H227" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I227" s="35">
         <v>0</v>
       </c>
       <c r="J227" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K227" s="31"/>
@@ -46880,14 +47619,14 @@
       <c r="F228" s="27"/>
       <c r="G228" s="27"/>
       <c r="H228" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I228" s="35">
         <v>0</v>
       </c>
       <c r="J228" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K228" s="31"/>
@@ -47073,14 +47812,14 @@
       <c r="F229" s="27"/>
       <c r="G229" s="27"/>
       <c r="H229" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I229" s="35">
         <v>0</v>
       </c>
       <c r="J229" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K229" s="31"/>
@@ -47266,14 +48005,14 @@
       <c r="F230" s="27"/>
       <c r="G230" s="27"/>
       <c r="H230" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I230" s="35">
         <v>0</v>
       </c>
       <c r="J230" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K230" s="31"/>
@@ -47459,14 +48198,14 @@
       <c r="F231" s="27"/>
       <c r="G231" s="27"/>
       <c r="H231" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I231" s="35">
         <v>0</v>
       </c>
       <c r="J231" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K231" s="31"/>
@@ -47652,14 +48391,14 @@
       <c r="F232" s="27"/>
       <c r="G232" s="27"/>
       <c r="H232" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I232" s="35">
         <v>0</v>
       </c>
       <c r="J232" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K232" s="31"/>
@@ -47845,14 +48584,14 @@
       <c r="F233" s="27"/>
       <c r="G233" s="27"/>
       <c r="H233" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I233" s="35">
         <v>0</v>
       </c>
       <c r="J233" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K233" s="31"/>
@@ -48038,14 +48777,14 @@
       <c r="F234" s="27"/>
       <c r="G234" s="27"/>
       <c r="H234" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I234" s="35">
         <v>0</v>
       </c>
       <c r="J234" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K234" s="31"/>
@@ -48231,14 +48970,14 @@
       <c r="F235" s="27"/>
       <c r="G235" s="27"/>
       <c r="H235" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I235" s="35">
         <v>0</v>
       </c>
       <c r="J235" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K235" s="31"/>
@@ -48424,14 +49163,14 @@
       <c r="F236" s="27"/>
       <c r="G236" s="27"/>
       <c r="H236" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I236" s="35">
         <v>0</v>
       </c>
       <c r="J236" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K236" s="31"/>
@@ -48617,14 +49356,14 @@
       <c r="F237" s="27"/>
       <c r="G237" s="27"/>
       <c r="H237" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I237" s="35">
         <v>0</v>
       </c>
       <c r="J237" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K237" s="31"/>
@@ -48810,14 +49549,14 @@
       <c r="F238" s="27"/>
       <c r="G238" s="27"/>
       <c r="H238" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I238" s="35">
         <v>0</v>
       </c>
       <c r="J238" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K238" s="31"/>
@@ -49003,14 +49742,14 @@
       <c r="F239" s="27"/>
       <c r="G239" s="27"/>
       <c r="H239" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I239" s="35">
         <v>0</v>
       </c>
       <c r="J239" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K239" s="31"/>
@@ -49196,14 +49935,14 @@
       <c r="F240" s="27"/>
       <c r="G240" s="27"/>
       <c r="H240" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I240" s="35">
         <v>0</v>
       </c>
       <c r="J240" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K240" s="31"/>
@@ -49389,14 +50128,14 @@
       <c r="F241" s="27"/>
       <c r="G241" s="27"/>
       <c r="H241" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I241" s="35">
         <v>0</v>
       </c>
       <c r="J241" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K241" s="31"/>
@@ -49582,14 +50321,14 @@
       <c r="F242" s="27"/>
       <c r="G242" s="27"/>
       <c r="H242" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I242" s="35">
         <v>0</v>
       </c>
       <c r="J242" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K242" s="31"/>
@@ -49775,14 +50514,14 @@
       <c r="F243" s="27"/>
       <c r="G243" s="27"/>
       <c r="H243" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I243" s="35">
         <v>0</v>
       </c>
       <c r="J243" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K243" s="31"/>
@@ -49968,14 +50707,14 @@
       <c r="F244" s="27"/>
       <c r="G244" s="27"/>
       <c r="H244" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I244" s="35">
         <v>0</v>
       </c>
       <c r="J244" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K244" s="31"/>
@@ -50161,14 +50900,14 @@
       <c r="F245" s="27"/>
       <c r="G245" s="27"/>
       <c r="H245" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I245" s="35">
         <v>0</v>
       </c>
       <c r="J245" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K245" s="31"/>
@@ -50354,14 +51093,14 @@
       <c r="F246" s="27"/>
       <c r="G246" s="27"/>
       <c r="H246" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I246" s="35">
         <v>0</v>
       </c>
       <c r="J246" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K246" s="31"/>
@@ -50547,14 +51286,14 @@
       <c r="F247" s="27"/>
       <c r="G247" s="27"/>
       <c r="H247" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I247" s="35">
         <v>0</v>
       </c>
       <c r="J247" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K247" s="31"/>
@@ -50740,14 +51479,14 @@
       <c r="F248" s="27"/>
       <c r="G248" s="27"/>
       <c r="H248" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I248" s="35">
         <v>0</v>
       </c>
       <c r="J248" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K248" s="31"/>
@@ -50933,14 +51672,14 @@
       <c r="F249" s="27"/>
       <c r="G249" s="27"/>
       <c r="H249" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I249" s="35">
         <v>0</v>
       </c>
       <c r="J249" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K249" s="31"/>
@@ -51126,14 +51865,14 @@
       <c r="F250" s="27"/>
       <c r="G250" s="27"/>
       <c r="H250" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I250" s="35">
         <v>0</v>
       </c>
       <c r="J250" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K250" s="31"/>
@@ -51319,14 +52058,14 @@
       <c r="F251" s="27"/>
       <c r="G251" s="27"/>
       <c r="H251" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I251" s="35">
         <v>0</v>
       </c>
       <c r="J251" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K251" s="31"/>
@@ -51512,14 +52251,14 @@
       <c r="F252" s="27"/>
       <c r="G252" s="27"/>
       <c r="H252" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I252" s="35">
         <v>0</v>
       </c>
       <c r="J252" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K252" s="31"/>
@@ -51705,14 +52444,14 @@
       <c r="F253" s="27"/>
       <c r="G253" s="27"/>
       <c r="H253" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I253" s="35">
         <v>0</v>
       </c>
       <c r="J253" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K253" s="31"/>
@@ -51898,14 +52637,14 @@
       <c r="F254" s="27"/>
       <c r="G254" s="27"/>
       <c r="H254" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I254" s="35">
         <v>0</v>
       </c>
       <c r="J254" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K254" s="31"/>
@@ -52091,14 +52830,14 @@
       <c r="F255" s="27"/>
       <c r="G255" s="27"/>
       <c r="H255" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I255" s="35">
         <v>0</v>
       </c>
       <c r="J255" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K255" s="31"/>
@@ -52284,14 +53023,14 @@
       <c r="F256" s="27"/>
       <c r="G256" s="27"/>
       <c r="H256" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I256" s="35">
         <v>0</v>
       </c>
       <c r="J256" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K256" s="31"/>
@@ -52477,14 +53216,14 @@
       <c r="F257" s="27"/>
       <c r="G257" s="27"/>
       <c r="H257" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I257" s="35">
         <v>0</v>
       </c>
       <c r="J257" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K257" s="31"/>
@@ -52670,14 +53409,14 @@
       <c r="F258" s="27"/>
       <c r="G258" s="27"/>
       <c r="H258" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I258" s="35">
         <v>0</v>
       </c>
       <c r="J258" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K258" s="31"/>
@@ -52863,14 +53602,14 @@
       <c r="F259" s="27"/>
       <c r="G259" s="27"/>
       <c r="H259" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I259" s="35">
         <v>0</v>
       </c>
       <c r="J259" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K259" s="31"/>
@@ -53056,14 +53795,14 @@
       <c r="F260" s="27"/>
       <c r="G260" s="27"/>
       <c r="H260" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I260" s="35">
         <v>0</v>
       </c>
       <c r="J260" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K260" s="31"/>
@@ -53249,14 +53988,14 @@
       <c r="F261" s="27"/>
       <c r="G261" s="27"/>
       <c r="H261" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I261" s="35">
         <v>0</v>
       </c>
       <c r="J261" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K261" s="31"/>
@@ -53442,14 +54181,14 @@
       <c r="F262" s="27"/>
       <c r="G262" s="27"/>
       <c r="H262" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H262:H325" si="14">NETWORKDAYS(F262,G262)</f>
         <v>0</v>
       </c>
       <c r="I262" s="35">
         <v>0</v>
       </c>
       <c r="J262" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K262" s="31"/>
@@ -53635,14 +54374,14 @@
       <c r="F263" s="27"/>
       <c r="G263" s="27"/>
       <c r="H263" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I263" s="35">
         <v>0</v>
       </c>
       <c r="J263" s="30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>대기</v>
       </c>
       <c r="K263" s="31"/>
@@ -53828,14 +54567,14 @@
       <c r="F264" s="27"/>
       <c r="G264" s="27"/>
       <c r="H264" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I264" s="35">
         <v>0</v>
       </c>
       <c r="J264" s="30" t="str">
-        <f t="shared" ref="J264:J281" si="12">IF(I264=100,"완료",IF(I264=0,"대기","진행중"))</f>
+        <f t="shared" ref="J264:J281" si="15">IF(I264=100,"완료",IF(I264=0,"대기","진행중"))</f>
         <v>대기</v>
       </c>
       <c r="K264" s="31"/>
@@ -54021,14 +54760,14 @@
       <c r="F265" s="27"/>
       <c r="G265" s="27"/>
       <c r="H265" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I265" s="35">
         <v>0</v>
       </c>
       <c r="J265" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>대기</v>
       </c>
       <c r="K265" s="31"/>
@@ -54214,14 +54953,14 @@
       <c r="F266" s="27"/>
       <c r="G266" s="27"/>
       <c r="H266" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I266" s="35">
         <v>0</v>
       </c>
       <c r="J266" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>대기</v>
       </c>
       <c r="K266" s="31"/>
@@ -54407,14 +55146,14 @@
       <c r="F267" s="27"/>
       <c r="G267" s="27"/>
       <c r="H267" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I267" s="35">
         <v>0</v>
       </c>
       <c r="J267" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>대기</v>
       </c>
       <c r="K267" s="31"/>
@@ -54600,14 +55339,14 @@
       <c r="F268" s="27"/>
       <c r="G268" s="27"/>
       <c r="H268" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I268" s="35">
         <v>0</v>
       </c>
       <c r="J268" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>대기</v>
       </c>
       <c r="K268" s="31"/>
@@ -54793,14 +55532,14 @@
       <c r="F269" s="27"/>
       <c r="G269" s="27"/>
       <c r="H269" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I269" s="35">
         <v>0</v>
       </c>
       <c r="J269" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>대기</v>
       </c>
       <c r="K269" s="31"/>
@@ -54986,14 +55725,14 @@
       <c r="F270" s="27"/>
       <c r="G270" s="27"/>
       <c r="H270" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I270" s="35">
         <v>0</v>
       </c>
       <c r="J270" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>대기</v>
       </c>
       <c r="K270" s="31"/>
@@ -55179,14 +55918,14 @@
       <c r="F271" s="27"/>
       <c r="G271" s="27"/>
       <c r="H271" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I271" s="35">
         <v>0</v>
       </c>
       <c r="J271" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>대기</v>
       </c>
       <c r="K271" s="31"/>
@@ -55372,14 +56111,14 @@
       <c r="F272" s="27"/>
       <c r="G272" s="27"/>
       <c r="H272" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I272" s="35">
         <v>0</v>
       </c>
       <c r="J272" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>대기</v>
       </c>
       <c r="K272" s="31"/>
@@ -55565,14 +56304,14 @@
       <c r="F273" s="27"/>
       <c r="G273" s="27"/>
       <c r="H273" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I273" s="35">
         <v>0</v>
       </c>
       <c r="J273" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>대기</v>
       </c>
       <c r="K273" s="31"/>
@@ -55758,14 +56497,14 @@
       <c r="F274" s="27"/>
       <c r="G274" s="27"/>
       <c r="H274" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I274" s="35">
         <v>0</v>
       </c>
       <c r="J274" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>대기</v>
       </c>
       <c r="K274" s="31"/>
@@ -55951,14 +56690,14 @@
       <c r="F275" s="27"/>
       <c r="G275" s="27"/>
       <c r="H275" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I275" s="35">
         <v>0</v>
       </c>
       <c r="J275" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>대기</v>
       </c>
       <c r="K275" s="31"/>
@@ -56144,14 +56883,14 @@
       <c r="F276" s="27"/>
       <c r="G276" s="27"/>
       <c r="H276" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I276" s="35">
         <v>0</v>
       </c>
       <c r="J276" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>대기</v>
       </c>
       <c r="K276" s="31"/>
@@ -56337,14 +57076,14 @@
       <c r="F277" s="27"/>
       <c r="G277" s="27"/>
       <c r="H277" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I277" s="35">
         <v>0</v>
       </c>
       <c r="J277" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>대기</v>
       </c>
       <c r="K277" s="31"/>
@@ -56530,14 +57269,14 @@
       <c r="F278" s="27"/>
       <c r="G278" s="27"/>
       <c r="H278" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I278" s="35">
         <v>0</v>
       </c>
       <c r="J278" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>대기</v>
       </c>
       <c r="K278" s="31"/>
@@ -56723,14 +57462,14 @@
       <c r="F279" s="27"/>
       <c r="G279" s="27"/>
       <c r="H279" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I279" s="35">
         <v>0</v>
       </c>
       <c r="J279" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>대기</v>
       </c>
       <c r="K279" s="31"/>
@@ -56916,14 +57655,14 @@
       <c r="F280" s="27"/>
       <c r="G280" s="27"/>
       <c r="H280" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I280" s="35">
         <v>0</v>
       </c>
       <c r="J280" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>대기</v>
       </c>
       <c r="K280" s="31"/>
@@ -57109,14 +57848,14 @@
       <c r="F281" s="27"/>
       <c r="G281" s="27"/>
       <c r="H281" s="34">
-        <f>NETWORKDAYS(F281,G281)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I281" s="35">
         <v>0</v>
       </c>
       <c r="J281" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>대기</v>
       </c>
       <c r="K281" s="31"/>
@@ -57333,7 +58072,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Input Error" error="Value can only be 1 for daily and 7 for weekly.  Please re-enter your value" sqref="G4:H4">
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Input Error" error="Value can only be 1 for daily and 7 for weekly.  Please re-enter your value" sqref="G4:H4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1, 7"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ODiYstatus.xlsx
+++ b/ODiYstatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\라쿤\Documents\pot\DEV\EZENProject\ODiY\git\ODiY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5798C8C6-EFEF-4006-A13F-668797E0DB7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088DFD08-C274-4F64-A993-C16B6EF282E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,6 @@
     <definedName name="파트">OFFSET(#REF!,0,0,1,COUNTA(#REF!))</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2118,7 +2117,7 @@
       <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G55" sqref="G55"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4161,11 +4160,11 @@
         <v>3</v>
       </c>
       <c r="I6" s="29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J6" s="30" t="str">
         <f>IF(I6=100,"완료",IF(I6=0,"대기","진행중"))</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="32"/>
@@ -4364,11 +4363,11 @@
         <v>3</v>
       </c>
       <c r="I7" s="29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J7" s="30" t="str">
         <f t="shared" ref="J7:J71" si="7">IF(I7=100,"완료",IF(I7=0,"대기","진행중"))</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="K7" s="31"/>
       <c r="L7" s="32"/>
@@ -4567,11 +4566,11 @@
         <v>3</v>
       </c>
       <c r="I8" s="29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="30" t="str">
         <f>IF(I8=100,"완료",IF(I8=0,"대기","진행중"))</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="K8" s="31"/>
       <c r="L8" s="32"/>
@@ -4770,11 +4769,11 @@
         <v>3</v>
       </c>
       <c r="I9" s="29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="30" t="str">
         <f>IF(I9=100,"완료",IF(I9=0,"대기","진행중"))</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="K9" s="31"/>
       <c r="L9" s="32"/>
@@ -4973,11 +4972,11 @@
         <v>3</v>
       </c>
       <c r="I10" s="29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="30" t="str">
         <f>IF(I10=100,"완료",IF(I10=0,"대기","진행중"))</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="K10" s="31"/>
       <c r="L10" s="32"/>
@@ -5176,11 +5175,11 @@
         <v>3</v>
       </c>
       <c r="I11" s="29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J11" s="30" t="str">
         <f>IF(I11=100,"완료",IF(I11=0,"대기","진행중"))</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="K11" s="31"/>
       <c r="L11" s="32"/>
@@ -5379,11 +5378,11 @@
         <v>5</v>
       </c>
       <c r="I12" s="29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="30" t="str">
         <f t="shared" si="7"/>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="K12" s="31"/>
       <c r="L12" s="32"/>
@@ -54181,7 +54180,7 @@
       <c r="F262" s="27"/>
       <c r="G262" s="27"/>
       <c r="H262" s="34">
-        <f t="shared" ref="H262:H325" si="14">NETWORKDAYS(F262,G262)</f>
+        <f t="shared" ref="H262:H281" si="14">NETWORKDAYS(F262,G262)</f>
         <v>0</v>
       </c>
       <c r="I262" s="35">
